--- a/South Korea/Nelson-Siegel/Newton/Tables/South Korea.xlsx
+++ b/South Korea/Nelson-Siegel/Newton/Tables/South Korea.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,10 +17,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -38,12 +45,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -56,14 +78,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -428,7 +453,7 @@
   </sheetPr>
   <dimension ref="A1:CX25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1320,7 +1345,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[ 0.02881349 -0.02271728  0.00253175  1.00081965]</t>
+          <t>[ 0.02881349 -0.02271728  0.00253175  1.00081966]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1775,12 +1800,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[ 0.03107937 -0.02037343  0.00359902  1.0006887 ]</t>
+          <t>[ 0.03107937 -0.02037343  0.00359902  1.00068871]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[ 0.03170396 -0.02235264  0.00378497  1.00069143]</t>
+          <t>[ 0.03170396 -0.02235265  0.00378497  1.00069143]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1815,17 +1840,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[ 0.03229677 -0.02624794  0.00712989  1.0006371 ]</t>
+          <t>[ 0.03229677 -0.02624795  0.00712989  1.0006371 ]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[ 0.03225015 -0.02643803  0.00762434  1.00062812]</t>
+          <t>[ 0.03225015 -0.02643803  0.00762435  1.00062812]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[ 0.03220041 -0.02661033  0.00810528  1.00061948]</t>
+          <t>[ 0.03220041 -0.02661033  0.00810529  1.00061948]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1835,7 +1860,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[ 0.03209861 -0.02692002  0.00902412  1.00060329]</t>
+          <t>[ 0.03209861 -0.02692002  0.00902413  1.00060329]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1880,7 +1905,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>[ 0.03169327 -0.02802103  0.01248104  1.00054703]</t>
+          <t>[ 0.03169327 -0.02802103  0.01248105  1.00054703]</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1890,7 +1915,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>[ 0.0316181  -0.02822129  0.01311616  1.00053753]</t>
+          <t>[ 0.0316181  -0.02822129  0.01311617  1.00053753]</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1910,12 +1935,12 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>[ 0.03148224 -0.02858303  0.01426374  1.00052099]</t>
+          <t>[ 0.03148224 -0.02858304  0.01426374  1.000521  ]</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>[ 0.03145107 -0.02866602  0.01452703  1.00051731]</t>
+          <t>[ 0.03145107 -0.02866603  0.01452703  1.00051732]</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1940,7 +1965,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>[ 0.03131019 -0.02904111  0.01571703  1.00050118]</t>
+          <t>[ 0.03131019 -0.02904112  0.01571703  1.00050118]</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1985,7 +2010,7 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>[ 0.03110985 -0.02957454  0.01740935  1.00047949]</t>
+          <t>[ 0.03110985 -0.02957454  0.01740936  1.00047949]</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
@@ -2000,12 +2025,12 @@
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>[ 0.0310556  -0.029719    0.01786764  1.00047382]</t>
+          <t>[ 0.0310556  -0.029719    0.01786764  1.00047383]</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>[ 0.03103871 -0.02976396  0.01801029  1.00047207]</t>
+          <t>[ 0.03103871 -0.02976396  0.01801029  1.00047208]</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
@@ -2025,7 +2050,7 @@
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>[ 0.03097663 -0.02992927  0.01853471  1.00046567]</t>
+          <t>[ 0.03097663 -0.02992927  0.01853471  1.00046568]</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr">
@@ -2040,12 +2065,12 @@
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>[ 0.03093532 -0.03003929  0.01888373  1.00046143]</t>
+          <t>[ 0.03093532 -0.03003929  0.01888373  1.00046144]</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>[ 0.03092246 -0.03007353  0.01899237  1.00046011]</t>
+          <t>[ 0.03092246 -0.03007353  0.01899237  1.00046012]</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
@@ -2085,7 +2110,7 @@
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>[ 0.03083392 -0.0303093   0.01974029  1.00045096]</t>
+          <t>[ 0.03083392 -0.0303093   0.0197403   1.00045096]</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
@@ -2105,7 +2130,7 @@
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>[ 0.03079792 -0.03040518  0.02004446  1.00044714]</t>
+          <t>[ 0.03079792 -0.03040518  0.02004446  1.00044715]</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
@@ -2130,7 +2155,7 @@
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>[ 0.03075929 -0.03050806  0.02037081  1.00044293]</t>
+          <t>[ 0.03075929 -0.03050806  0.02037081  1.00044294]</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
@@ -2175,12 +2200,12 @@
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>[ 0.03070435 -0.03065438  0.02083492  1.00043656]</t>
+          <t>[ 0.03070435 -0.03065439  0.02083492  1.00043657]</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>[ 0.03069922 -0.03066805  0.02087825  1.00043593]</t>
+          <t>[ 0.03069922 -0.03066805  0.02087825  1.00043594]</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
@@ -2220,7 +2245,7 @@
       </c>
       <c r="CO4" t="inlineStr">
         <is>
-          <t>[ 0.03066392 -0.0307621   0.02117655  1.00043132]</t>
+          <t>[ 0.03066392 -0.0307621   0.02117655  1.00043133]</t>
         </is>
       </c>
       <c r="CP4" t="inlineStr">
@@ -2240,12 +2265,12 @@
       </c>
       <c r="CS4" t="inlineStr">
         <is>
-          <t>[ 0.03064956 -0.03080036  0.02129786  1.00042926]</t>
+          <t>[ 0.03064956 -0.03080036  0.02129786  1.00042927]</t>
         </is>
       </c>
       <c r="CT4" t="inlineStr">
         <is>
-          <t>[ 0.03064626 -0.03080913  0.02132569  1.00042877]</t>
+          <t>[ 0.03064626 -0.03080913  0.0213257   1.00042877]</t>
         </is>
       </c>
       <c r="CU4" t="inlineStr">
@@ -2405,7 +2430,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>[ 0.03395982 -0.02237628  0.01032255  1.00031202]</t>
+          <t>[ 0.03395982 -0.02237628  0.01032255  1.00031201]</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -2435,7 +2460,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>[ 0.03384162 -0.02269109  0.01132119  1.00030011]</t>
+          <t>[ 0.03384162 -0.02269109  0.01132119  1.0003001 ]</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -2445,7 +2470,7 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>[ 0.03380729 -0.02278252  0.01161125  1.00029673]</t>
+          <t>[ 0.03380729 -0.02278252  0.01161124  1.00029673]</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -2470,7 +2495,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>[ 0.03373103 -0.02298564  0.01225561  1.00028932]</t>
+          <t>[ 0.03373103 -0.02298564  0.0122556   1.00028932]</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -2530,7 +2555,7 @@
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>[ 0.03359319 -0.02335278  0.01342022  1.00027605]</t>
+          <t>[ 0.03359319 -0.02335277  0.01342022  1.00027605]</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -3755,7 +3780,7 @@
       </c>
       <c r="CP7" t="inlineStr">
         <is>
-          <t>[ 0.03584065 -0.01832865  0.02276247  0.99988766]</t>
+          <t>[ 0.03584065 -0.01832865  0.02276246  0.99988766]</t>
         </is>
       </c>
       <c r="CQ7" t="inlineStr">
@@ -4010,7 +4035,7 @@
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>[ 0.03132482 -0.00447944  0.00196342  1.00001514]</t>
+          <t>[ 0.03132482 -0.00447944  0.00196342  1.00001515]</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
@@ -4025,7 +4050,7 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>[ 0.03134221 -0.00443309  0.00181637  1.00001508]</t>
+          <t>[ 0.03134221 -0.00443309  0.00181637  1.00001509]</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
@@ -4040,7 +4065,7 @@
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>[ 0.03135792 -0.00439123  0.0016836   1.00001503]</t>
+          <t>[ 0.03135792 -0.00439123  0.0016836   1.00001504]</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
@@ -4050,7 +4075,7 @@
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>[ 0.03136754 -0.00436561  0.00160231  1.000015  ]</t>
+          <t>[ 0.03136754 -0.00436561  0.00160231  1.00001501]</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
@@ -4140,7 +4165,7 @@
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>[ 0.03143008 -0.00419897  0.00107366  1.00001476]</t>
+          <t>[ 0.03143008 -0.00419897  0.00107367  1.00001476]</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
@@ -4160,152 +4185,152 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>[ 3.14395042e-02 -4.17387810e-03  9.94048949e-04  1.00001469e+00]</t>
+          <t>[ 3.14395042e-02 -4.17387813e-03  9.94049048e-04  1.00001470e+00]</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>[ 3.14416655e-02 -4.16811978e-03  9.75781047e-04  1.00001468e+00]</t>
+          <t>[ 3.14416655e-02 -4.16811981e-03  9.75781143e-04  1.00001468e+00]</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>[ 3.14437546e-02 -4.16255406e-03  9.58124183e-04  1.00001466e+00]</t>
+          <t>[ 3.14437545e-02 -4.16255409e-03  9.58124279e-04  1.00001466e+00]</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>[ 3.14457737e-02 -4.15717451e-03  9.41057911e-04  1.00001464e+00]</t>
+          <t>[ 3.14457737e-02 -4.15717454e-03  9.41058006e-04  1.00001464e+00]</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>[ 3.14477253e-02 -4.15197489e-03  9.24562480e-04  1.00001463e+00]</t>
+          <t>[ 3.14477253e-02 -4.15197492e-03  9.24562576e-04  1.00001463e+00]</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>[ 3.14496116e-02 -4.14694920e-03  9.08618792e-04  1.00001461e+00]</t>
+          <t>[ 3.14496116e-02 -4.14694923e-03  9.08618894e-04  1.00001461e+00]</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>[ 3.14514349e-02 -4.14209161e-03  8.93208408e-04  1.00001459e+00]</t>
+          <t>[ 3.14514349e-02 -4.14209164e-03  8.93208510e-04  1.00001459e+00]</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>[ 3.14531971e-02 -4.13739650e-03  8.78313472e-04  1.00001457e+00]</t>
+          <t>[ 3.14531971e-02 -4.13739653e-03  8.78313574e-04  1.00001457e+00]</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
         <is>
-          <t>[ 3.14549004e-02 -4.13285844e-03  8.63916752e-04  1.00001455e+00]</t>
+          <t>[ 3.14549004e-02 -4.13285847e-03  8.63916850e-04  1.00001455e+00]</t>
         </is>
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>[ 3.14565468e-02 -4.12847217e-03  8.50001579e-04  1.00001453e+00]</t>
+          <t>[ 3.14565468e-02 -4.12847220e-03  8.50001676e-04  1.00001453e+00]</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>[ 3.14581380e-02 -4.12423261e-03  8.36551848e-04  1.00001451e+00]</t>
+          <t>[ 3.14581380e-02 -4.12423264e-03  8.36551944e-04  1.00001451e+00]</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>[ 3.14596761e-02 -4.12013487e-03  8.23551991e-04  1.00001449e+00]</t>
+          <t>[ 3.14596761e-02 -4.12013489e-03  8.23552077e-04  1.00001449e+00]</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>[ 3.14611627e-02 -4.11617419e-03  8.10986958e-04  1.00001447e+00]</t>
+          <t>[ 3.14611626e-02 -4.11617421e-03  8.10987045e-04  1.00001447e+00]</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>[ 3.14625995e-02 -4.11234598e-03  7.98842206e-04  1.00001445e+00]</t>
+          <t>[ 3.14625995e-02 -4.11234601e-03  7.98842290e-04  1.00001445e+00]</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>[ 3.14639883e-02 -4.10864583e-03  7.87103669e-04  1.00001443e+00]</t>
+          <t>[ 3.14639883e-02 -4.10864585e-03  7.87103757e-04  1.00001443e+00]</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>[ 3.14653307e-02 -4.10506944e-03  7.75757777e-04  1.00001441e+00]</t>
+          <t>[ 3.14653307e-02 -4.10506947e-03  7.75757861e-04  1.00001441e+00]</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>[ 3.14666281e-02 -4.10161268e-03  7.64791385e-04  1.00001439e+00]</t>
+          <t>[ 3.14666281e-02 -4.10161271e-03  7.64791470e-04  1.00001439e+00]</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
         <is>
-          <t>[ 3.14678822e-02 -4.09827154e-03  7.54191806e-04  1.00001436e+00]</t>
+          <t>[ 3.14678822e-02 -4.09827157e-03  7.54191886e-04  1.00001436e+00]</t>
         </is>
       </c>
       <c r="CM8" t="inlineStr">
         <is>
-          <t>[ 3.14690943e-02 -4.09504216e-03  7.43946763e-04  1.00001434e+00]</t>
+          <t>[ 3.14690943e-02 -4.09504219e-03  7.43946841e-04  1.00001434e+00]</t>
         </is>
       </c>
       <c r="CN8" t="inlineStr">
         <is>
-          <t>[ 3.14702659e-02 -4.09192080e-03  7.34044396e-04  1.00001432e+00]</t>
+          <t>[ 3.14702659e-02 -4.09192083e-03  7.34044475e-04  1.00001432e+00]</t>
         </is>
       </c>
       <c r="CO8" t="inlineStr">
         <is>
-          <t>[ 3.14713982e-02 -4.08890385e-03  7.24473251e-04  1.00001430e+00]</t>
+          <t>[ 3.14713982e-02 -4.08890387e-03  7.24473332e-04  1.00001430e+00]</t>
         </is>
       </c>
       <c r="CP8" t="inlineStr">
         <is>
-          <t>[ 3.14724927e-02 -4.08598781e-03  7.15222247e-04  1.00001427e+00]</t>
+          <t>[ 3.14724927e-02 -4.08598783e-03  7.15222322e-04  1.00001427e+00]</t>
         </is>
       </c>
       <c r="CQ8" t="inlineStr">
         <is>
-          <t>[ 3.14735506e-02 -4.08316931e-03  7.06280676e-04  1.00001425e+00]</t>
+          <t>[ 3.14735506e-02 -4.08316933e-03  7.06280746e-04  1.00001425e+00]</t>
         </is>
       </c>
       <c r="CR8" t="inlineStr">
         <is>
-          <t>[ 3.14745731e-02 -4.08044508e-03  6.97638183e-04  1.00001422e+00]</t>
+          <t>[ 3.14745731e-02 -4.08044510e-03  6.97638255e-04  1.00001422e+00]</t>
         </is>
       </c>
       <c r="CS8" t="inlineStr">
         <is>
-          <t>[ 3.14755614e-02 -4.07781198e-03  6.89284768e-04  1.00001420e+00]</t>
+          <t>[ 3.14755614e-02 -4.07781200e-03  6.89284834e-04  1.00001420e+00]</t>
         </is>
       </c>
       <c r="CT8" t="inlineStr">
         <is>
-          <t>[ 3.14765167e-02 -4.07526695e-03  6.81210762e-04  1.00001418e+00]</t>
+          <t>[ 3.14765167e-02 -4.07526696e-03  6.81210825e-04  1.00001418e+00]</t>
         </is>
       </c>
       <c r="CU8" t="inlineStr">
         <is>
-          <t>[ 3.14774400e-02 -4.07280704e-03  6.73406817e-04  1.00001415e+00]</t>
+          <t>[ 3.14774400e-02 -4.07280706e-03  6.73406880e-04  1.00001415e+00]</t>
         </is>
       </c>
       <c r="CV8" t="inlineStr">
         <is>
-          <t>[ 3.14783324e-02 -4.07042943e-03  6.65863904e-04  1.00001413e+00]</t>
+          <t>[ 3.14783324e-02 -4.07042944e-03  6.65863962e-04  1.00001413e+00]</t>
         </is>
       </c>
       <c r="CW8" t="inlineStr">
         <is>
-          <t>[ 3.14791950e-02 -4.06813133e-03  6.58573289e-04  1.00001410e+00]</t>
+          <t>[ 3.14791949e-02 -4.06813135e-03  6.58573342e-04  1.00001410e+00]</t>
         </is>
       </c>
       <c r="CX8" t="inlineStr">
         <is>
-          <t>[ 3.14800287e-02 -4.06591011e-03  6.51526528e-04  1.00001407e+00]</t>
+          <t>[ 3.14800287e-02 -4.06591013e-03  6.51526584e-04  1.00001408e+00]</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5050,7 @@
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>[ 0.03986292 -0.02444333  0.03796844  0.9999367 ]</t>
+          <t>[ 0.03986292 -0.02444333  0.03796844  0.99993671]</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -5045,7 +5070,7 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>[ 0.03969435 -0.02489308  0.03939396  0.99992149]</t>
+          <t>[ 0.03969435 -0.02489308  0.03939395  0.99992149]</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
@@ -5060,37 +5085,37 @@
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>[ 0.03958217 -0.02519253  0.04034277  0.99990806]</t>
+          <t>[ 0.03958217 -0.02519253  0.04034276  0.99990806]</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>[ 0.03954725 -0.02528576  0.04063812  0.99990321]</t>
+          <t>[ 0.03954725 -0.02528576  0.04063812  0.9999032 ]</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>[ 0.0395135  -0.02537588  0.0409236   0.99989817]</t>
+          <t>[ 0.0395135  -0.02537588  0.0409236   0.99989816]</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>[ 0.03948089 -0.025463    0.04119953  0.99989295]</t>
+          <t>[ 0.03948089 -0.025463    0.04119953  0.99989294]</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>[ 0.03944937 -0.02554722  0.04146623  0.99988755]</t>
+          <t>[ 0.03944937 -0.02554722  0.04146623  0.99988754]</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
-          <t>[ 0.0394189  -0.02562864  0.04172402  0.99988197]</t>
+          <t>[ 0.0394189  -0.02562863  0.04172402  0.99988196]</t>
         </is>
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>[ 0.03938946 -0.02570734  0.04197318  0.99987621]</t>
+          <t>[ 0.03938946 -0.02570733  0.04197318  0.99987621]</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
@@ -5115,7 +5140,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>[ 0.03925639 -0.02606324  0.04309947  0.99984491]</t>
+          <t>[ 0.03925639 -0.02606324  0.04309946  0.9998449 ]</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
@@ -5135,17 +5160,17 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>[ 0.03916513 -0.02630764  0.04387231  0.99981702]</t>
+          <t>[ 0.03916513 -0.02630764  0.04387231  0.99981701]</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>[ 0.03914419 -0.02636375  0.04404965  0.99980968]</t>
+          <t>[ 0.03914419 -0.02636375  0.04404965  0.99980967]</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>[ 0.03912396 -0.026418    0.04422106  0.9998022 ]</t>
+          <t>[ 0.03912396 -0.026418    0.04422106  0.99980219]</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
@@ -5155,7 +5180,7 @@
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>[ 0.03908551 -0.02652115  0.04454688  0.99978683]</t>
+          <t>[ 0.03908551 -0.02652115  0.04454688  0.99978682]</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
@@ -5205,7 +5230,7 @@
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>[ 0.03892814 -0.02694434  0.04588161  0.99970263]</t>
+          <t>[ 0.03892814 -0.02694434  0.04588162  0.99970263]</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
@@ -5225,7 +5250,7 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>[ 0.03887879 -0.02707757  0.04630081  0.99966598]</t>
+          <t>[ 0.03887879 -0.02707757  0.04630081  0.99966597]</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
@@ -5315,7 +5340,7 @@
       </c>
       <c r="CV10" t="inlineStr">
         <is>
-          <t>[ 0.03872408 -0.02749839  0.04761869  0.99948541]</t>
+          <t>[ 0.03872408 -0.02749839  0.04761869  0.9994854 ]</t>
         </is>
       </c>
       <c r="CW10" t="inlineStr">
@@ -5325,7 +5350,7 @@
       </c>
       <c r="CX10" t="inlineStr">
         <is>
-          <t>[ 0.03871206 -0.02753141  0.04772142  0.9994641 ]</t>
+          <t>[ 0.03871206 -0.02753141  0.04772143  0.9994641 ]</t>
         </is>
       </c>
     </row>
@@ -6480,7 +6505,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>[ 0.03677729 -0.0011571   0.00474487  0.99993388]</t>
+          <t>[ 0.03677729 -0.0011571   0.00474487  0.99993387]</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -6510,352 +6535,352 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>[ 3.68362641e-02 -9.99908168e-04  4.24630091e-03  9.99930420e-01]</t>
+          <t>[ 3.68362641e-02 -9.99908144e-04  4.24630075e-03  9.99930419e-01]</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>[ 3.68449763e-02 -9.76692141e-04  4.17265758e-03  9.99929910e-01]</t>
+          <t>[ 3.68449763e-02 -9.76692116e-04  4.17265750e-03  9.99929910e-01]</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>[ 3.68533971e-02 -9.54252725e-04  4.10147736e-03  9.99929418e-01]</t>
+          <t>[ 3.68533971e-02 -9.54252715e-04  4.10147730e-03  9.99929417e-01]</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>[ 3.68615363e-02 -9.32563898e-04  4.03267788e-03  9.99928941e-01]</t>
+          <t>[ 3.68615363e-02 -9.32563883e-04  4.03267781e-03  9.99928940e-01]</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>[ 3.68694033e-02 -9.11600503e-04  3.96617948e-03  9.99928479e-01]</t>
+          <t>[ 3.68694033e-02 -9.11600488e-04  3.96617942e-03  9.99928479e-01]</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>[ 3.68770072e-02 -8.91338255e-04  3.90190516e-03  9.99928032e-01]</t>
+          <t>[ 3.68770072e-02 -8.91338227e-04  3.90190506e-03  9.99928031e-01]</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>[ 3.68843568e-02 -8.71753699e-04  3.83978061e-03  9.99927598e-01]</t>
+          <t>[ 3.68843568e-02 -8.71753671e-04  3.83978049e-03  9.99927597e-01]</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>[ 3.68914606e-02 -8.52824172e-04  3.77973383e-03  9.99927177e-01]</t>
+          <t>[ 3.68914606e-02 -8.52824116e-04  3.77973371e-03  9.99927176e-01]</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>[ 3.68983267e-02 -8.34527709e-04  3.72169535e-03  9.99926768e-01]</t>
+          <t>[ 3.68983267e-02 -8.34527680e-04  3.72169526e-03  9.99926768e-01]</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>[ 3.69049632e-02 -8.16843178e-04  3.66559804e-03  9.99926372e-01]</t>
+          <t>[ 3.69049632e-02 -8.16843171e-04  3.66559801e-03  9.99926371e-01]</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>[ 3.69113778e-02 -7.99750129e-04  3.61137701e-03  9.99925986e-01]</t>
+          <t>[ 3.69113778e-02 -7.99750125e-04  3.61137700e-03  9.99925986e-01]</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>[ 3.69175777e-02 -7.83228751e-04  3.55896943e-03  9.99925612e-01]</t>
+          <t>[ 3.69175777e-02 -7.83228734e-04  3.55896940e-03  9.99925611e-01]</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>[ 3.69235704e-02 -7.67259929e-04  3.50831467e-03  9.99925247e-01]</t>
+          <t>[ 3.69235704e-02 -7.67259923e-04  3.50831465e-03  9.99925247e-01]</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>[ 3.69293626e-02 -7.51825198e-04  3.45935414e-03  9.99924892e-01]</t>
+          <t>[ 3.69293626e-02 -7.51825182e-04  3.45935410e-03  9.99924892e-01]</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>[ 3.69349610e-02 -7.36906677e-04  3.41203114e-03  9.99924547e-01]</t>
+          <t>[ 3.69349610e-02 -7.36906659e-04  3.41203107e-03  9.99924546e-01]</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>[ 3.69403722e-02 -7.22487107e-04  3.36629091e-03  9.99924210e-01]</t>
+          <t>[ 3.69403722e-02 -7.22487090e-04  3.36629083e-03  9.99924210e-01]</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>[ 3.69456024e-02 -7.08549810e-04  3.32208050e-03  9.99923883e-01]</t>
+          <t>[ 3.69456024e-02 -7.08549785e-04  3.32208039e-03  9.99923882e-01]</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>[ 3.69506577e-02 -6.95078639e-04  3.27934871e-03  9.99923563e-01]</t>
+          <t>[ 3.69506577e-02 -6.95078617e-04  3.27934863e-03  9.99923562e-01]</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>[ 3.69555439e-02 -6.82058013e-04  3.23804612e-03  9.99923251e-01]</t>
+          <t>[ 3.69555439e-02 -6.82057994e-04  3.23804609e-03  9.99923250e-01]</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>[ 3.69602667e-02 -6.69472868e-04  3.19812495e-03  9.99922946e-01]</t>
+          <t>[ 3.69602667e-02 -6.69472848e-04  3.19812493e-03  9.99922946e-01]</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>[ 3.69648315e-02 -6.57308632e-04  3.15953896e-03  9.99922648e-01]</t>
+          <t>[ 3.69648315e-02 -6.57308617e-04  3.15953893e-03  9.99922648e-01]</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
         <is>
-          <t>[ 3.69692437e-02 -6.45551221e-04  3.12224349e-03  9.99922358e-01]</t>
+          <t>[ 3.69692437e-02 -6.45551208e-04  3.12224345e-03  9.99922357e-01]</t>
         </is>
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>[ 3.69735083e-02 -6.34187055e-04  3.08619541e-03  9.99922073e-01]</t>
+          <t>[ 3.69735083e-02 -6.34187047e-04  3.08619540e-03  9.99922073e-01]</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>[ 3.69776302e-02 -6.23202952e-04  3.05135300e-03  9.99921795e-01]</t>
+          <t>[ 3.69776302e-02 -6.23202965e-04  3.05135297e-03  9.99921795e-01]</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>[ 3.69816143e-02 -6.12586225e-04  3.01767591e-03  9.99921523e-01]</t>
+          <t>[ 3.69816143e-02 -6.12586224e-04  3.01767586e-03  9.99921523e-01]</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>[ 3.69854651e-02 -6.02324582e-04  2.98512517e-03  9.99921257e-01]</t>
+          <t>[ 3.69854651e-02 -6.02324571e-04  2.98512513e-03  9.99921256e-01]</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>[ 3.69891872e-02 -5.92406142e-04  2.95366313e-03  9.99920996e-01]</t>
+          <t>[ 3.69891872e-02 -5.92406127e-04  2.95366306e-03  9.99920995e-01]</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>[ 3.69927847e-02 -5.82819421e-04  2.92325333e-03  9.99920740e-01]</t>
+          <t>[ 3.69927847e-02 -5.82819419e-04  2.92325329e-03  9.99920740e-01]</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>[ 3.69962619e-02 -5.73553330e-04  2.89386062e-03  9.99920489e-01]</t>
+          <t>[ 3.69962620e-02 -5.73553329e-04  2.89386057e-03  9.99920489e-01]</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>[ 3.69996229e-02 -5.64597156e-04  2.86545099e-03  9.99920243e-01]</t>
+          <t>[ 3.69996229e-02 -5.64597158e-04  2.86545093e-03  9.99920243e-01]</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
         <is>
-          <t>[ 3.70028714e-02 -5.55940526e-04  2.83799153e-03  9.99920002e-01]</t>
+          <t>[ 3.70028714e-02 -5.55940525e-04  2.83799147e-03  9.99920002e-01]</t>
         </is>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>[ 3.70060113e-02 -5.47573423e-04  2.81145048e-03  9.99919765e-01]</t>
+          <t>[ 3.70060113e-02 -5.47573419e-04  2.81145042e-03  9.99919765e-01]</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>[ 3.70090461e-02 -5.39486166e-04  2.78579711e-03  9.99919532e-01]</t>
+          <t>[ 3.70090461e-02 -5.39486150e-04  2.78579702e-03  9.99919532e-01]</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>[ 3.70119795e-02 -5.31669386e-04  2.76100173e-03  9.99919304e-01]</t>
+          <t>[ 3.70119795e-02 -5.31669367e-04  2.76100165e-03  9.99919303e-01]</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>[ 3.70148147e-02 -5.24114034e-04  2.73703565e-03  9.99919079e-01]</t>
+          <t>[ 3.70148147e-02 -5.24114017e-04  2.73703556e-03  9.99919078e-01]</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>[ 3.70175551e-02 -5.16811387e-04  2.71387114e-03  9.99918858e-01]</t>
+          <t>[ 3.70175551e-02 -5.16811364e-04  2.71387105e-03  9.99918857e-01]</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>[ 3.70202039e-02 -5.09752981e-04  2.69148136e-03  9.99918640e-01]</t>
+          <t>[ 3.70202039e-02 -5.09752960e-04  2.69148130e-03  9.99918640e-01]</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>[ 3.70227641e-02 -5.02930651e-04  2.66984045e-03  9.99918426e-01]</t>
+          <t>[ 3.70227641e-02 -5.02930626e-04  2.66984037e-03  9.99918426e-01]</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>[ 3.70252386e-02 -4.96336497e-04  2.64892332e-03  9.99918215e-01]</t>
+          <t>[ 3.70252386e-02 -4.96336471e-04  2.64892324e-03  9.99918215e-01]</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
         <is>
-          <t>[ 3.70276304e-02 -4.89962884e-04  2.62870578e-03  9.99918008e-01]</t>
+          <t>[ 3.70276304e-02 -4.89962861e-04  2.62870570e-03  9.99918007e-01]</t>
         </is>
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>[ 3.70299422e-02 -4.83802448e-04  2.60916443e-03  9.99917803e-01]</t>
+          <t>[ 3.70299422e-02 -4.83802421e-04  2.60916435e-03  9.99917803e-01]</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>[ 3.70321767e-02 -4.77848047e-04  2.59027664e-03  9.99917601e-01]</t>
+          <t>[ 3.70321767e-02 -4.77848020e-04  2.59027657e-03  9.99917601e-01]</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>[ 3.70343364e-02 -4.72092797e-04  2.57202058e-03  9.99917402e-01]</t>
+          <t>[ 3.70343364e-02 -4.72092775e-04  2.57202051e-03  9.99917402e-01]</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>[ 3.70364239e-02 -4.66530036e-04  2.55437509e-03  9.99917206e-01]</t>
+          <t>[ 3.70364239e-02 -4.66530017e-04  2.55437503e-03  9.99917206e-01]</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>[ 3.70384416e-02 -4.61153332e-04  2.53731980e-03  9.99917013e-01]</t>
+          <t>[ 3.70384416e-02 -4.61153310e-04  2.53731972e-03  9.99917012e-01]</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>[ 3.70403918e-02 -4.55956455e-04  2.52083492e-03  9.99916821e-01]</t>
+          <t>[ 3.70403918e-02 -4.55956434e-04  2.52083485e-03  9.99916821e-01]</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>[ 3.70422768e-02 -4.50933394e-04  2.50490140e-03  9.99916633e-01]</t>
+          <t>[ 3.70422768e-02 -4.50933374e-04  2.50490132e-03  9.99916632e-01]</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>[ 3.70440987e-02 -4.46078338e-04  2.48950079e-03  9.99916446e-01]</t>
+          <t>[ 3.70440987e-02 -4.46078311e-04  2.48950069e-03  9.99916446e-01]</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
         <is>
-          <t>[ 3.70458597e-02 -4.41385664e-04  2.47461525e-03  9.99916262e-01]</t>
+          <t>[ 3.70458597e-02 -4.41385635e-04  2.47461516e-03  9.99916261e-01]</t>
         </is>
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>[ 3.70475618e-02 -4.36849939e-04  2.46022757e-03  9.99916080e-01]</t>
+          <t>[ 3.70475618e-02 -4.36849911e-04  2.46022748e-03  9.99916079e-01]</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>[ 3.70492070e-02 -4.32465917e-04  2.44632111e-03  9.99915900e-01]</t>
+          <t>[ 3.70492070e-02 -4.32465891e-04  2.44632102e-03  9.99915899e-01]</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>[ 3.70507971e-02 -4.28228524e-04  2.43287974e-03  9.99915721e-01]</t>
+          <t>[ 3.70507971e-02 -4.28228499e-04  2.43287965e-03  9.99915721e-01]</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>[ 3.70523341e-02 -4.24132858e-04  2.41988795e-03  9.99915545e-01]</t>
+          <t>[ 3.70523341e-02 -4.24132833e-04  2.41988786e-03  9.99915545e-01]</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>[ 3.70538197e-02 -4.20174177e-04  2.40733067e-03  9.99915371e-01]</t>
+          <t>[ 3.70538197e-02 -4.20174153e-04  2.40733058e-03  9.99915370e-01]</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>[ 3.70552555e-02 -4.16347900e-04  2.39519337e-03  9.99915198e-01]</t>
+          <t>[ 3.70552556e-02 -4.16347878e-04  2.39519329e-03  9.99915198e-01]</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>[ 3.70566434e-02 -4.12649601e-04  2.38346203e-03  9.99915027e-01]</t>
+          <t>[ 3.70566434e-02 -4.12649575e-04  2.38346195e-03  9.99915027e-01]</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>[ 3.70579848e-02 -4.09074996e-04  2.37212305e-03  9.99914858e-01]</t>
+          <t>[ 3.70579849e-02 -4.09074972e-04  2.37212298e-03  9.99914857e-01]</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
         <is>
-          <t>[ 3.70592814e-02 -4.05619948e-04  2.36116331e-03  9.99914690e-01]</t>
+          <t>[ 3.70592814e-02 -4.05619927e-04  2.36116324e-03  9.99914689e-01]</t>
         </is>
       </c>
       <c r="CM13" t="inlineStr">
         <is>
-          <t>[ 3.70605346e-02 -4.02280463e-04  2.35057015e-03  9.99914523e-01]</t>
+          <t>[ 3.70605346e-02 -4.02280443e-04  2.35057007e-03  9.99914523e-01]</t>
         </is>
       </c>
       <c r="CN13" t="inlineStr">
         <is>
-          <t>[ 3.70617459e-02 -3.99052673e-04  2.34033126e-03  9.99914358e-01]</t>
+          <t>[ 3.70617459e-02 -3.99052653e-04  2.34033120e-03  9.99914358e-01]</t>
         </is>
       </c>
       <c r="CO13" t="inlineStr">
         <is>
-          <t>[ 3.70629167e-02 -3.95932842e-04  2.33043484e-03  9.99914195e-01]</t>
+          <t>[ 3.70629167e-02 -3.95932825e-04  2.33043479e-03  9.99914195e-01]</t>
         </is>
       </c>
       <c r="CP13" t="inlineStr">
         <is>
-          <t>[ 3.70640483e-02 -3.92917362e-04  2.32086942e-03  9.99914033e-01]</t>
+          <t>[ 3.70640484e-02 -3.92917345e-04  2.32086936e-03  9.99914032e-01]</t>
         </is>
       </c>
       <c r="CQ13" t="inlineStr">
         <is>
-          <t>[ 3.70651421e-02 -3.90002739e-04  2.31162392e-03  9.99913872e-01]</t>
+          <t>[ 3.70651421e-02 -3.90002723e-04  2.31162386e-03  9.99913872e-01]</t>
         </is>
       </c>
       <c r="CR13" t="inlineStr">
         <is>
-          <t>[ 3.70661993e-02 -3.87185602e-04  2.30268764e-03  9.99913712e-01]</t>
+          <t>[ 3.70661993e-02 -3.87185586e-04  2.30268758e-03  9.99913712e-01]</t>
         </is>
       </c>
       <c r="CS13" t="inlineStr">
         <is>
-          <t>[ 3.70672212e-02 -3.84462692e-04  2.29405024e-03  9.99913554e-01]</t>
+          <t>[ 3.70672212e-02 -3.84462678e-04  2.29405020e-03  9.99913553e-01]</t>
         </is>
       </c>
       <c r="CT13" t="inlineStr">
         <is>
-          <t>[ 3.70682088e-02 -3.81830855e-04  2.28570174e-03  9.99913397e-01]</t>
+          <t>[ 3.70682088e-02 -3.81830843e-04  2.28570170e-03  9.99913396e-01]</t>
         </is>
       </c>
       <c r="CU13" t="inlineStr">
         <is>
-          <t>[ 3.70691635e-02 -3.79287048e-04  2.27763247e-03  9.99913240e-01]</t>
+          <t>[ 3.70691635e-02 -3.79287036e-04  2.27763243e-03  9.99913240e-01]</t>
         </is>
       </c>
       <c r="CV13" t="inlineStr">
         <is>
-          <t>[ 3.70700862e-02 -3.76828325e-04  2.26983308e-03  9.99913085e-01]</t>
+          <t>[ 3.70700862e-02 -3.76828315e-04  2.26983305e-03  9.99913085e-01]</t>
         </is>
       </c>
       <c r="CW13" t="inlineStr">
         <is>
-          <t>[ 3.70709780e-02 -3.74451840e-04  2.26229455e-03  9.99912931e-01]</t>
+          <t>[ 3.70709780e-02 -3.74451832e-04  2.26229453e-03  9.99912931e-01]</t>
         </is>
       </c>
       <c r="CX13" t="inlineStr">
         <is>
-          <t>[ 3.70718400e-02 -3.72154844e-04  2.25500817e-03  9.99912778e-01]</t>
+          <t>[ 3.70718400e-02 -3.72154837e-04  2.25500815e-03  9.99912778e-01]</t>
         </is>
       </c>
     </row>
@@ -7300,72 +7325,72 @@
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>[3.26319808e-02 2.89573897e-03 5.85511187e-04 9.99833286e-01]</t>
+          <t>[3.26319808e-02 2.89573897e-03 5.85511192e-04 9.99833286e-01]</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
         <is>
-          <t>[3.26337253e-02 2.90038919e-03 5.70763192e-04 9.99833173e-01]</t>
+          <t>[3.26337253e-02 2.90038919e-03 5.70763203e-04 9.99833173e-01]</t>
         </is>
       </c>
       <c r="CM14" t="inlineStr">
         <is>
-          <t>[3.26354115e-02 2.90488390e-03 5.56508416e-04 9.99833063e-01]</t>
+          <t>[3.26354115e-02 2.90488389e-03 5.56508437e-04 9.99833063e-01]</t>
         </is>
       </c>
       <c r="CN14" t="inlineStr">
         <is>
-          <t>[3.26370413e-02 2.90922830e-03 5.42730344e-04 9.99832956e-01]</t>
+          <t>[3.26370412e-02 2.90922829e-03 5.42730375e-04 9.99832956e-01]</t>
         </is>
       </c>
       <c r="CO14" t="inlineStr">
         <is>
-          <t>[3.26386165e-02 2.91342741e-03 5.29413048e-04 9.99832852e-01]</t>
+          <t>[3.26386165e-02 2.91342740e-03 5.29413078e-04 9.99832852e-01]</t>
         </is>
       </c>
       <c r="CP14" t="inlineStr">
         <is>
-          <t>[3.26401391e-02 2.91748610e-03 5.16541117e-04 9.99832752e-01]</t>
+          <t>[3.26401391e-02 2.91748609e-03 5.16541137e-04 9.99832752e-01]</t>
         </is>
       </c>
       <c r="CQ14" t="inlineStr">
         <is>
-          <t>[3.26416108e-02 2.92140905e-03 5.04099652e-04 9.99832654e-01]</t>
+          <t>[3.26416108e-02 2.92140904e-03 5.04099671e-04 9.99832654e-01]</t>
         </is>
       </c>
       <c r="CR14" t="inlineStr">
         <is>
-          <t>[3.26430332e-02 2.92520081e-03 4.92074261e-04 9.99832560e-01]</t>
+          <t>[3.26430332e-02 2.92520081e-03 4.92074278e-04 9.99832560e-01]</t>
         </is>
       </c>
       <c r="CS14" t="inlineStr">
         <is>
-          <t>[3.26444081e-02 2.92886577e-03 4.80451015e-04 9.99832468e-01]</t>
+          <t>[3.26444081e-02 2.92886577e-03 4.80451034e-04 9.99832468e-01]</t>
         </is>
       </c>
       <c r="CT14" t="inlineStr">
         <is>
-          <t>[3.26457370e-02 2.93240817e-03 4.69216497e-04 9.99832378e-01]</t>
+          <t>[3.26457370e-02 2.93240817e-03 4.69216494e-04 9.99832378e-01]</t>
         </is>
       </c>
       <c r="CU14" t="inlineStr">
         <is>
-          <t>[3.26470215e-02 2.93583211e-03 4.58357656e-04 9.99832292e-01]</t>
+          <t>[3.26470215e-02 2.93583211e-03 4.58357665e-04 9.99832292e-01]</t>
         </is>
       </c>
       <c r="CV14" t="inlineStr">
         <is>
-          <t>[3.26482630e-02 2.93914154e-03 4.47861983e-04 9.99832207e-01]</t>
+          <t>[3.26482630e-02 2.93914154e-03 4.47861972e-04 9.99832207e-01]</t>
         </is>
       </c>
       <c r="CW14" t="inlineStr">
         <is>
-          <t>[3.26494630e-02 2.94234029e-03 4.37717306e-04 9.99832126e-01]</t>
+          <t>[3.26494630e-02 2.94234030e-03 4.37717285e-04 9.99832126e-01]</t>
         </is>
       </c>
       <c r="CX14" t="inlineStr">
         <is>
-          <t>[3.26506228e-02 2.94543207e-03 4.27911887e-04 9.99832046e-01]</t>
+          <t>[3.26506228e-02 2.94543208e-03 4.27911866e-04 9.99832046e-01]</t>
         </is>
       </c>
     </row>
@@ -8050,342 +8075,342 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>[ 3.28615606e-02 -3.02741634e-04  1.10476895e-03  9.99910784e-01]</t>
+          <t>[ 3.28615606e-02 -3.02741576e-04  1.10476885e-03  9.99910784e-01]</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>[ 3.28743797e-02 -2.68577863e-04  9.96405066e-04  9.99910578e-01]</t>
+          <t>[ 3.28743797e-02 -2.68577766e-04  9.96404889e-04  9.99910578e-01]</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>[ 3.28867700e-02 -2.35556677e-04  8.91665274e-04  9.99910396e-01]</t>
+          <t>[ 3.28867700e-02 -2.35556603e-04  8.91665219e-04  9.99910396e-01]</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>[ 3.28987459e-02 -2.03639889e-04  7.90428485e-04  9.99910236e-01]</t>
+          <t>[ 3.28987459e-02 -2.03639841e-04  7.90428440e-04  9.99910236e-01]</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>[ 3.29103213e-02 -1.72790508e-04  6.92577426e-04  9.99910097e-01]</t>
+          <t>[ 3.29103213e-02 -1.72790527e-04  6.92577571e-04  9.99910097e-01]</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>[ 3.29215096e-02 -1.42972896e-04  5.97999032e-04  9.99909978e-01]</t>
+          <t>[ 3.29215096e-02 -1.42972916e-04  5.97999129e-04  9.99909978e-01]</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>[ 3.29323237e-02 -1.14152515e-04  5.06583697e-04  9.99909878e-01]</t>
+          <t>[ 3.29323237e-02 -1.14152529e-04  5.06583724e-04  9.99909878e-01]</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>[ 3.29427761e-02 -8.62960055e-05  4.18225773e-04  9.99909796e-01]</t>
+          <t>[ 3.29427761e-02 -8.62960005e-05  4.18225692e-04  9.99909796e-01]</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>[ 3.29528789e-02 -5.93711291e-05  3.32822742e-04  9.99909730e-01]</t>
+          <t>[ 3.29528789e-02 -5.93711159e-05  3.32822719e-04  9.99909730e-01]</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>[ 3.29626439e-02 -3.33467036e-05  2.50275996e-04  9.99909681e-01]</t>
+          <t>[ 3.29626439e-02 -3.33467010e-05  2.50276025e-04  9.99909681e-01]</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>[ 3.29720823e-02 -8.19264853e-06  1.70489949e-04  9.99909646e-01]</t>
+          <t>[ 3.29720823e-02 -8.19266635e-06  1.70490075e-04  9.99909647e-01]</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>[3.29812050e-02 1.61201596e-05 9.33723133e-05 9.99909626e-01]</t>
+          <t>[3.29812050e-02 1.61201332e-05 9.33723862e-05 9.99909626e-01]</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>[3.29900226e-02 3.96198182e-05 1.88337642e-05 9.99909620e-01]</t>
+          <t>[3.29900226e-02 3.96198113e-05 1.88338329e-05 9.99909620e-01]</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>[ 3.29985454e-02  6.23335749e-05 -5.32119200e-05  9.99909626e-01]</t>
+          <t>[ 3.29985453e-02  6.23335518e-05 -5.32116840e-05  9.99909626e-01]</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>[ 3.30067830e-02  8.42877204e-05 -1.22848114e-04  9.99909644e-01]</t>
+          <t>[ 3.30067830e-02  8.42876877e-05 -1.22847929e-04  9.99909645e-01]</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>[ 3.30147452e-02  1.05507623e-04 -1.90155398e-04  9.99909674e-01]</t>
+          <t>[ 3.30147452e-02  1.05507593e-04 -1.90155190e-04  9.99909674e-01]</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>[ 3.30224412e-02  1.26017852e-04 -2.55211735e-04  9.99909714e-01]</t>
+          <t>[ 3.30224411e-02  1.26017786e-04 -2.55211428e-04  9.99909715e-01]</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>[ 3.30298797e-02  1.45842131e-04 -3.18092342e-04  9.99909765e-01]</t>
+          <t>[ 3.30298796e-02  1.45842040e-04 -3.18091974e-04  9.99909766e-01]</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>[ 3.30370694e-02  1.65003384e-04 -3.78869825e-04  9.99909825e-01]</t>
+          <t>[ 3.30370694e-02  1.65003313e-04 -3.78869592e-04  9.99909826e-01]</t>
         </is>
       </c>
       <c r="BB16" t="inlineStr">
         <is>
-          <t>[ 3.30440188e-02  1.83523809e-04 -4.37614813e-04  9.99909895e-01]</t>
+          <t>[ 3.30440187e-02  1.83523730e-04 -4.37614530e-04  9.99909896e-01]</t>
         </is>
       </c>
       <c r="BC16" t="inlineStr">
         <is>
-          <t>[ 3.30507356e-02  2.01424830e-04 -4.94395082e-04  9.99909974e-01]</t>
+          <t>[ 3.30507356e-02  2.01424755e-04 -4.94394812e-04  9.99909975e-01]</t>
         </is>
       </c>
       <c r="BD16" t="inlineStr">
         <is>
-          <t>[ 3.30572279e-02  2.18727170e-04 -5.49276374e-04  9.99910061e-01]</t>
+          <t>[ 3.30572279e-02  2.18727100e-04 -5.49276118e-04  9.99910061e-01]</t>
         </is>
       </c>
       <c r="BE16" t="inlineStr">
         <is>
-          <t>[ 3.30635030e-02  2.35450852e-04 -6.02322291e-04  9.99910155e-01]</t>
+          <t>[ 3.30635030e-02  2.35450768e-04 -6.02321958e-04  9.99910156e-01]</t>
         </is>
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>[ 3.30695683e-02  2.51615217e-04 -6.53594094e-04  9.99910258e-01]</t>
+          <t>[ 3.30695683e-02  2.51615144e-04 -6.53593843e-04  9.99910258e-01]</t>
         </is>
       </c>
       <c r="BG16" t="inlineStr">
         <is>
-          <t>[ 3.30754307e-02  2.67238974e-04 -7.03151152e-04  9.99910367e-01]</t>
+          <t>[ 3.30754307e-02  2.67238911e-04 -7.03150995e-04  9.99910368e-01]</t>
         </is>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>[ 3.30810971e-02  2.82340213e-04 -7.51050930e-04  9.99910483e-01]</t>
+          <t>[ 3.30810971e-02  2.82340146e-04 -7.51050695e-04  9.99910484e-01]</t>
         </is>
       </c>
       <c r="BI16" t="inlineStr">
         <is>
-          <t>[ 3.30865740e-02  2.96936387e-04 -7.97348703e-04  9.99910605e-01]</t>
+          <t>[ 3.30865740e-02  2.96936316e-04 -7.97348475e-04  9.99910606e-01]</t>
         </is>
       </c>
       <c r="BJ16" t="inlineStr">
         <is>
-          <t>[ 3.30918677e-02  3.11044400e-04 -8.42098082e-04  9.99910734e-01]</t>
+          <t>[ 3.30918677e-02  3.11044346e-04 -8.42097893e-04  9.99910735e-01]</t>
         </is>
       </c>
       <c r="BK16" t="inlineStr">
         <is>
-          <t>[ 3.30969844e-02  3.24680588e-04 -8.85350919e-04  9.99910868e-01]</t>
+          <t>[ 3.30969843e-02  3.24680540e-04 -8.85350750e-04  9.99910869e-01]</t>
         </is>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
-          <t>[ 3.31019299e-02  3.37860730e-04 -9.27157242e-04  9.99911008e-01]</t>
+          <t>[ 3.31019299e-02  3.37860666e-04 -9.27157079e-04  9.99911009e-01]</t>
         </is>
       </c>
       <c r="BM16" t="inlineStr">
         <is>
-          <t>[ 3.31067101e-02  3.50600050e-04 -9.67565392e-04  9.99911153e-01]</t>
+          <t>[ 3.31067101e-02  3.50600006e-04 -9.67565277e-04  9.99911154e-01]</t>
         </is>
       </c>
       <c r="BN16" t="inlineStr">
         <is>
-          <t>[ 3.31113304e-02  3.62913298e-04 -1.00662211e-03  9.99911303e-01]</t>
+          <t>[ 3.31113304e-02  3.62913279e-04 -1.00662209e-03  9.99911304e-01]</t>
         </is>
       </c>
       <c r="BO16" t="inlineStr">
         <is>
-          <t>[ 3.31157962e-02  3.74814767e-04 -1.04437270e-03  9.99911458e-01]</t>
+          <t>[ 3.31157962e-02  3.74814757e-04 -1.04437271e-03  9.99911459e-01]</t>
         </is>
       </c>
       <c r="BP16" t="inlineStr">
         <is>
-          <t>[ 3.31201126e-02  3.86318193e-04 -1.08086077e-03  9.99911617e-01]</t>
+          <t>[ 3.31201126e-02  3.86318176e-04 -1.08086075e-03  9.99911618e-01]</t>
         </is>
       </c>
       <c r="BQ16" t="inlineStr">
         <is>
-          <t>[ 3.31242847e-02  3.97436898e-04 -1.11612856e-03  9.99911781e-01]</t>
+          <t>[ 3.31242847e-02  3.97436879e-04 -1.11612852e-03  9.99911782e-01]</t>
         </is>
       </c>
       <c r="BR16" t="inlineStr">
         <is>
-          <t>[ 3.31283172e-02  4.08183735e-04 -1.15021686e-03  9.99911949e-01]</t>
+          <t>[ 3.31283172e-02  4.08183721e-04 -1.15021678e-03  9.99911949e-01]</t>
         </is>
       </c>
       <c r="BS16" t="inlineStr">
         <is>
-          <t>[ 3.31322149e-02  4.18571150e-04 -1.18316512e-03  9.99912120e-01]</t>
+          <t>[ 3.31322149e-02  4.18571134e-04 -1.18316504e-03  9.99912121e-01]</t>
         </is>
       </c>
       <c r="BT16" t="inlineStr">
         <is>
-          <t>[ 3.31359823e-02  4.28611149e-04 -1.21501144e-03  9.99912295e-01]</t>
+          <t>[ 3.31359823e-02  4.28611142e-04 -1.21501138e-03  9.99912296e-01]</t>
         </is>
       </c>
       <c r="BU16" t="inlineStr">
         <is>
-          <t>[ 3.31396236e-02  4.38315370e-04 -1.24579273e-03  9.99912474e-01]</t>
+          <t>[ 3.31396236e-02  4.38315360e-04 -1.24579269e-03  9.99912475e-01]</t>
         </is>
       </c>
       <c r="BV16" t="inlineStr">
         <is>
-          <t>[ 3.31431432e-02  4.47695028e-04 -1.27554460e-03  9.99912656e-01]</t>
+          <t>[ 3.31431432e-02  4.47695027e-04 -1.27554455e-03  9.99912657e-01]</t>
         </is>
       </c>
       <c r="BW16" t="inlineStr">
         <is>
-          <t>[ 3.31465451e-02  4.56760997e-04 -1.30430144e-03  9.99912842e-01]</t>
+          <t>[ 3.31465451e-02  4.56761004e-04 -1.30430144e-03  9.99912842e-01]</t>
         </is>
       </c>
       <c r="BX16" t="inlineStr">
         <is>
-          <t>[ 3.31498332e-02  4.65523750e-04 -1.33209657e-03  9.99913030e-01]</t>
+          <t>[ 3.31498332e-02  4.65523759e-04 -1.33209655e-03  9.99913031e-01]</t>
         </is>
       </c>
       <c r="BY16" t="inlineStr">
         <is>
-          <t>[ 3.31530114e-02  4.73993440e-04 -1.35896214e-03  9.99913222e-01]</t>
+          <t>[ 3.31530113e-02  4.73993455e-04 -1.35896212e-03  9.99913222e-01]</t>
         </is>
       </c>
       <c r="BZ16" t="inlineStr">
         <is>
-          <t>[ 3.31560832e-02  4.82179862e-04 -1.38492923e-03  9.99913416e-01]</t>
+          <t>[ 3.31560832e-02  4.82179883e-04 -1.38492925e-03  9.99913417e-01]</t>
         </is>
       </c>
       <c r="CA16" t="inlineStr">
         <is>
-          <t>[ 3.31590524e-02  4.90092497e-04 -1.41002792e-03  9.99913613e-01]</t>
+          <t>[ 3.31590524e-02  4.90092515e-04 -1.41002796e-03  9.99913613e-01]</t>
         </is>
       </c>
       <c r="CB16" t="inlineStr">
         <is>
-          <t>[ 3.31619222e-02  4.97740488e-04 -1.43428720e-03  9.99913812e-01]</t>
+          <t>[ 3.31619222e-02  4.97740513e-04 -1.43428725e-03  9.99913813e-01]</t>
         </is>
       </c>
       <c r="CC16" t="inlineStr">
         <is>
-          <t>[ 3.31646961e-02  5.05132697e-04 -1.45773518e-03  9.99914014e-01]</t>
+          <t>[ 3.31646961e-02  5.05132712e-04 -1.45773522e-03  9.99914015e-01]</t>
         </is>
       </c>
       <c r="CD16" t="inlineStr">
         <is>
-          <t>[ 3.31673772e-02  5.12277668e-04 -1.48039897e-03  9.99914218e-01]</t>
+          <t>[ 3.31673772e-02  5.12277682e-04 -1.48039902e-03  9.99914219e-01]</t>
         </is>
       </c>
       <c r="CE16" t="inlineStr">
         <is>
-          <t>[ 3.31699686e-02  5.19183678e-04 -1.50230482e-03  9.99914425e-01]</t>
+          <t>[ 3.31699686e-02  5.19183695e-04 -1.50230487e-03  9.99914425e-01]</t>
         </is>
       </c>
       <c r="CF16" t="inlineStr">
         <is>
-          <t>[ 3.31724734e-02  5.25858722e-04 -1.52347807e-03  9.99914633e-01]</t>
+          <t>[ 3.31724734e-02  5.25858732e-04 -1.52347811e-03  9.99914634e-01]</t>
         </is>
       </c>
       <c r="CG16" t="inlineStr">
         <is>
-          <t>[ 3.31748944e-02  5.32310515e-04 -1.54394323e-03  9.99914844e-01]</t>
+          <t>[ 3.31748944e-02  5.32310520e-04 -1.54394326e-03  9.99914844e-01]</t>
         </is>
       </c>
       <c r="CH16" t="inlineStr">
         <is>
-          <t>[ 3.31772345e-02  5.38546534e-04 -1.56372397e-03  9.99915056e-01]</t>
+          <t>[ 3.31772345e-02  5.38546534e-04 -1.56372399e-03  9.99915057e-01]</t>
         </is>
       </c>
       <c r="CI16" t="inlineStr">
         <is>
-          <t>[ 3.31794963e-02  5.44573987e-04 -1.58284316e-03  9.99915270e-01]</t>
+          <t>[ 3.31794963e-02  5.44573988e-04 -1.58284321e-03  9.99915271e-01]</t>
         </is>
       </c>
       <c r="CJ16" t="inlineStr">
         <is>
-          <t>[ 3.31816824e-02  5.50399845e-04 -1.60132296e-03  9.99915486e-01]</t>
+          <t>[ 3.31816825e-02  5.50399851e-04 -1.60132300e-03  9.99915487e-01]</t>
         </is>
       </c>
       <c r="CK16" t="inlineStr">
         <is>
-          <t>[ 3.31837955e-02  5.56030859e-04 -1.61918474e-03  9.99915704e-01]</t>
+          <t>[ 3.31837955e-02  5.56030867e-04 -1.61918478e-03  9.99915705e-01]</t>
         </is>
       </c>
       <c r="CL16" t="inlineStr">
         <is>
-          <t>[ 3.31858379e-02  5.61473540e-04 -1.63644917e-03  9.99915924e-01]</t>
+          <t>[ 3.31858379e-02  5.61473546e-04 -1.63644918e-03  9.99915924e-01]</t>
         </is>
       </c>
       <c r="CM16" t="inlineStr">
         <is>
-          <t>[ 3.31878120e-02  5.66734193e-04 -1.65313623e-03  9.99916145e-01]</t>
+          <t>[ 3.31878120e-02  5.66734196e-04 -1.65313622e-03  9.99916146e-01]</t>
         </is>
       </c>
       <c r="CN16" t="inlineStr">
         <is>
-          <t>[ 3.31897201e-02  5.71818901e-04 -1.66926520e-03  9.99916367e-01]</t>
+          <t>[ 3.31897201e-02  5.71818904e-04 -1.66926519e-03  9.99916368e-01]</t>
         </is>
       </c>
       <c r="CO16" t="inlineStr">
         <is>
-          <t>[ 3.31915643e-02  5.76733550e-04 -1.68485479e-03  9.99916591e-01]</t>
+          <t>[ 3.31915643e-02  5.76733550e-04 -1.68485478e-03  9.99916592e-01]</t>
         </is>
       </c>
       <c r="CP16" t="inlineStr">
         <is>
-          <t>[ 3.31933469e-02  5.81483830e-04 -1.69992303e-03  9.99916817e-01]</t>
+          <t>[ 3.31933469e-02  5.81483827e-04 -1.69992300e-03  9.99916817e-01]</t>
         </is>
       </c>
       <c r="CQ16" t="inlineStr">
         <is>
-          <t>[ 3.31950699e-02  5.86075234e-04 -1.71448732e-03  9.99917043e-01]</t>
+          <t>[ 3.31950699e-02  5.86075227e-04 -1.71448729e-03  9.99917044e-01]</t>
         </is>
       </c>
       <c r="CR16" t="inlineStr">
         <is>
-          <t>[ 3.31967353e-02  5.90513076e-04 -1.72856454e-03  9.99917271e-01]</t>
+          <t>[ 3.31967353e-02  5.90513067e-04 -1.72856451e-03  9.99917272e-01]</t>
         </is>
       </c>
       <c r="CS16" t="inlineStr">
         <is>
-          <t>[ 3.31983449e-02  5.94802488e-04 -1.74217097e-03  9.99917500e-01]</t>
+          <t>[ 3.31983449e-02  5.94802480e-04 -1.74217096e-03  9.99917501e-01]</t>
         </is>
       </c>
       <c r="CT16" t="inlineStr">
         <is>
-          <t>[ 3.31999008e-02  5.98948441e-04 -1.75532238e-03  9.99917730e-01]</t>
+          <t>[ 3.31999008e-02  5.98948432e-04 -1.75532234e-03  9.99917731e-01]</t>
         </is>
       </c>
       <c r="CU16" t="inlineStr">
         <is>
-          <t>[ 3.32014046e-02  6.02955727e-04 -1.76803396e-03  9.99917962e-01]</t>
+          <t>[ 3.32014046e-02  6.02955717e-04 -1.76803393e-03  9.99917963e-01]</t>
         </is>
       </c>
       <c r="CV16" t="inlineStr">
         <is>
-          <t>[ 3.32028581e-02  6.06828992e-04 -1.78032043e-03  9.99918194e-01]</t>
+          <t>[ 3.32028581e-02  6.06828977e-04 -1.78032038e-03  9.99918195e-01]</t>
         </is>
       </c>
       <c r="CW16" t="inlineStr">
         <is>
-          <t>[ 3.32042631e-02  6.10572708e-04 -1.79219601e-03  9.99918428e-01]</t>
+          <t>[ 3.32042630e-02  6.10572695e-04 -1.79219595e-03  9.99918429e-01]</t>
         </is>
       </c>
       <c r="CX16" t="inlineStr">
         <is>
-          <t>[ 3.32056210e-02  6.14191211e-04 -1.80367442e-03  9.99918662e-01]</t>
+          <t>[ 3.32056210e-02  6.14191195e-04 -1.80367437e-03  9.99918663e-01]</t>
         </is>
       </c>
     </row>
@@ -8405,7 +8430,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[ 0.03354742 -0.00556263  0.0065472   0.9999639 ]</t>
+          <t>[ 0.03354742 -0.00556263  0.00654719  0.9999639 ]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -8415,67 +8440,67 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[ 0.03298573 -0.00398034  0.00655188  0.9999545 ]</t>
+          <t>[ 0.03298573 -0.00398034  0.00655188  0.99995449]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[ 0.03287075 -0.00358901  0.00645847  0.99995158]</t>
+          <t>[ 0.03287075 -0.00358901  0.00645847  0.99995157]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[ 0.03280901 -0.00333149  0.00633598  0.99994924]</t>
+          <t>[ 0.03280901 -0.00333149  0.00633597  0.99994924]</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[ 0.03277921 -0.00315561  0.00619809  0.99994728]</t>
+          <t>[ 0.03277921 -0.00315561  0.00619809  0.99994727]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[ 0.03276847 -0.00302978  0.00605304  0.99994556]</t>
+          <t>[ 0.03276848 -0.00302978  0.00605303  0.99994555]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[ 0.03276903 -0.00293488  0.0059057   0.999944  ]</t>
+          <t>[ 0.03276903 -0.00293488  0.00590569  0.999944  ]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[ 0.03277618 -0.00285932  0.00575898  0.99994257]</t>
+          <t>[ 0.03277618 -0.00285931  0.00575897  0.99994256]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[ 0.0327871  -0.00279606  0.00561455  0.99994123]</t>
+          <t>[ 0.0327871  -0.00279606  0.00561455  0.99994122]</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>[ 0.03280006 -0.00274083  0.00547338  0.99993996]</t>
+          <t>[ 0.03280006 -0.00274083  0.00547338  0.99993995]</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>[ 0.03281406 -0.00269103  0.00533597  0.99993875]</t>
+          <t>[ 0.03281406 -0.00269103  0.00533597  0.99993874]</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[ 0.03282847 -0.00264506  0.00520259  0.99993759]</t>
+          <t>[ 0.03282847 -0.00264506  0.00520258  0.99993759]</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[ 0.03284294 -0.00260193  0.00507331  0.99993649]</t>
+          <t>[ 0.03284294 -0.00260193  0.00507331  0.99993648]</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[ 0.03285725 -0.00256104  0.00494815  0.99993543]</t>
+          <t>[ 0.03285725 -0.00256104  0.00494815  0.99993542]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -8490,47 +8515,47 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[ 0.03289824 -0.00244853  0.00459666  0.99993249]</t>
+          <t>[ 0.03289824 -0.00244853  0.00459666  0.99993248]</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>[ 0.03291112 -0.00241382  0.00448716  0.99993158]</t>
+          <t>[ 0.03291112 -0.00241382  0.00448716  0.99993157]</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>[ 0.03292361 -0.00238033  0.00438131  0.9999307 ]</t>
+          <t>[ 0.03292361 -0.00238033  0.0043813   0.9999307 ]</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>[ 0.03293569 -0.00234801  0.00427898  0.99992986]</t>
+          <t>[ 0.03293569 -0.00234801  0.00427898  0.99992985]</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>[ 0.03294737 -0.00231678  0.00418008  0.99992904]</t>
+          <t>[ 0.03294737 -0.00231678  0.00418007  0.99992903]</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>[ 0.03295867 -0.00228662  0.00408447  0.99992825]</t>
+          <t>[ 0.03295867 -0.00228662  0.00408447  0.99992824]</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>[ 0.0329696  -0.00225747  0.00399206  0.99992749]</t>
+          <t>[ 0.0329696  -0.00225747  0.00399206  0.99992748]</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>[ 0.03298016 -0.00222931  0.00390275  0.99992675]</t>
+          <t>[ 0.03298016 -0.00222931  0.00390274  0.99992674]</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>[ 0.03299038 -0.00220209  0.00381641  0.99992604]</t>
+          <t>[ 0.03299038 -0.00220209  0.00381641  0.99992603]</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -8540,17 +8565,17 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>[ 0.03300979 -0.00215035  0.00365232  0.99992467]</t>
+          <t>[ 0.03300979 -0.00215035  0.00365231  0.99992467]</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>[ 0.03301901 -0.00212577  0.00357436  0.99992403]</t>
+          <t>[ 0.03301901 -0.00212577  0.00357436  0.99992402]</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>[ 0.03302792 -0.00210202  0.00349901  0.9999234 ]</t>
+          <t>[ 0.03302792 -0.00210202  0.00349901  0.99992339]</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -8560,7 +8585,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>[ 0.03304487 -0.00205687  0.00335579  0.99992219]</t>
+          <t>[ 0.03304487 -0.00205687  0.00335578  0.99992218]</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -8575,37 +8600,37 @@
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>[ 0.03306821 -0.00199465  0.00315842  0.99992051]</t>
+          <t>[ 0.03306821 -0.00199465  0.00315842  0.9999205 ]</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>[ 0.03307548 -0.00197528  0.00309698  0.99991998]</t>
+          <t>[ 0.03307548 -0.00197528  0.00309698  0.99991997]</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>[ 0.03308251 -0.00195656  0.0030376   0.99991946]</t>
+          <t>[ 0.03308251 -0.00195656  0.0030376   0.99991945]</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>[ 0.0330893  -0.00193847  0.0029802   0.99991896]</t>
+          <t>[ 0.0330893  -0.00193847  0.0029802   0.99991895]</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>[ 0.03309586 -0.00192098  0.00292472  0.99991847]</t>
+          <t>[ 0.03309586 -0.00192098  0.00292472  0.99991846]</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>[ 0.0331022  -0.00190407  0.0028711   0.99991799]</t>
+          <t>[ 0.0331022  -0.00190407  0.0028711   0.99991798]</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>[ 0.03310834 -0.00188774  0.00281927  0.99991752]</t>
+          <t>[ 0.03310834 -0.00188773  0.00281927  0.99991751]</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -8615,22 +8640,22 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>[ 0.03311999 -0.00185668  0.00272076  0.99991662]</t>
+          <t>[ 0.03311999 -0.00185668  0.00272076  0.99991661]</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>[ 0.03312553 -0.00184193  0.00267396  0.99991618]</t>
+          <t>[ 0.03312553 -0.00184192  0.00267396  0.99991618]</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>[ 0.03313088 -0.00182766  0.00262873  0.99991576]</t>
+          <t>[ 0.03313088 -0.00182766  0.00262872  0.99991575]</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>[ 0.03313605 -0.00181388  0.002585    0.99991534]</t>
+          <t>[ 0.03313605 -0.00181388  0.002585    0.99991533]</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
@@ -8650,7 +8675,7 @@
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>[ 0.03315507 -0.00176321  0.00242426  0.99991376]</t>
+          <t>[ 0.03315507 -0.00176321  0.00242426  0.99991375]</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -8670,12 +8695,12 @@
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>[ 0.03317166 -0.00171898  0.00228396  0.9999123 ]</t>
+          <t>[ 0.03317166 -0.00171898  0.00228396  0.99991229]</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>[ 0.03317547 -0.00170883  0.00225177  0.99991195]</t>
+          <t>[ 0.03317547 -0.00170883  0.00225177  0.99991194]</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
@@ -8685,7 +8710,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>[ 0.03318271 -0.00168954  0.00219059  0.99991127]</t>
+          <t>[ 0.03318271 -0.00168954  0.00219058  0.99991126]</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
@@ -8695,7 +8720,7 @@
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>[ 0.03318947 -0.00167152  0.00213342  0.99991061]</t>
+          <t>[ 0.03318947 -0.00167152  0.00213342  0.9999106 ]</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -8705,7 +8730,7 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>[ 0.03319579 -0.00165468  0.00208002  0.99990997]</t>
+          <t>[ 0.03319579 -0.00165468  0.00208002  0.99990996]</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
@@ -8715,7 +8740,7 @@
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>[ 0.03320169 -0.00163896  0.00203013  0.99990935]</t>
+          <t>[ 0.03320169 -0.00163896  0.00203013  0.99990934]</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
@@ -8730,17 +8755,17 @@
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>[ 0.03320982 -0.00161728  0.00196138  0.99990845]</t>
+          <t>[ 0.03320982 -0.00161728  0.00196138  0.99990844]</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>[ 0.03321236 -0.00161054  0.00193997  0.99990816]</t>
+          <t>[ 0.03321236 -0.00161054  0.00193997  0.99990815]</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>[ 0.0332148  -0.00160401  0.00191929  0.99990787]</t>
+          <t>[ 0.0332148  -0.00160401  0.00191929  0.99990786]</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -8760,17 +8785,17 @@
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>[ 0.0332238  -0.00158004  0.00184324  0.99990675]</t>
+          <t>[ 0.0332238  -0.00158004  0.00184324  0.99990674]</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>[ 0.03322586 -0.00157454  0.00182579  0.99990648]</t>
+          <t>[ 0.03322586 -0.00157454  0.00182579  0.99990647]</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>[ 0.03322786 -0.00156922  0.00180892  0.99990621]</t>
+          <t>[ 0.03322786 -0.00156922  0.00180892  0.9999062 ]</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
@@ -8780,17 +8805,17 @@
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>[ 0.03323165 -0.00155911  0.00177686  0.99990568]</t>
+          <t>[ 0.03323165 -0.00155911  0.00177686  0.99990567]</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>[ 0.03323345 -0.00155431  0.00176163  0.99990542]</t>
+          <t>[ 0.03323345 -0.00155431  0.00176163  0.99990541]</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
         <is>
-          <t>[ 0.0332352  -0.00154967  0.00174691  0.99990516]</t>
+          <t>[ 0.0332352  -0.00154967  0.00174691  0.99990515]</t>
         </is>
       </c>
       <c r="CD17" t="inlineStr">
@@ -8800,22 +8825,22 @@
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>[ 0.03323851 -0.00154085  0.00171893  0.99990465]</t>
+          <t>[ 0.03323851 -0.00154085  0.00171893  0.99990464]</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>[ 0.03324008 -0.00153666  0.00170563  0.9999044 ]</t>
+          <t>[ 0.03324008 -0.00153666  0.00170563  0.99990439]</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>[ 0.0332416  -0.00153261  0.00169279  0.99990415]</t>
+          <t>[ 0.0332416  -0.00153261  0.00169279  0.99990414]</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>[ 0.03324307 -0.00152869  0.00168037  0.9999039 ]</t>
+          <t>[ 0.03324307 -0.00152869  0.00168037  0.99990389]</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
@@ -8825,27 +8850,27 @@
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>[ 0.03324586 -0.00152125  0.00165676  0.99990341]</t>
+          <t>[ 0.03324586 -0.00152125  0.00165676  0.9999034 ]</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>[ 0.03324719 -0.00151772  0.00164555  0.99990317]</t>
+          <t>[ 0.03324719 -0.00151772  0.00164555  0.99990316]</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
         <is>
-          <t>[ 0.03324847 -0.0015143   0.00163471  0.99990293]</t>
+          <t>[ 0.03324847 -0.0015143   0.00163471  0.99990292]</t>
         </is>
       </c>
       <c r="CM17" t="inlineStr">
         <is>
-          <t>[ 0.03324971 -0.001511    0.00162424  0.99990269]</t>
+          <t>[ 0.03324971 -0.001511    0.00162424  0.99990268]</t>
         </is>
       </c>
       <c r="CN17" t="inlineStr">
         <is>
-          <t>[ 0.03325091 -0.00150781  0.00161411  0.99990245]</t>
+          <t>[ 0.03325091 -0.00150781  0.00161411  0.99990244]</t>
         </is>
       </c>
       <c r="CO17" t="inlineStr">
@@ -8860,32 +8885,32 @@
       </c>
       <c r="CQ17" t="inlineStr">
         <is>
-          <t>[ 0.03325426 -0.00149886  0.00158572  0.99990175]</t>
+          <t>[ 0.03325426 -0.00149886  0.00158572  0.99990174]</t>
         </is>
       </c>
       <c r="CR17" t="inlineStr">
         <is>
-          <t>[ 0.03325531 -0.00149607  0.00157688  0.99990152]</t>
+          <t>[ 0.03325531 -0.00149607  0.00157688  0.99990151]</t>
         </is>
       </c>
       <c r="CS17" t="inlineStr">
         <is>
-          <t>[ 0.03325632 -0.00149338  0.00156834  0.99990129]</t>
+          <t>[ 0.03325632 -0.00149338  0.00156834  0.99990128]</t>
         </is>
       </c>
       <c r="CT17" t="inlineStr">
         <is>
-          <t>[ 0.0332573  -0.00149078  0.00156009  0.99990106]</t>
+          <t>[ 0.0332573  -0.00149078  0.00156008  0.99990105]</t>
         </is>
       </c>
       <c r="CU17" t="inlineStr">
         <is>
-          <t>[ 0.03325824 -0.00148826  0.00155211  0.99990083]</t>
+          <t>[ 0.03325824 -0.00148826  0.0015521   0.99990083]</t>
         </is>
       </c>
       <c r="CV17" t="inlineStr">
         <is>
-          <t>[ 0.03325915 -0.00148583  0.00154439  0.99990061]</t>
+          <t>[ 0.03325915 -0.00148583  0.00154439  0.9999006 ]</t>
         </is>
       </c>
       <c r="CW17" t="inlineStr">
@@ -8895,7 +8920,7 @@
       </c>
       <c r="CX17" t="inlineStr">
         <is>
-          <t>[ 0.03326089 -0.00148121  0.00152973  0.99990016]</t>
+          <t>[ 0.03326089 -0.00148121  0.00152973  0.99990015]</t>
         </is>
       </c>
     </row>
@@ -9175,22 +9200,22 @@
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>[ 3.48758739e-02  1.23332301e-03 -7.97125967e-04  9.99889798e-01]</t>
+          <t>[ 3.48758739e-02  1.23332297e-03 -7.97125841e-04  9.99889799e-01]</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>[ 3.48826761e-02  1.25145238e-03 -8.54628955e-04  9.99889923e-01]</t>
+          <t>[ 3.48826761e-02  1.25145235e-03 -8.54628875e-04  9.99889923e-01]</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>[ 3.48892509e-02  1.26897547e-03 -9.10208971e-04  9.99890059e-01]</t>
+          <t>[ 3.48892508e-02  1.26897544e-03 -9.10208757e-04  9.99890060e-01]</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>[ 3.48956057e-02  1.28591250e-03 -9.63930198e-04  9.99890207e-01]</t>
+          <t>[ 3.48956057e-02  1.28591246e-03 -9.63930006e-04  9.99890208e-01]</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
@@ -11640,167 +11665,167 @@
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>[ 4.39650718e-02 -9.61773583e-03  5.25848187e-04  1.00004505e+00]</t>
+          <t>[ 4.39650718e-02 -9.61773583e-03  5.25848186e-04  1.00004505e+00]</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>[ 4.39741427e-02 -9.59357018e-03  4.49188070e-04  1.00004573e+00]</t>
+          <t>[ 4.39741427e-02 -9.59357019e-03  4.49188131e-04  1.00004573e+00]</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>[ 4.39829102e-02 -9.57021292e-03  3.75092298e-04  1.00004639e+00]</t>
+          <t>[ 4.39829102e-02 -9.57021294e-03  3.75092379e-04  1.00004639e+00]</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>[ 4.39913844e-02 -9.54763703e-03  3.03475161e-04  1.00004704e+00]</t>
+          <t>[ 4.39913844e-02 -9.54763705e-03  3.03475254e-04  1.00004704e+00]</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>[ 4.39995752e-02 -9.52581637e-03  2.34253793e-04  1.00004767e+00]</t>
+          <t>[ 4.39995752e-02 -9.52581639e-03  2.34253861e-04  1.00004767e+00]</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>[ 4.40074920e-02 -9.50472566e-03  1.67347966e-04  1.00004829e+00]</t>
+          <t>[ 4.40074920e-02 -9.50472569e-03  1.67348047e-04  1.00004829e+00]</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>[ 4.40151440e-02 -9.48434051e-03  1.02680242e-04  1.00004889e+00]</t>
+          <t>[ 4.40151440e-02 -9.48434053e-03  1.02680336e-04  1.00004889e+00]</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>[ 4.40225400e-02 -9.46463730e-03  4.01758067e-05  1.00004948e+00]</t>
+          <t>[ 4.40225400e-02 -9.46463731e-03  4.01758761e-05  1.00004948e+00]</t>
         </is>
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>[ 4.40296887e-02 -9.44559320e-03 -2.02377747e-05  1.00005005e+00]</t>
+          <t>[ 4.40296886e-02 -9.44559322e-03 -2.02377218e-05  1.00005005e+00]</t>
         </is>
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>[ 4.40365982e-02 -9.42718619e-03 -7.86304040e-05  1.00005061e+00]</t>
+          <t>[ 4.40365982e-02 -9.42718620e-03 -7.86303529e-05  1.00005061e+00]</t>
         </is>
       </c>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>[ 4.40432766e-02 -9.40939495e-03 -1.35069661e-04  1.00005116e+00]</t>
+          <t>[ 4.40432766e-02 -9.40939496e-03 -1.35069621e-04  1.00005116e+00]</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>[ 4.40497316e-02 -9.39219888e-03 -1.89620925e-04  1.00005169e+00]</t>
+          <t>[ 4.40497316e-02 -9.39219889e-03 -1.89620881e-04  1.00005169e+00]</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
         <is>
-          <t>[ 4.40559706e-02 -9.37557807e-03 -2.42347324e-04  1.00005221e+00]</t>
+          <t>[ 4.40559706e-02 -9.37557808e-03 -2.42347297e-04  1.00005221e+00]</t>
         </is>
       </c>
       <c r="AZ23" t="inlineStr">
         <is>
-          <t>[ 4.40620010e-02 -9.35951328e-03 -2.93309897e-04  1.00005271e+00]</t>
+          <t>[ 4.40620010e-02 -9.35951328e-03 -2.93309887e-04  1.00005271e+00]</t>
         </is>
       </c>
       <c r="BA23" t="inlineStr">
         <is>
-          <t>[ 4.40678297e-02 -9.34398590e-03 -3.42567662e-04  1.00005320e+00]</t>
+          <t>[ 4.40678297e-02 -9.34398591e-03 -3.42567630e-04  1.00005320e+00]</t>
         </is>
       </c>
       <c r="BB23" t="inlineStr">
         <is>
-          <t>[ 4.40734634e-02 -9.32897796e-03 -3.90177635e-04  1.00005368e+00]</t>
+          <t>[ 4.40734634e-02 -9.32897797e-03 -3.90177618e-04  1.00005368e+00]</t>
         </is>
       </c>
       <c r="BC23" t="inlineStr">
         <is>
-          <t>[ 4.40789086e-02 -9.31447209e-03 -4.36194932e-04  1.00005415e+00]</t>
+          <t>[ 4.40789086e-02 -9.31447210e-03 -4.36194922e-04  1.00005415e+00]</t>
         </is>
       </c>
       <c r="BD23" t="inlineStr">
         <is>
-          <t>[ 4.40841717e-02 -9.30045149e-03 -4.80672856e-04  1.00005461e+00]</t>
+          <t>[ 4.40841717e-02 -9.30045149e-03 -4.80672826e-04  1.00005461e+00]</t>
         </is>
       </c>
       <c r="BE23" t="inlineStr">
         <is>
-          <t>[ 4.40892588e-02 -9.28689991e-03 -5.23662879e-04  1.00005505e+00]</t>
+          <t>[ 4.40892588e-02 -9.28689993e-03 -5.23662831e-04  1.00005505e+00]</t>
         </is>
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>[ 4.40941757e-02 -9.27380169e-03 -5.65214766e-04  1.00005549e+00]</t>
+          <t>[ 4.40941757e-02 -9.27380170e-03 -5.65214707e-04  1.00005549e+00]</t>
         </is>
       </c>
       <c r="BG23" t="inlineStr">
         <is>
-          <t>[ 4.40989281e-02 -9.26114164e-03 -6.05376641e-04  1.00005591e+00]</t>
+          <t>[ 4.40989281e-02 -9.26114166e-03 -6.05376581e-04  1.00005591e+00]</t>
         </is>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>[ 4.41035215e-02 -9.24890511e-03 -6.44194975e-04  1.00005632e+00]</t>
+          <t>[ 4.41035215e-02 -9.24890513e-03 -6.44194921e-04  1.00005632e+00]</t>
         </is>
       </c>
       <c r="BI23" t="inlineStr">
         <is>
-          <t>[ 4.41079613e-02 -9.23707793e-03 -6.81714742e-04  1.00005673e+00]</t>
+          <t>[ 4.41079613e-02 -9.23707795e-03 -6.81714681e-04  1.00005673e+00]</t>
         </is>
       </c>
       <c r="BJ23" t="inlineStr">
         <is>
-          <t>[ 4.41122526e-02 -9.22564641e-03 -7.17979361e-04  1.00005712e+00]</t>
+          <t>[ 4.41122526e-02 -9.22564643e-03 -7.17979291e-04  1.00005712e+00]</t>
         </is>
       </c>
       <c r="BK23" t="inlineStr">
         <is>
-          <t>[ 4.41164003e-02 -9.21459732e-03 -7.53030821e-04  1.00005750e+00]</t>
+          <t>[ 4.41164003e-02 -9.21459734e-03 -7.53030761e-04  1.00005750e+00]</t>
         </is>
       </c>
       <c r="BL23" t="inlineStr">
         <is>
-          <t>[ 4.41204093e-02 -9.20391785e-03 -7.86909705e-04  1.00005787e+00]</t>
+          <t>[ 4.41204093e-02 -9.20391787e-03 -7.86909641e-04  1.00005787e+00]</t>
         </is>
       </c>
       <c r="BM23" t="inlineStr">
         <is>
-          <t>[ 4.41242842e-02 -9.19359565e-03 -8.19655246e-04  1.00005824e+00]</t>
+          <t>[ 4.41242841e-02 -9.19359567e-03 -8.19655163e-04  1.00005824e+00]</t>
         </is>
       </c>
       <c r="BN23" t="inlineStr">
         <is>
-          <t>[ 4.41280294e-02 -9.18361876e-03 -8.51305347e-04  1.00005859e+00]</t>
+          <t>[ 4.41280294e-02 -9.18361879e-03 -8.51305267e-04  1.00005859e+00]</t>
         </is>
       </c>
       <c r="BO23" t="inlineStr">
         <is>
-          <t>[ 4.41316494e-02 -9.17397563e-03 -8.81896635e-04  1.00005894e+00]</t>
+          <t>[ 4.41316494e-02 -9.17397566e-03 -8.81896577e-04  1.00005894e+00]</t>
         </is>
       </c>
       <c r="BP23" t="inlineStr">
         <is>
-          <t>[ 4.41351483e-02 -9.16465510e-03 -9.11464559e-04  1.00005928e+00]</t>
+          <t>[ 4.41351483e-02 -9.16465513e-03 -9.11464496e-04  1.00005928e+00]</t>
         </is>
       </c>
       <c r="BQ23" t="inlineStr">
         <is>
-          <t>[ 4.41385301e-02 -9.15564638e-03 -9.40043335e-04  1.00005961e+00]</t>
+          <t>[ 4.41385301e-02 -9.15564640e-03 -9.40043272e-04  1.00005961e+00]</t>
         </is>
       </c>
       <c r="BR23" t="inlineStr">
         <is>
-          <t>[ 4.41417988e-02 -9.14693903e-03 -9.67666060e-04  1.00005993e+00]</t>
+          <t>[ 4.41417988e-02 -9.14693905e-03 -9.67665994e-04  1.00005993e+00]</t>
         </is>
       </c>
       <c r="BS23" t="inlineStr">
         <is>
-          <t>[ 4.41449582e-02 -9.13852297e-03 -9.94364702e-04  1.00006024e+00]</t>
+          <t>[ 4.41449582e-02 -9.13852299e-03 -9.94364648e-04  1.00006024e+00]</t>
         </is>
       </c>
       <c r="BT23" t="inlineStr">
@@ -12065,7 +12090,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>[ 0.03663425 -0.0028241   0.00220255  0.99995951]</t>
+          <t>[ 0.03663425 -0.0028241   0.00220256  0.99995951]</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -12105,92 +12130,92 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>[ 3.67908336e-02 -2.40647032e-03  8.78391981e-04  9.99959904e-01]</t>
+          <t>[ 3.67908335e-02 -2.40647048e-03  8.78392431e-04  9.99959904e-01]</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>[ 3.68075851e-02 -2.36183005e-03  7.36791342e-04  9.99960064e-01]</t>
+          <t>[ 3.68075850e-02 -2.36183021e-03  7.36791928e-04  9.99960064e-01]</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>[ 3.68237765e-02 -2.31868329e-03  5.99926595e-04  9.99960242e-01]</t>
+          <t>[ 3.68237764e-02 -2.31868347e-03  5.99927260e-04  9.99960243e-01]</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>[ 3.68394264e-02 -2.27697990e-03  4.67639395e-04  9.99960438e-01]</t>
+          <t>[ 3.68394263e-02 -2.27698007e-03  4.67640048e-04  9.99960438e-01]</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>[ 3.68545531e-02 -2.23667147e-03  3.39776627e-04  9.99960648e-01]</t>
+          <t>[ 3.68545530e-02 -2.23667164e-03  3.39777146e-04  9.99960648e-01]</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>[ 3.68691738e-02 -2.19771135e-03  2.16190429e-04  9.99960873e-01]</t>
+          <t>[ 3.68691737e-02 -2.19771148e-03  2.16190818e-04  9.99960873e-01]</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>[ 3.68833056e-02 -2.16005436e-03  9.67376770e-05  9.99961111e-01]</t>
+          <t>[ 3.68833055e-02 -2.16005448e-03  9.67380518e-05  9.99961111e-01]</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>[ 3.68969647e-02 -2.12365688e-03 -1.87200250e-05  9.99961360e-01]</t>
+          <t>[ 3.68969647e-02 -2.12365699e-03 -1.87196655e-05  9.99961360e-01]</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>[ 3.69101671e-02 -2.08847680e-03 -1.30316040e-04  9.99961621e-01]</t>
+          <t>[ 3.69101670e-02 -2.08847688e-03 -1.30315701e-04  9.99961621e-01]</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>[ 3.69229279e-02 -2.05447340e-03 -2.38179593e-04  9.99961891e-01]</t>
+          <t>[ 3.69229278e-02 -2.05447346e-03 -2.38179293e-04  9.99961890e-01]</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>[ 3.69352619e-02 -2.02160727e-03 -3.42435677e-04  9.99962169e-01]</t>
+          <t>[ 3.69352618e-02 -2.02160737e-03 -3.42435248e-04  9.99962169e-01]</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>[ 3.69471834e-02 -1.98984039e-03 -4.43204733e-04  9.99962456e-01]</t>
+          <t>[ 3.69471834e-02 -1.98984050e-03 -4.43204378e-04  9.99962456e-01]</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>[ 3.69587062e-02 -1.95913606e-03 -5.40603334e-04  9.99962750e-01]</t>
+          <t>[ 3.69587062e-02 -1.95913613e-03 -5.40603115e-04  9.99962750e-01]</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>[ 3.69698436e-02 -1.92945868e-03 -6.34744474e-04  9.99963050e-01]</t>
+          <t>[ 3.69698436e-02 -1.92945874e-03 -6.34744222e-04  9.99963050e-01]</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>[ 3.69806085e-02 -1.90077389e-03 -7.25736917e-04  9.99963357e-01]</t>
+          <t>[ 3.69806085e-02 -1.90077397e-03 -7.25736680e-04  9.99963357e-01]</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>[ 3.69910134e-02 -1.87304853e-03 -8.13686056e-04  9.99963668e-01]</t>
+          <t>[ 3.69910134e-02 -1.87304861e-03 -8.13685825e-04  9.99963668e-01]</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
-          <t>[ 3.70010703e-02 -1.84625050e-03 -8.98693597e-04  9.99963985e-01]</t>
+          <t>[ 3.70010703e-02 -1.84625057e-03 -8.98693415e-04  9.99963985e-01]</t>
         </is>
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>[ 3.70107909e-02 -1.82034880e-03 -9.80857971e-04  9.99964306e-01]</t>
+          <t>[ 3.70107909e-02 -1.82034886e-03 -9.80857795e-04  9.99964305e-01]</t>
         </is>
       </c>
       <c r="AV24" t="inlineStr">
@@ -12500,7 +12525,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3.05870698e-02 8.15393734e-04 5.77607339e-03 9.99882108e-01]</t>
+          <t>[3.05870695e-02 8.15393693e-04 5.77607488e-03 9.99882109e-01]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -12510,7 +12535,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[0.03046826 0.00166232 0.00500397 0.99987404]</t>
+          <t>[0.03046826 0.00166232 0.00500397 0.99987403]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -12520,7 +12545,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.03048668 0.0021372  0.00419822 0.99986757]</t>
+          <t>[0.03048668 0.0021372  0.00419823 0.99986757]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -12545,17 +12570,17 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[0.03066853 0.0028477  0.0023162  0.99985565]</t>
+          <t>[0.03066853 0.0028477  0.00231621 0.99985565]</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[0.03070777 0.00296015 0.00197251 0.99985383]</t>
+          <t>[0.03070777 0.00296014 0.00197252 0.99985383]</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[0.03074625 0.00306747 0.00163995 0.99985216]</t>
+          <t>[0.03074625 0.00306747 0.00163996 0.99985215]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -12565,47 +12590,47 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[0.03082025 0.00326935 0.00100726 0.99984924]</t>
+          <t>[0.03082025 0.00326935 0.00100727 0.99984924]</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>[3.08556347e-02 3.36471234e-03 7.06552219e-04 9.99847970e-01]</t>
+          <t>[3.08556344e-02 3.36471157e-03 7.06554588e-04 9.99847969e-01]</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>[3.08899064e-02 3.45670266e-03 4.15848678e-04 9.99846820e-01]</t>
+          <t>[3.08899062e-02 3.45670169e-03 4.15850987e-04 9.99846820e-01]</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>[3.09230770e-02 3.54550647e-03 1.34837869e-04 9.99845780e-01]</t>
+          <t>[3.09230768e-02 3.54550558e-03 1.34840408e-04 9.99845780e-01]</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>[ 3.09551655e-02  3.63127403e-03 -1.36793306e-04  9.99844840e-01]</t>
+          <t>[ 3.09551652e-02  3.63127315e-03 -1.36790485e-04  9.99844841e-01]</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>[ 3.09861972e-02  3.71413320e-03 -3.99351151e-04  9.99843996e-01]</t>
+          <t>[ 3.09861969e-02  3.71413233e-03 -3.99348546e-04  9.99843996e-01]</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>[ 3.10162011e-02  3.79419712e-03 -6.53135293e-04  9.99843239e-01]</t>
+          <t>[ 3.10162008e-02  3.79419627e-03 -6.53132463e-04  9.99843240e-01]</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>[ 3.10452075e-02  3.87156887e-03 -8.98435945e-04  9.99842564e-01]</t>
+          <t>[ 3.10452072e-02  3.87156805e-03 -8.98433328e-04  9.99842566e-01]</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>[ 0.03107325  0.00394634 -0.00113554  0.99984197]</t>
+          <t>[ 0.03107325  0.00394634 -0.00113553  0.99984197]</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -12620,42 +12645,42 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>[ 0.03115188  0.00415597 -0.00180032  0.99984058]</t>
+          <t>[ 0.03115187  0.00415597 -0.00180032  0.99984058]</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>[ 0.03117635  0.00422123 -0.00200726  0.99984023]</t>
+          <t>[ 0.03117635  0.00422123 -0.00200726  0.99984024]</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>[ 0.03120001  0.0042843  -0.00220728  0.99983994]</t>
+          <t>[ 0.03120001  0.0042843  -0.00220728  0.99983995]</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>[ 0.03122288  0.00434526 -0.00240062  0.9998397 ]</t>
+          <t>[ 0.03122288  0.00434526 -0.00240062  0.99983971]</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>[ 0.03124498  0.00440418 -0.00258749  0.99983951]</t>
+          <t>[ 0.03124498  0.00440418 -0.00258748  0.99983951]</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>[ 0.03126635  0.00446113 -0.00276811  0.99983936]</t>
+          <t>[ 0.03126635  0.00446113 -0.0027681   0.99983936]</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>[ 0.031287    0.00451618 -0.00294269  0.99983925]</t>
+          <t>[ 0.031287    0.00451618 -0.00294268  0.99983925]</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>[ 0.03130696  0.00456938 -0.00311143  0.99983917]</t>
+          <t>[ 0.03130696  0.00456938 -0.00311142  0.99983917]</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
@@ -12680,7 +12705,7 @@
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>[ 0.03139718  0.00480988 -0.00387417  0.99983926]</t>
+          <t>[ 0.03139718  0.00480988 -0.00387417  0.99983927]</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
@@ -12695,7 +12720,7 @@
       </c>
       <c r="AT25" t="inlineStr">
         <is>
-          <t>[ 0.03144439  0.00493572 -0.0042733   0.99983962]</t>
+          <t>[ 0.03144439  0.00493572 -0.00427329  0.99983962]</t>
         </is>
       </c>
       <c r="AU25" t="inlineStr">
@@ -12715,12 +12740,12 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>[ 0.03150029  0.00508473 -0.0047459   0.99984035]</t>
+          <t>[ 0.03150029  0.00508473 -0.00474589  0.99984035]</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
         <is>
-          <t>[ 0.03151312  0.00511892 -0.00485434  0.99984057]</t>
+          <t>[ 0.03151312  0.00511892 -0.00485433  0.99984057]</t>
         </is>
       </c>
       <c r="AZ25" t="inlineStr">
@@ -12745,7 +12770,7 @@
       </c>
       <c r="BD25" t="inlineStr">
         <is>
-          <t>[ 0.0315711   0.00527347 -0.00534451  0.99984184]</t>
+          <t>[ 0.0315711   0.00527347 -0.00534451  0.99984185]</t>
         </is>
       </c>
       <c r="BE25" t="inlineStr">
@@ -12760,7 +12785,7 @@
       </c>
       <c r="BG25" t="inlineStr">
         <is>
-          <t>[ 0.03160144  0.00535434 -0.00560101  0.99984272]</t>
+          <t>[ 0.03160144  0.00535434 -0.005601    0.99984272]</t>
         </is>
       </c>
       <c r="BH25" t="inlineStr">
@@ -12770,7 +12795,7 @@
       </c>
       <c r="BI25" t="inlineStr">
         <is>
-          <t>[ 0.03162001  0.00540385 -0.00575803  0.99984333]</t>
+          <t>[ 0.03162001  0.00540385 -0.00575802  0.99984334]</t>
         </is>
       </c>
       <c r="BJ25" t="inlineStr">
@@ -12780,7 +12805,7 @@
       </c>
       <c r="BK25" t="inlineStr">
         <is>
-          <t>[ 0.03163736  0.0054501  -0.00590472  0.99984397]</t>
+          <t>[ 0.03163736  0.0054501  -0.00590472  0.99984398]</t>
         </is>
       </c>
       <c r="BL25" t="inlineStr">
@@ -12790,7 +12815,7 @@
       </c>
       <c r="BM25" t="inlineStr">
         <is>
-          <t>[ 0.03165358  0.00549331 -0.00604177  0.99984463]</t>
+          <t>[ 0.03165358  0.00549331 -0.00604177  0.99984464]</t>
         </is>
       </c>
       <c r="BN25" t="inlineStr">
@@ -12820,7 +12845,7 @@
       </c>
       <c r="BS25" t="inlineStr">
         <is>
-          <t>[ 0.03169609  0.00560662 -0.00640117  0.9998467 ]</t>
+          <t>[ 0.03169609  0.00560662 -0.00640116  0.9998467 ]</t>
         </is>
       </c>
       <c r="BT25" t="inlineStr">
@@ -12835,17 +12860,17 @@
       </c>
       <c r="BV25" t="inlineStr">
         <is>
-          <t>[ 0.03171431  0.00565517 -0.00655516  0.99984776]</t>
+          <t>[ 0.03171431  0.00565517 -0.00655516  0.99984777]</t>
         </is>
       </c>
       <c r="BW25" t="inlineStr">
         <is>
-          <t>[ 0.03171998  0.00567028 -0.0066031   0.99984812]</t>
+          <t>[ 0.03171998  0.00567028 -0.0066031   0.99984813]</t>
         </is>
       </c>
       <c r="BX25" t="inlineStr">
         <is>
-          <t>[ 0.03172546  0.00568489 -0.00664943  0.99984848]</t>
+          <t>[ 0.03172546  0.00568489 -0.00664943  0.99984849]</t>
         </is>
       </c>
       <c r="BY25" t="inlineStr">
@@ -12860,7 +12885,7 @@
       </c>
       <c r="CA25" t="inlineStr">
         <is>
-          <t>[ 0.03174082  0.00572584 -0.00677935  0.99984957]</t>
+          <t>[ 0.03174082  0.00572584 -0.00677935  0.99984958]</t>
         </is>
       </c>
       <c r="CB25" t="inlineStr">
@@ -12870,12 +12895,12 @@
       </c>
       <c r="CC25" t="inlineStr">
         <is>
-          <t>[ 0.03175023  0.00575092 -0.00685888  0.99985031]</t>
+          <t>[ 0.03175023  0.00575092 -0.00685887  0.99985031]</t>
         </is>
       </c>
       <c r="CD25" t="inlineStr">
         <is>
-          <t>[ 0.0317547   0.00576283 -0.00689666  0.99985067]</t>
+          <t>[ 0.0317547   0.00576283 -0.00689666  0.99985068]</t>
         </is>
       </c>
       <c r="CE25" t="inlineStr">
@@ -12900,7 +12925,7 @@
       </c>
       <c r="CI25" t="inlineStr">
         <is>
-          <t>[ 0.0317749   0.00581666 -0.00706744  0.99985252]</t>
+          <t>[ 0.0317749   0.00581666 -0.00706743  0.99985252]</t>
         </is>
       </c>
       <c r="CJ25" t="inlineStr">
@@ -12930,17 +12955,17 @@
       </c>
       <c r="CO25" t="inlineStr">
         <is>
-          <t>[ 0.03179502  0.00587027 -0.0072375   0.99985474]</t>
+          <t>[ 0.03179502  0.00587027 -0.00723749  0.99985474]</t>
         </is>
       </c>
       <c r="CP25" t="inlineStr">
         <is>
-          <t>[ 0.03179799  0.00587819 -0.00726262  0.99985511]</t>
+          <t>[ 0.03179799  0.00587819 -0.00726261  0.99985512]</t>
         </is>
       </c>
       <c r="CQ25" t="inlineStr">
         <is>
-          <t>[ 0.03180087  0.00588584 -0.00728689  0.99985548]</t>
+          <t>[ 0.03180087  0.00588584 -0.00728689  0.99985549]</t>
         </is>
       </c>
       <c r="CR25" t="inlineStr">
@@ -12980,7 +13005,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12999,307 +13024,307 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AK1" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AL1" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AM1" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AN1" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AO1" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AP1" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AQ1" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AR1" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AS1" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AT1" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AU1" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AV1" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AW1" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AX1" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AY1" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="AZ1" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BA1" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BB1" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BC1" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BD1" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BE1" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BF1" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BG1" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BH1" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BI1" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BJ1" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BK1" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BL1" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BM1" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="n">
+      <c r="BN1" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BO1" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="n">
+      <c r="BP1" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="n">
+      <c r="BQ1" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BR1" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BS1" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BT1" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="n">
+      <c r="BU1" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="n">
+      <c r="BV1" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="n">
+      <c r="BW1" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="n">
+      <c r="BX1" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="n">
+      <c r="BY1" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="n">
+      <c r="BZ1" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="CA1" s="1" t="n">
+      <c r="CA1" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="CB1" s="1" t="n">
+      <c r="CB1" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="CC1" s="1" t="n">
+      <c r="CC1" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="CD1" s="1" t="n">
+      <c r="CD1" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="CE1" s="1" t="n">
+      <c r="CE1" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="CF1" s="1" t="n">
+      <c r="CF1" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="CG1" s="1" t="n">
+      <c r="CG1" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="CH1" s="1" t="n">
+      <c r="CH1" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="CI1" s="1" t="n">
+      <c r="CI1" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="CJ1" s="1" t="n">
+      <c r="CJ1" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="CK1" s="1" t="n">
+      <c r="CK1" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="CL1" s="1" t="n">
+      <c r="CL1" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="CM1" s="1" t="n">
+      <c r="CM1" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="CN1" s="1" t="n">
+      <c r="CN1" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="CO1" s="1" t="n">
+      <c r="CO1" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="CP1" s="1" t="n">
+      <c r="CP1" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="CQ1" s="1" t="n">
+      <c r="CQ1" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="CR1" s="1" t="n">
+      <c r="CR1" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="CS1" s="1" t="n">
+      <c r="CS1" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="CT1" s="1" t="n">
+      <c r="CT1" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="CU1" s="1" t="n">
+      <c r="CU1" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="CV1" s="1" t="n">
+      <c r="CV1" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="CW1" s="1" t="n">
+      <c r="CW1" s="2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -13464,148 +13489,148 @@
         <v>3.217616424252687e-07</v>
       </c>
       <c r="BB2" t="n">
-        <v>3.207165900651944e-07</v>
+        <v>3.207165901323206e-07</v>
       </c>
       <c r="BC2" t="n">
-        <v>3.197403360490974e-07</v>
+        <v>3.197403360279121e-07</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.188283493259898e-07</v>
+        <v>3.188283491394151e-07</v>
       </c>
       <c r="BE2" t="n">
-        <v>3.179763976928389e-07</v>
+        <v>3.179763975546162e-07</v>
       </c>
       <c r="BF2" t="n">
-        <v>3.171805274764509e-07</v>
+        <v>3.171805274841256e-07</v>
       </c>
       <c r="BG2" t="n">
-        <v>3.164370462023017e-07</v>
+        <v>3.164370457166625e-07</v>
       </c>
       <c r="BH2" t="n">
-        <v>3.157425030412375e-07</v>
+        <v>3.157425027187715e-07</v>
       </c>
       <c r="BI2" t="n">
-        <v>3.150936757692138e-07</v>
+        <v>3.150936751789452e-07</v>
       </c>
       <c r="BJ2" t="n">
-        <v>3.144875534810642e-07</v>
+        <v>3.14487552963743e-07</v>
       </c>
       <c r="BK2" t="n">
-        <v>3.139213238307096e-07</v>
+        <v>3.139213235283477e-07</v>
       </c>
       <c r="BL2" t="n">
-        <v>3.133923602560809e-07</v>
+        <v>3.133923596248308e-07</v>
       </c>
       <c r="BM2" t="n">
-        <v>3.128982080645271e-07</v>
+        <v>3.128982076466745e-07</v>
       </c>
       <c r="BN2" t="n">
-        <v>3.124365749458329e-07</v>
+        <v>3.124365746779935e-07</v>
       </c>
       <c r="BO2" t="n">
-        <v>3.120053192971378e-07</v>
+        <v>3.12005319252133e-07</v>
       </c>
       <c r="BP2" t="n">
-        <v>3.116024409146583e-07</v>
+        <v>3.11602440838402e-07</v>
       </c>
       <c r="BQ2" t="n">
-        <v>3.112260708944126e-07</v>
+        <v>3.112260707398975e-07</v>
       </c>
       <c r="BR2" t="n">
-        <v>3.108744633862338e-07</v>
+        <v>3.10874463492572e-07</v>
       </c>
       <c r="BS2" t="n">
-        <v>3.105459880538911e-07</v>
+        <v>3.105459879651261e-07</v>
       </c>
       <c r="BT2" t="n">
-        <v>3.102391211886304e-07</v>
+        <v>3.102391210495454e-07</v>
       </c>
       <c r="BU2" t="n">
-        <v>3.099524398288379e-07</v>
+        <v>3.099524396375692e-07</v>
       </c>
       <c r="BV2" t="n">
-        <v>3.096846146696276e-07</v>
+        <v>3.096846144940644e-07</v>
       </c>
       <c r="BW2" t="n">
-        <v>3.094344040151867e-07</v>
+        <v>3.094344038406017e-07</v>
       </c>
       <c r="BX2" t="n">
-        <v>3.092006477473537e-07</v>
+        <v>3.092006475577712e-07</v>
       </c>
       <c r="BY2" t="n">
-        <v>3.089822623380653e-07</v>
+        <v>3.089822621240422e-07</v>
       </c>
       <c r="BZ2" t="n">
-        <v>3.087782354094177e-07</v>
+        <v>3.087782352596938e-07</v>
       </c>
       <c r="CA2" t="n">
-        <v>3.085876214830938e-07</v>
+        <v>3.085876214008589e-07</v>
       </c>
       <c r="CB2" t="n">
-        <v>3.084095372760695e-07</v>
+        <v>3.084095371274209e-07</v>
       </c>
       <c r="CC2" t="n">
-        <v>3.082431575170631e-07</v>
+        <v>3.082431573244055e-07</v>
       </c>
       <c r="CD2" t="n">
-        <v>3.080877113299839e-07</v>
+        <v>3.080877111809513e-07</v>
       </c>
       <c r="CE2" t="n">
-        <v>3.079424787678627e-07</v>
+        <v>3.079424786462185e-07</v>
       </c>
       <c r="CF2" t="n">
-        <v>3.078067871971977e-07</v>
+        <v>3.078067870822256e-07</v>
       </c>
       <c r="CG2" t="n">
-        <v>3.076800082176952e-07</v>
+        <v>3.076800080864395e-07</v>
       </c>
       <c r="CH2" t="n">
-        <v>3.075615548572325e-07</v>
+        <v>3.075615547438467e-07</v>
       </c>
       <c r="CI2" t="n">
-        <v>3.074508788333342e-07</v>
+        <v>3.074508787319148e-07</v>
       </c>
       <c r="CJ2" t="n">
-        <v>3.073474679230707e-07</v>
+        <v>3.073474678105557e-07</v>
       </c>
       <c r="CK2" t="n">
-        <v>3.072508436303024e-07</v>
+        <v>3.072508435153761e-07</v>
       </c>
       <c r="CL2" t="n">
-        <v>3.071605589984511e-07</v>
+        <v>3.07160558892953e-07</v>
       </c>
       <c r="CM2" t="n">
-        <v>3.070761964695382e-07</v>
+        <v>3.070761963751958e-07</v>
       </c>
       <c r="CN2" t="n">
-        <v>3.069973660820263e-07</v>
+        <v>3.069973659810136e-07</v>
       </c>
       <c r="CO2" t="n">
-        <v>3.069237034325193e-07</v>
+        <v>3.069237033673047e-07</v>
       </c>
       <c r="CP2" t="n">
-        <v>3.068548681838018e-07</v>
+        <v>3.068548680822285e-07</v>
       </c>
       <c r="CQ2" t="n">
-        <v>3.067905423201865e-07</v>
+        <v>3.067905422482355e-07</v>
       </c>
       <c r="CR2" t="n">
-        <v>3.067304289462075e-07</v>
+        <v>3.067304288636423e-07</v>
       </c>
       <c r="CS2" t="n">
-        <v>3.066742505227215e-07</v>
+        <v>3.06674250457664e-07</v>
       </c>
       <c r="CT2" t="n">
-        <v>3.066217479407675e-07</v>
+        <v>3.06621747877654e-07</v>
       </c>
       <c r="CU2" t="n">
-        <v>3.065726790382854e-07</v>
+        <v>3.065726789880114e-07</v>
       </c>
       <c r="CV2" t="n">
-        <v>3.065268176642798e-07</v>
+        <v>3.065268176266004e-07</v>
       </c>
       <c r="CW2" t="n">
-        <v>3.064839525753056e-07</v>
+        <v>3.06483952544508e-07</v>
       </c>
     </row>
     <row r="3">
@@ -13619,298 +13644,298 @@
         <v>2.396373417939771e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>9.597159390518323e-07</v>
+        <v>9.597159485602955e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>4.312490405861585e-07</v>
+        <v>4.312490440424206e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>2.338175503755905e-07</v>
+        <v>2.338175381804618e-07</v>
       </c>
       <c r="G3" t="n">
-        <v>1.577668091896123e-07</v>
+        <v>1.577667909807168e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>1.263766481370659e-07</v>
+        <v>1.263766406754644e-07</v>
       </c>
       <c r="I3" t="n">
-        <v>1.115613429576799e-07</v>
+        <v>1.115613405670249e-07</v>
       </c>
       <c r="J3" t="n">
-        <v>1.030297856561038e-07</v>
+        <v>1.03029783462212e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>9.700230117999983e-08</v>
+        <v>9.700230041968385e-08</v>
       </c>
       <c r="L3" t="n">
-        <v>9.208249116920538e-08</v>
+        <v>9.208249224415925e-08</v>
       </c>
       <c r="M3" t="n">
-        <v>8.774681679378398e-08</v>
+        <v>8.77468178788092e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>8.379192833901179e-08</v>
+        <v>8.379193010080547e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>8.013241009003387e-08</v>
+        <v>8.013241166866094e-08</v>
       </c>
       <c r="P3" t="n">
-        <v>7.672672194130446e-08</v>
+        <v>7.672672379284286e-08</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.3550059156901e-08</v>
+        <v>7.355006102335248e-08</v>
       </c>
       <c r="R3" t="n">
-        <v>7.058437373103656e-08</v>
+        <v>7.058437582648545e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>6.781468263938969e-08</v>
+        <v>6.781468427248197e-08</v>
       </c>
       <c r="T3" t="n">
-        <v>6.522767547178997e-08</v>
+        <v>6.522767726711785e-08</v>
       </c>
       <c r="U3" t="n">
-        <v>6.281117240373588e-08</v>
+        <v>6.281117429062695e-08</v>
       </c>
       <c r="V3" t="n">
-        <v>6.055388703809533e-08</v>
+        <v>6.055388878712416e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>5.844531090428286e-08</v>
+        <v>5.844531311044344e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>5.647564087103776e-08</v>
+        <v>5.647564262896459e-08</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.463572293709624e-08</v>
+        <v>5.463572441260987e-08</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.291700872795731e-08</v>
+        <v>5.291701015231607e-08</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.131151365730096e-08</v>
+        <v>5.131151515670687e-08</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.981177957049568e-08</v>
+        <v>4.981178086306993e-08</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.841083930583567e-08</v>
+        <v>4.84108403940669e-08</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.710218487891445e-08</v>
+        <v>4.710218585884929e-08</v>
       </c>
       <c r="AE3" t="n">
-        <v>4.58797371868934e-08</v>
+        <v>4.587973803512416e-08</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.47378174845272e-08</v>
+        <v>4.473781826535076e-08</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.36711211718029e-08</v>
+        <v>4.367112192205739e-08</v>
       </c>
       <c r="AH3" t="n">
-        <v>4.267469286895864e-08</v>
+        <v>4.267469361029018e-08</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.174390409745739e-08</v>
+        <v>4.174390465777547e-08</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.0874430806144e-08</v>
+        <v>4.087443135167467e-08</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.006223410452147e-08</v>
+        <v>4.006223452139052e-08</v>
       </c>
       <c r="AL3" t="n">
-        <v>3.930354087628797e-08</v>
+        <v>3.930354133172549e-08</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.859482672531832e-08</v>
+        <v>3.859482725717657e-08</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.793279954194029e-08</v>
+        <v>3.793279998399479e-08</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.731438383752266e-08</v>
+        <v>3.731438439202157e-08</v>
       </c>
       <c r="AP3" t="n">
-        <v>3.673670689982183e-08</v>
+        <v>3.673670752101486e-08</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.619708517564442e-08</v>
+        <v>3.619708574988308e-08</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.569301189979648e-08</v>
+        <v>3.569301234570758e-08</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.522214528703835e-08</v>
+        <v>3.522214563143711e-08</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.478229807374362e-08</v>
+        <v>3.478229838453738e-08</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.437142671592149e-08</v>
+        <v>3.437142708574281e-08</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.398762267035404e-08</v>
+        <v>3.398762301626672e-08</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.362910291198661e-08</v>
+        <v>3.362910316884056e-08</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.329420190186035e-08</v>
+        <v>3.329420211942695e-08</v>
       </c>
       <c r="AY3" t="n">
-        <v>3.298136372171634e-08</v>
+        <v>3.298136395327917e-08</v>
       </c>
       <c r="AZ3" t="n">
-        <v>3.2689135089063e-08</v>
+        <v>3.268913532545879e-08</v>
       </c>
       <c r="BA3" t="n">
-        <v>3.24161583719806e-08</v>
+        <v>3.241615859990273e-08</v>
       </c>
       <c r="BB3" t="n">
-        <v>3.216116540745782e-08</v>
+        <v>3.216116556439331e-08</v>
       </c>
       <c r="BC3" t="n">
-        <v>3.192297148199662e-08</v>
+        <v>3.192297160911172e-08</v>
       </c>
       <c r="BD3" t="n">
-        <v>3.170046999693008e-08</v>
+        <v>3.170047009866595e-08</v>
       </c>
       <c r="BE3" t="n">
-        <v>3.149262725844033e-08</v>
+        <v>3.149262731592339e-08</v>
       </c>
       <c r="BF3" t="n">
-        <v>3.129847759087653e-08</v>
+        <v>3.129847762494067e-08</v>
       </c>
       <c r="BG3" t="n">
-        <v>3.111711896368117e-08</v>
+        <v>3.111711899907875e-08</v>
       </c>
       <c r="BH3" t="n">
-        <v>3.094770879213934e-08</v>
+        <v>3.094770878937486e-08</v>
       </c>
       <c r="BI3" t="n">
-        <v>3.078945994071935e-08</v>
+        <v>3.078945994146126e-08</v>
       </c>
       <c r="BJ3" t="n">
-        <v>3.064163714488922e-08</v>
+        <v>3.06416371588389e-08</v>
       </c>
       <c r="BK3" t="n">
-        <v>3.050355361397735e-08</v>
+        <v>3.050355364731603e-08</v>
       </c>
       <c r="BL3" t="n">
-        <v>3.037456776980831e-08</v>
+        <v>3.037456778518605e-08</v>
       </c>
       <c r="BM3" t="n">
-        <v>3.025408024676483e-08</v>
+        <v>3.025408025971304e-08</v>
       </c>
       <c r="BN3" t="n">
-        <v>3.014153121415431e-08</v>
+        <v>3.01415312366131e-08</v>
       </c>
       <c r="BO3" t="n">
-        <v>3.003639768343311e-08</v>
+        <v>3.003639771577363e-08</v>
       </c>
       <c r="BP3" t="n">
-        <v>2.99381911630893e-08</v>
+        <v>2.993819119234586e-08</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2.984645530646648e-08</v>
+        <v>2.984645533012538e-08</v>
       </c>
       <c r="BR3" t="n">
-        <v>2.976076382605762e-08</v>
+        <v>2.976076384949481e-08</v>
       </c>
       <c r="BS3" t="n">
-        <v>2.968071852052436e-08</v>
+        <v>2.968071853469835e-08</v>
       </c>
       <c r="BT3" t="n">
-        <v>2.960594741247975e-08</v>
+        <v>2.960594742790817e-08</v>
       </c>
       <c r="BU3" t="n">
-        <v>2.95361030419508e-08</v>
+        <v>2.953610305393766e-08</v>
       </c>
       <c r="BV3" t="n">
-        <v>2.947086082482462e-08</v>
+        <v>2.947086083901968e-08</v>
       </c>
       <c r="BW3" t="n">
-        <v>2.94099175694445e-08</v>
+        <v>2.940991758963639e-08</v>
       </c>
       <c r="BX3" t="n">
-        <v>2.935299004454593e-08</v>
+        <v>2.935299005981918e-08</v>
       </c>
       <c r="BY3" t="n">
-        <v>2.92998136830002e-08</v>
+        <v>2.929981369182662e-08</v>
       </c>
       <c r="BZ3" t="n">
-        <v>2.925014134403638e-08</v>
+        <v>2.92501413447859e-08</v>
       </c>
       <c r="CA3" t="n">
-        <v>2.92037421562878e-08</v>
+        <v>2.920374216313037e-08</v>
       </c>
       <c r="CB3" t="n">
-        <v>2.91604004698647e-08</v>
+        <v>2.916040047762808e-08</v>
       </c>
       <c r="CC3" t="n">
-        <v>2.911991483940718e-08</v>
+        <v>2.911991484549644e-08</v>
       </c>
       <c r="CD3" t="n">
-        <v>2.908209708606012e-08</v>
+        <v>2.908209709213438e-08</v>
       </c>
       <c r="CE3" t="n">
-        <v>2.904677142816414e-08</v>
+        <v>2.904677143431663e-08</v>
       </c>
       <c r="CF3" t="n">
-        <v>2.901377366992135e-08</v>
+        <v>2.901377368100751e-08</v>
       </c>
       <c r="CG3" t="n">
-        <v>2.898295042035621e-08</v>
+        <v>2.898295042907523e-08</v>
       </c>
       <c r="CH3" t="n">
-        <v>2.895415839836348e-08</v>
+        <v>2.895415840614359e-08</v>
       </c>
       <c r="CI3" t="n">
-        <v>2.892726376785467e-08</v>
+        <v>2.892726377463322e-08</v>
       </c>
       <c r="CJ3" t="n">
-        <v>2.89021414951905e-08</v>
+        <v>2.890214150261836e-08</v>
       </c>
       <c r="CK3" t="n">
-        <v>2.887867479999375e-08</v>
+        <v>2.887867480453135e-08</v>
       </c>
       <c r="CL3" t="n">
-        <v>2.885675458375884e-08</v>
+        <v>2.885675458626188e-08</v>
       </c>
       <c r="CM3" t="n">
-        <v>2.883627893931969e-08</v>
+        <v>2.883627894105675e-08</v>
       </c>
       <c r="CN3" t="n">
-        <v>2.881715267058147e-08</v>
+        <v>2.881715267373729e-08</v>
       </c>
       <c r="CO3" t="n">
-        <v>2.879928685878741e-08</v>
+        <v>2.87992868619178e-08</v>
       </c>
       <c r="CP3" t="n">
-        <v>2.878259843872512e-08</v>
+        <v>2.878259844121416e-08</v>
       </c>
       <c r="CQ3" t="n">
-        <v>2.876700981868943e-08</v>
+        <v>2.876700982166992e-08</v>
       </c>
       <c r="CR3" t="n">
-        <v>2.875244851810763e-08</v>
+        <v>2.875244852228457e-08</v>
       </c>
       <c r="CS3" t="n">
-        <v>2.873884683115778e-08</v>
+        <v>2.873884683639643e-08</v>
       </c>
       <c r="CT3" t="n">
-        <v>2.872614151528104e-08</v>
+        <v>2.872614152012808e-08</v>
       </c>
       <c r="CU3" t="n">
-        <v>2.871427349178355e-08</v>
+        <v>2.87142734962003e-08</v>
       </c>
       <c r="CV3" t="n">
-        <v>2.870318757557351e-08</v>
+        <v>2.870318757897526e-08</v>
       </c>
       <c r="CW3" t="n">
-        <v>2.869283221570597e-08</v>
+        <v>2.869283221959436e-08</v>
       </c>
     </row>
     <row r="4">
@@ -13921,301 +13946,301 @@
         <v>1.668545510054666e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>7.794266563169109e-06</v>
+        <v>7.794266555135693e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>4.986816003648646e-06</v>
+        <v>4.986812962894536e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>3.820258730104405e-06</v>
+        <v>3.820257884352284e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>3.262297212094151e-06</v>
+        <v>3.262295915686223e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>2.935634532448314e-06</v>
+        <v>2.935633847530573e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>2.70166711106254e-06</v>
+        <v>2.701666575983716e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>2.509153164454979e-06</v>
+        <v>2.509152701853655e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>2.338848531304736e-06</v>
+        <v>2.338848008171664e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>2.18324820575561e-06</v>
+        <v>2.183247548013036e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>2.039172872262385e-06</v>
+        <v>2.039172181384955e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>1.905054471382168e-06</v>
+        <v>1.905053721592937e-06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.779940922940323e-06</v>
+        <v>1.779940027007423e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>1.663130410167824e-06</v>
+        <v>1.663129682227187e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>1.55403609221038e-06</v>
+        <v>1.554035574347339e-06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.452135331222425e-06</v>
+        <v>1.452134870059341e-06</v>
       </c>
       <c r="R4" t="n">
-        <v>1.356948815201244e-06</v>
+        <v>1.356948276189814e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>1.2680320640481e-06</v>
+        <v>1.268031533648477e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>1.184971390289778e-06</v>
+        <v>1.184970857637286e-06</v>
       </c>
       <c r="U4" t="n">
-        <v>1.107380728419013e-06</v>
+        <v>1.107380220247767e-06</v>
       </c>
       <c r="V4" t="n">
-        <v>1.034899644070518e-06</v>
+        <v>1.034899095998276e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>9.671915064436694e-07</v>
+        <v>9.67190901500023e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>9.039418062070795e-07</v>
+        <v>9.039412501599131e-07</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.448569782363892e-07</v>
+        <v>8.448564800593245e-07</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.896626890049727e-07</v>
+        <v>7.896621690533153e-07</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.381026542983541e-07</v>
+        <v>7.381021458884511e-07</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.899375784052844e-07</v>
+        <v>6.899370658157645e-07</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.449437609527987e-07</v>
+        <v>6.449432950538677e-07</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.029124256082436e-07</v>
+        <v>6.029119912731426e-07</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.636484991136326e-07</v>
+        <v>5.636480736056247e-07</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.269696833535728e-07</v>
+        <v>5.269692827040677e-07</v>
       </c>
       <c r="AG4" t="n">
-        <v>4.927057746506253e-07</v>
+        <v>4.927053961650256e-07</v>
       </c>
       <c r="AH4" t="n">
-        <v>4.606977326521204e-07</v>
+        <v>4.606973642393773e-07</v>
       </c>
       <c r="AI4" t="n">
-        <v>4.307970275158228e-07</v>
+        <v>4.30796682722259e-07</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4.028648770897483e-07</v>
+        <v>4.028645519257286e-07</v>
       </c>
       <c r="AK4" t="n">
-        <v>3.767716606285742e-07</v>
+        <v>3.767713528717327e-07</v>
       </c>
       <c r="AL4" t="n">
-        <v>3.52396289480455e-07</v>
+        <v>3.52396011084101e-07</v>
       </c>
       <c r="AM4" t="n">
-        <v>3.296256765346984e-07</v>
+        <v>3.296254018894762e-07</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.083541386191779e-07</v>
+        <v>3.083538904406624e-07</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.884829758186722e-07</v>
+        <v>2.884827505228278e-07</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.699199894705826e-07</v>
+        <v>2.699197753305426e-07</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.525790514337997e-07</v>
+        <v>2.525788487713136e-07</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.363796946906462e-07</v>
+        <v>2.363795150091425e-07</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.212467747897414e-07</v>
+        <v>2.212466093772237e-07</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.071100651514662e-07</v>
+        <v>2.071099142422272e-07</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.939039887114453e-07</v>
+        <v>1.939038465714042e-07</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.81567268735283e-07</v>
+        <v>1.815671361078711e-07</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.700426739339895e-07</v>
+        <v>1.70042551495801e-07</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.592767389775151e-07</v>
+        <v>1.592766271393229e-07</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.492195175129239e-07</v>
+        <v>1.492194142618304e-07</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.398243512928939e-07</v>
+        <v>1.398242545488902e-07</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.310476614033356e-07</v>
+        <v>1.310475673231079e-07</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.228487253973077e-07</v>
+        <v>1.228486392680306e-07</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.15189513328341e-07</v>
+        <v>1.151894320970398e-07</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.080344904549416e-07</v>
+        <v>1.080344158515767e-07</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.013504649602055e-07</v>
+        <v>1.013503983661063e-07</v>
       </c>
       <c r="BF4" t="n">
-        <v>9.510643586517377e-08</v>
+        <v>9.5106373075426e-08</v>
       </c>
       <c r="BG4" t="n">
-        <v>8.927343382195996e-08</v>
+        <v>8.927337815550276e-08</v>
       </c>
       <c r="BH4" t="n">
-        <v>8.382440436863024e-08</v>
+        <v>8.382435213079461e-08</v>
       </c>
       <c r="BI4" t="n">
-        <v>7.87340686918288e-08</v>
+        <v>7.873402037835277e-08</v>
       </c>
       <c r="BJ4" t="n">
-        <v>7.397881480702855e-08</v>
+        <v>7.397876988554465e-08</v>
       </c>
       <c r="BK4" t="n">
-        <v>6.953658435789925e-08</v>
+        <v>6.953654198443371e-08</v>
       </c>
       <c r="BL4" t="n">
-        <v>6.538677297518381e-08</v>
+        <v>6.538673359321404e-08</v>
       </c>
       <c r="BM4" t="n">
-        <v>6.151013004270609e-08</v>
+        <v>6.15100933945517e-08</v>
       </c>
       <c r="BN4" t="n">
-        <v>5.788867278107207e-08</v>
+        <v>5.788863818356665e-08</v>
       </c>
       <c r="BO4" t="n">
-        <v>5.450560482016021e-08</v>
+        <v>5.45055717565108e-08</v>
       </c>
       <c r="BP4" t="n">
-        <v>5.134523281711215e-08</v>
+        <v>5.1345201204704e-08</v>
       </c>
       <c r="BQ4" t="n">
-        <v>4.839289732884729e-08</v>
+        <v>4.839286722703814e-08</v>
       </c>
       <c r="BR4" t="n">
-        <v>4.563490249449396e-08</v>
+        <v>4.563487490353135e-08</v>
       </c>
       <c r="BS4" t="n">
-        <v>4.305845742075366e-08</v>
+        <v>4.305843141981306e-08</v>
       </c>
       <c r="BT4" t="n">
-        <v>4.065161043732943e-08</v>
+        <v>4.065158655923947e-08</v>
       </c>
       <c r="BU4" t="n">
-        <v>3.840319804392109e-08</v>
+        <v>3.840317568577085e-08</v>
       </c>
       <c r="BV4" t="n">
-        <v>3.630279061797426e-08</v>
+        <v>3.630276959647471e-08</v>
       </c>
       <c r="BW4" t="n">
-        <v>3.434064545414557e-08</v>
+        <v>3.434062563614277e-08</v>
       </c>
       <c r="BX4" t="n">
-        <v>3.250766155196825e-08</v>
+        <v>3.250764316457847e-08</v>
       </c>
       <c r="BY4" t="n">
-        <v>3.0795336734672e-08</v>
+        <v>3.079531950738472e-08</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2.919572858521969e-08</v>
+        <v>2.919571243550283e-08</v>
       </c>
       <c r="CA4" t="n">
-        <v>2.770141722513203e-08</v>
+        <v>2.77014021446572e-08</v>
       </c>
       <c r="CB4" t="n">
-        <v>2.630547129074069e-08</v>
+        <v>2.630545727377143e-08</v>
       </c>
       <c r="CC4" t="n">
-        <v>2.500141608683856e-08</v>
+        <v>2.500140303674494e-08</v>
       </c>
       <c r="CD4" t="n">
-        <v>2.378320284671438e-08</v>
+        <v>2.378319078485513e-08</v>
       </c>
       <c r="CE4" t="n">
-        <v>2.264518084436746e-08</v>
+        <v>2.264516954318145e-08</v>
       </c>
       <c r="CF4" t="n">
-        <v>2.158207146889705e-08</v>
+        <v>2.158206105657723e-08</v>
       </c>
       <c r="CG4" t="n">
-        <v>2.058894351257512e-08</v>
+        <v>2.058893389247073e-08</v>
       </c>
       <c r="CH4" t="n">
-        <v>1.966119055115913e-08</v>
+        <v>1.966118149765822e-08</v>
       </c>
       <c r="CI4" t="n">
-        <v>1.879450897723671e-08</v>
+        <v>1.87945006190463e-08</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1.798487890723419e-08</v>
+        <v>1.798487117017894e-08</v>
       </c>
       <c r="CK4" t="n">
-        <v>1.722854469618366e-08</v>
+        <v>1.722853763915582e-08</v>
       </c>
       <c r="CL4" t="n">
-        <v>1.652199826093988e-08</v>
+        <v>1.652199174693547e-08</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.58619622152851e-08</v>
+        <v>1.586195618048599e-08</v>
       </c>
       <c r="CN4" t="n">
-        <v>1.524537496722311e-08</v>
+        <v>1.524536937307222e-08</v>
       </c>
       <c r="CO4" t="n">
-        <v>1.466937649187206e-08</v>
+        <v>1.466937121491816e-08</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.413129484386872e-08</v>
+        <v>1.413129003391936e-08</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1.362863428690317e-08</v>
+        <v>1.36286297489165e-08</v>
       </c>
       <c r="CR4" t="n">
-        <v>1.315906301562895e-08</v>
+        <v>1.315905879898967e-08</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.272040294369625e-08</v>
+        <v>1.272039898400135e-08</v>
       </c>
       <c r="CT4" t="n">
-        <v>1.231061923373091e-08</v>
+        <v>1.231061555576937e-08</v>
       </c>
       <c r="CU4" t="n">
-        <v>1.192781107500225e-08</v>
+        <v>1.192780764154001e-08</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.157020271016942e-08</v>
+        <v>1.157019951294267e-08</v>
       </c>
       <c r="CW4" t="n">
-        <v>1.123613534604751e-08</v>
+        <v>1.123613232076586e-08</v>
       </c>
     </row>
     <row r="5">
@@ -14229,298 +14254,298 @@
         <v>3.756596046185716e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>2.305594795629254e-06</v>
+        <v>2.305594795629258e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>1.721238574796111e-06</v>
+        <v>1.721238600863122e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>1.456990769328961e-06</v>
+        <v>1.456990922509951e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>1.313186055822627e-06</v>
+        <v>1.313186173751182e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>1.216551891086848e-06</v>
+        <v>1.216551947297077e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>1.140074705595517e-06</v>
+        <v>1.140074768079168e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>1.073679956911259e-06</v>
+        <v>1.0736799490162e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>1.013502977744038e-06</v>
+        <v>1.013502982464351e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>9.579632841879505e-07</v>
+        <v>9.579633409321822e-07</v>
       </c>
       <c r="M5" t="n">
-        <v>9.063271228496734e-07</v>
+        <v>9.063271284244963e-07</v>
       </c>
       <c r="N5" t="n">
-        <v>8.581805474405308e-07</v>
+        <v>8.581805434025494e-07</v>
       </c>
       <c r="O5" t="n">
-        <v>8.132364842042177e-07</v>
+        <v>8.132364943270096e-07</v>
       </c>
       <c r="P5" t="n">
-        <v>7.712630259772806e-07</v>
+        <v>7.712630587764921e-07</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.320569453913314e-07</v>
+        <v>7.320570073050044e-07</v>
       </c>
       <c r="R5" t="n">
-        <v>6.954332136449466e-07</v>
+        <v>6.954332795319137e-07</v>
       </c>
       <c r="S5" t="n">
-        <v>6.612207887300983e-07</v>
+        <v>6.612208502851113e-07</v>
       </c>
       <c r="T5" t="n">
-        <v>6.29260547448208e-07</v>
+        <v>6.292605931642682e-07</v>
       </c>
       <c r="U5" t="n">
-        <v>5.994040696813755e-07</v>
+        <v>5.994041420020192e-07</v>
       </c>
       <c r="V5" t="n">
-        <v>5.715127998039642e-07</v>
+        <v>5.715128646917252e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>5.454574123730024e-07</v>
+        <v>5.454574809775693e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>5.211169616989089e-07</v>
+        <v>5.211170428318965e-07</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.983785825810021e-07</v>
+        <v>4.983786580835126e-07</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.771368096554107e-07</v>
+        <v>4.771368837996659e-07</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.572931332798409e-07</v>
+        <v>4.572932100094396e-07</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.387555272844118e-07</v>
+        <v>4.387555968955553e-07</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.214380113516958e-07</v>
+        <v>4.214380844148096e-07</v>
       </c>
       <c r="AD5" t="n">
-        <v>4.052602843535782e-07</v>
+        <v>4.052603545599369e-07</v>
       </c>
       <c r="AE5" t="n">
-        <v>3.901473091140878e-07</v>
+        <v>3.901473665079178e-07</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.760290129904394e-07</v>
+        <v>3.760290607507311e-07</v>
       </c>
       <c r="AG5" t="n">
-        <v>3.628399214420732e-07</v>
+        <v>3.628399535821451e-07</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.505188756043997e-07</v>
+        <v>3.505188938576175e-07</v>
       </c>
       <c r="AI5" t="n">
-        <v>3.39008725189819e-07</v>
+        <v>3.390087378916948e-07</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3.282561151693054e-07</v>
+        <v>3.282561306141997e-07</v>
       </c>
       <c r="AK5" t="n">
-        <v>3.18211179584234e-07</v>
+        <v>3.182111916655198e-07</v>
       </c>
       <c r="AL5" t="n">
-        <v>3.088273373679524e-07</v>
+        <v>3.088273556964965e-07</v>
       </c>
       <c r="AM5" t="n">
-        <v>3.000610861636198e-07</v>
+        <v>3.000611051757956e-07</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.918717662165991e-07</v>
+        <v>2.91871792152735e-07</v>
       </c>
       <c r="AO5" t="n">
-        <v>2.842214201714513e-07</v>
+        <v>2.842214374299096e-07</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.770745646585569e-07</v>
+        <v>2.770745784376268e-07</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.703980630033634e-07</v>
+        <v>2.703980774823594e-07</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.64160965287761e-07</v>
+        <v>2.641609775543886e-07</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.583343428405506e-07</v>
+        <v>2.583343558985691e-07</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.528911811325356e-07</v>
+        <v>2.528911960867506e-07</v>
       </c>
       <c r="AU5" t="n">
-        <v>2.4780625129549e-07</v>
+        <v>2.47806264542545e-07</v>
       </c>
       <c r="AV5" t="n">
-        <v>2.430559738455468e-07</v>
+        <v>2.430559840429716e-07</v>
       </c>
       <c r="AW5" t="n">
-        <v>2.386183203052412e-07</v>
+        <v>2.386183291209794e-07</v>
       </c>
       <c r="AX5" t="n">
-        <v>2.344727169739291e-07</v>
+        <v>2.344727240777869e-07</v>
       </c>
       <c r="AY5" t="n">
-        <v>2.305999442608155e-07</v>
+        <v>2.30599950977235e-07</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2.269820456633793e-07</v>
+        <v>2.269820541860246e-07</v>
       </c>
       <c r="BA5" t="n">
-        <v>2.236022484398143e-07</v>
+        <v>2.236022566699537e-07</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.204448830409262e-07</v>
+        <v>2.204448893021214e-07</v>
       </c>
       <c r="BC5" t="n">
-        <v>2.174953096432e-07</v>
+        <v>2.174953153191441e-07</v>
       </c>
       <c r="BD5" t="n">
-        <v>2.147398525351399e-07</v>
+        <v>2.147398578923598e-07</v>
       </c>
       <c r="BE5" t="n">
-        <v>2.121657372075805e-07</v>
+        <v>2.121657418036572e-07</v>
       </c>
       <c r="BF5" t="n">
-        <v>2.097610295669319e-07</v>
+        <v>2.097610345451757e-07</v>
       </c>
       <c r="BG5" t="n">
-        <v>2.075145804015047e-07</v>
+        <v>2.075145852767686e-07</v>
       </c>
       <c r="BH5" t="n">
-        <v>2.054159741969196e-07</v>
+        <v>2.054159791738956e-07</v>
       </c>
       <c r="BI5" t="n">
-        <v>2.034554823965848e-07</v>
+        <v>2.034554870819903e-07</v>
       </c>
       <c r="BJ5" t="n">
-        <v>2.016240153398734e-07</v>
+        <v>2.016240190337783e-07</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.999130809033642e-07</v>
+        <v>1.999130839476255e-07</v>
       </c>
       <c r="BL5" t="n">
-        <v>1.983147468360531e-07</v>
+        <v>1.983147497176121e-07</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.968216031412135e-07</v>
+        <v>1.968216050726393e-07</v>
       </c>
       <c r="BN5" t="n">
-        <v>1.954267263306365e-07</v>
+        <v>1.954267286533059e-07</v>
       </c>
       <c r="BO5" t="n">
-        <v>1.941236500525517e-07</v>
+        <v>1.941236525782249e-07</v>
       </c>
       <c r="BP5" t="n">
-        <v>1.929063326835721e-07</v>
+        <v>1.929063352678931e-07</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1.917691310216987e-07</v>
+        <v>1.917691334581491e-07</v>
       </c>
       <c r="BR5" t="n">
-        <v>1.907067726044612e-07</v>
+        <v>1.907067741637077e-07</v>
       </c>
       <c r="BS5" t="n">
-        <v>1.897143308917831e-07</v>
+        <v>1.897143317786029e-07</v>
       </c>
       <c r="BT5" t="n">
-        <v>1.88787205096737e-07</v>
+        <v>1.887872058848143e-07</v>
       </c>
       <c r="BU5" t="n">
-        <v>1.879210962045577e-07</v>
+        <v>1.879210975013288e-07</v>
       </c>
       <c r="BV5" t="n">
-        <v>1.87111989316116e-07</v>
+        <v>1.871119906187542e-07</v>
       </c>
       <c r="BW5" t="n">
-        <v>1.863561329128902e-07</v>
+        <v>1.863561343572929e-07</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.856500228021912e-07</v>
+        <v>1.856500243171788e-07</v>
       </c>
       <c r="BY5" t="n">
-        <v>1.849903850556484e-07</v>
+        <v>1.849903857674889e-07</v>
       </c>
       <c r="BZ5" t="n">
-        <v>1.843741604908408e-07</v>
+        <v>1.843741614333714e-07</v>
       </c>
       <c r="CA5" t="n">
-        <v>1.837984927714822e-07</v>
+        <v>1.837984937519579e-07</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.83260712715245e-07</v>
+        <v>1.83260713620473e-07</v>
       </c>
       <c r="CC5" t="n">
-        <v>1.827583269643016e-07</v>
+        <v>1.827583278689837e-07</v>
       </c>
       <c r="CD5" t="n">
-        <v>1.82289005699539e-07</v>
+        <v>1.822890065160955e-07</v>
       </c>
       <c r="CE5" t="n">
-        <v>1.818505733120825e-07</v>
+        <v>1.818505737805396e-07</v>
       </c>
       <c r="CF5" t="n">
-        <v>1.814409965343994e-07</v>
+        <v>1.814409969758696e-07</v>
       </c>
       <c r="CG5" t="n">
-        <v>1.810583765920751e-07</v>
+        <v>1.810583770819217e-07</v>
       </c>
       <c r="CH5" t="n">
-        <v>1.807009394383278e-07</v>
+        <v>1.807009399040799e-07</v>
       </c>
       <c r="CI5" t="n">
-        <v>1.803670276711615e-07</v>
+        <v>1.803670279781128e-07</v>
       </c>
       <c r="CJ5" t="n">
-        <v>1.800550930369352e-07</v>
+        <v>1.800550932296634e-07</v>
       </c>
       <c r="CK5" t="n">
-        <v>1.797636891045991e-07</v>
+        <v>1.797636891984456e-07</v>
       </c>
       <c r="CL5" t="n">
-        <v>1.794914644600749e-07</v>
+        <v>1.794914647593619e-07</v>
       </c>
       <c r="CM5" t="n">
-        <v>1.792371571063147e-07</v>
+        <v>1.792371573902888e-07</v>
       </c>
       <c r="CN5" t="n">
-        <v>1.789995878681982e-07</v>
+        <v>1.789995882264582e-07</v>
       </c>
       <c r="CO5" t="n">
-        <v>1.787776550904495e-07</v>
+        <v>1.787776554712384e-07</v>
       </c>
       <c r="CP5" t="n">
-        <v>1.785703296142301e-07</v>
+        <v>1.785703299988741e-07</v>
       </c>
       <c r="CQ5" t="n">
-        <v>1.783766501114657e-07</v>
+        <v>1.783766504535412e-07</v>
       </c>
       <c r="CR5" t="n">
-        <v>1.781957184028342e-07</v>
+        <v>1.781957187258963e-07</v>
       </c>
       <c r="CS5" t="n">
-        <v>1.780266955896162e-07</v>
+        <v>1.780266958651491e-07</v>
       </c>
       <c r="CT5" t="n">
-        <v>1.778687977325436e-07</v>
+        <v>1.778687979457588e-07</v>
       </c>
       <c r="CU5" t="n">
-        <v>1.777212926980416e-07</v>
+        <v>1.777212929013123e-07</v>
       </c>
       <c r="CV5" t="n">
-        <v>1.77583496473494e-07</v>
+        <v>1.775834966943571e-07</v>
       </c>
       <c r="CW5" t="n">
-        <v>1.774547700390689e-07</v>
+        <v>1.774547702664295e-07</v>
       </c>
     </row>
     <row r="6">
@@ -15067,70 +15092,70 @@
         <v>9.85246057240314e-07</v>
       </c>
       <c r="CB7" t="n">
-        <v>9.841887771277507e-07</v>
+        <v>9.841887771268581e-07</v>
       </c>
       <c r="CC7" t="n">
-        <v>9.83200813740972e-07</v>
+        <v>9.832008136769697e-07</v>
       </c>
       <c r="CD7" t="n">
-        <v>9.822776067645029e-07</v>
+        <v>9.822776076909107e-07</v>
       </c>
       <c r="CE7" t="n">
-        <v>9.814148959539028e-07</v>
+        <v>9.814148971790824e-07</v>
       </c>
       <c r="CF7" t="n">
-        <v>9.806087002296382e-07</v>
+        <v>9.806087020581513e-07</v>
       </c>
       <c r="CG7" t="n">
-        <v>9.798553047188686e-07</v>
+        <v>9.798553051952581e-07</v>
       </c>
       <c r="CH7" t="n">
-        <v>9.791512317327931e-07</v>
+        <v>9.791512333300336e-07</v>
       </c>
       <c r="CI7" t="n">
-        <v>9.784932386662976e-07</v>
+        <v>9.784932405849875e-07</v>
       </c>
       <c r="CJ7" t="n">
-        <v>9.778782939083595e-07</v>
+        <v>9.778782955572237e-07</v>
       </c>
       <c r="CK7" t="n">
-        <v>9.773035657296647e-07</v>
+        <v>9.773035672938949e-07</v>
       </c>
       <c r="CL7" t="n">
-        <v>9.767664079201003e-07</v>
+        <v>9.767664087552442e-07</v>
       </c>
       <c r="CM7" t="n">
-        <v>9.762643474940835e-07</v>
+        <v>9.762643492576365e-07</v>
       </c>
       <c r="CN7" t="n">
-        <v>9.757950784630333e-07</v>
+        <v>9.757950794442291e-07</v>
       </c>
       <c r="CO7" t="n">
-        <v>9.753564408970879e-07</v>
+        <v>9.753564423649094e-07</v>
       </c>
       <c r="CP7" t="n">
-        <v>9.749464203236157e-07</v>
+        <v>9.749464218133432e-07</v>
       </c>
       <c r="CQ7" t="n">
-        <v>9.745631339933417e-07</v>
+        <v>9.74563135764285e-07</v>
       </c>
       <c r="CR7" t="n">
-        <v>9.742048230287442e-07</v>
+        <v>9.742048253996532e-07</v>
       </c>
       <c r="CS7" t="n">
-        <v>9.738698446798744e-07</v>
+        <v>9.738698472838372e-07</v>
       </c>
       <c r="CT7" t="n">
-        <v>9.735566639039397e-07</v>
+        <v>9.735566663624607e-07</v>
       </c>
       <c r="CU7" t="n">
-        <v>9.732638466024437e-07</v>
+        <v>9.732638492938871e-07</v>
       </c>
       <c r="CV7" t="n">
-        <v>9.729900526541053e-07</v>
+        <v>9.729900549204035e-07</v>
       </c>
       <c r="CW7" t="n">
-        <v>9.727340306706464e-07</v>
+        <v>9.727340325896906e-07</v>
       </c>
     </row>
     <row r="8">
@@ -15144,298 +15169,298 @@
         <v>1.123538911587005e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>7.34687562303435e-07</v>
+        <v>7.346875629090735e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>5.81034018000885e-07</v>
+        <v>5.810339440457962e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>5.13835622452987e-07</v>
+        <v>5.138355504851843e-07</v>
       </c>
       <c r="G8" t="n">
-        <v>4.789932618294643e-07</v>
+        <v>4.789932341609588e-07</v>
       </c>
       <c r="H8" t="n">
-        <v>4.566645927510592e-07</v>
+        <v>4.566645682838427e-07</v>
       </c>
       <c r="I8" t="n">
-        <v>4.395447483107787e-07</v>
+        <v>4.395447321277429e-07</v>
       </c>
       <c r="J8" t="n">
-        <v>4.249194499637819e-07</v>
+        <v>4.249194308863191e-07</v>
       </c>
       <c r="K8" t="n">
-        <v>4.117568094105493e-07</v>
+        <v>4.117567875284492e-07</v>
       </c>
       <c r="L8" t="n">
-        <v>3.996431064585106e-07</v>
+        <v>3.996430845846444e-07</v>
       </c>
       <c r="M8" t="n">
-        <v>3.883931857987864e-07</v>
+        <v>3.883931727524526e-07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.779077357511882e-07</v>
+        <v>3.779077259215718e-07</v>
       </c>
       <c r="O8" t="n">
-        <v>3.681209246738086e-07</v>
+        <v>3.681209167375795e-07</v>
       </c>
       <c r="P8" t="n">
-        <v>3.589811171391069e-07</v>
+        <v>3.589811140545807e-07</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.50443678435065e-07</v>
+        <v>3.504436748797451e-07</v>
       </c>
       <c r="R8" t="n">
-        <v>3.424682260479351e-07</v>
+        <v>3.424682241457185e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>3.350175169942541e-07</v>
+        <v>3.350175172476846e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>3.280569328355359e-07</v>
+        <v>3.280569345501948e-07</v>
       </c>
       <c r="U8" t="n">
-        <v>3.215542013484261e-07</v>
+        <v>3.215542016864976e-07</v>
       </c>
       <c r="V8" t="n">
-        <v>3.154791855894095e-07</v>
+        <v>3.154791880270622e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>3.098037538734249e-07</v>
+        <v>3.098037563198167e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>3.045016188576805e-07</v>
+        <v>3.045016217076105e-07</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.995482257710258e-07</v>
+        <v>2.995482295613062e-07</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.949206358341716e-07</v>
+        <v>2.949206404659327e-07</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.90597418269355e-07</v>
+        <v>2.905974223067569e-07</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.865585507263488e-07</v>
+        <v>2.865585558807974e-07</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.827853335506178e-07</v>
+        <v>2.827853379778424e-07</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.792602903499396e-07</v>
+        <v>2.79260296561084e-07</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.759670977636953e-07</v>
+        <v>2.759671043032186e-07</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.728905069833828e-07</v>
+        <v>2.728905140834891e-07</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.700162700750587e-07</v>
+        <v>2.700162771604196e-07</v>
       </c>
       <c r="AH8" t="n">
-        <v>2.673310772424432e-07</v>
+        <v>2.67331082989673e-07</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.648224953823973e-07</v>
+        <v>2.648224989798634e-07</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2.624789062643225e-07</v>
+        <v>2.624789086132745e-07</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.602894566586616e-07</v>
+        <v>2.602894594340564e-07</v>
       </c>
       <c r="AL8" t="n">
-        <v>2.582440090999191e-07</v>
+        <v>2.582440119011219e-07</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.563330911400035e-07</v>
+        <v>2.5633309440882e-07</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.54547855298098e-07</v>
+        <v>2.545478579315367e-07</v>
       </c>
       <c r="AO8" t="n">
-        <v>2.528800342751085e-07</v>
+        <v>2.528800378735184e-07</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.513219068225834e-07</v>
+        <v>2.513219100146225e-07</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.498662553291769e-07</v>
+        <v>2.498662590044329e-07</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.48506341145176e-07</v>
+        <v>2.485063445285687e-07</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.47235866831412e-07</v>
+        <v>2.472358699415068e-07</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.460489496662714e-07</v>
+        <v>2.460489525312886e-07</v>
       </c>
       <c r="AU8" t="n">
-        <v>2.449400933198377e-07</v>
+        <v>2.449400970818076e-07</v>
       </c>
       <c r="AV8" t="n">
-        <v>2.439041642778141e-07</v>
+        <v>2.439041679402869e-07</v>
       </c>
       <c r="AW8" t="n">
-        <v>2.42936365657312e-07</v>
+        <v>2.429363695597803e-07</v>
       </c>
       <c r="AX8" t="n">
-        <v>2.420322167253634e-07</v>
+        <v>2.420322204475774e-07</v>
       </c>
       <c r="AY8" t="n">
-        <v>2.411875304993814e-07</v>
+        <v>2.41187534472791e-07</v>
       </c>
       <c r="AZ8" t="n">
-        <v>2.403983961360749e-07</v>
+        <v>2.403983998087026e-07</v>
       </c>
       <c r="BA8" t="n">
-        <v>2.396611599559015e-07</v>
+        <v>2.396611631873757e-07</v>
       </c>
       <c r="BB8" t="n">
-        <v>2.38972408137626e-07</v>
+        <v>2.389724110764241e-07</v>
       </c>
       <c r="BC8" t="n">
-        <v>2.383289522001147e-07</v>
+        <v>2.383289549678755e-07</v>
       </c>
       <c r="BD8" t="n">
-        <v>2.377278127839224e-07</v>
+        <v>2.377278153989127e-07</v>
       </c>
       <c r="BE8" t="n">
-        <v>2.37166206644446e-07</v>
+        <v>2.371662091307827e-07</v>
       </c>
       <c r="BF8" t="n">
-        <v>2.366415335561592e-07</v>
+        <v>2.366415360770302e-07</v>
       </c>
       <c r="BG8" t="n">
-        <v>2.361513648311056e-07</v>
+        <v>2.361513669491295e-07</v>
       </c>
       <c r="BH8" t="n">
-        <v>2.356934305185514e-07</v>
+        <v>2.356934326347648e-07</v>
       </c>
       <c r="BI8" t="n">
-        <v>2.352656108937705e-07</v>
+        <v>2.352656130184003e-07</v>
       </c>
       <c r="BJ8" t="n">
-        <v>2.34865925427186e-07</v>
+        <v>2.348659273393964e-07</v>
       </c>
       <c r="BK8" t="n">
-        <v>2.344925234333982e-07</v>
+        <v>2.344925254088247e-07</v>
       </c>
       <c r="BL8" t="n">
-        <v>2.341436765215213e-07</v>
+        <v>2.34143678164799e-07</v>
       </c>
       <c r="BM8" t="n">
-        <v>2.338177694886838e-07</v>
+        <v>2.338177709858466e-07</v>
       </c>
       <c r="BN8" t="n">
-        <v>2.335132936894847e-07</v>
+        <v>2.33513295291602e-07</v>
       </c>
       <c r="BO8" t="n">
-        <v>2.332288396968473e-07</v>
+        <v>2.332288412143065e-07</v>
       </c>
       <c r="BP8" t="n">
-        <v>2.329630907181589e-07</v>
+        <v>2.329630921295871e-07</v>
       </c>
       <c r="BQ8" t="n">
-        <v>2.327148164948994e-07</v>
+        <v>2.327148177416179e-07</v>
       </c>
       <c r="BR8" t="n">
-        <v>2.324828678240066e-07</v>
+        <v>2.324828690141673e-07</v>
       </c>
       <c r="BS8" t="n">
-        <v>2.322661709225302e-07</v>
+        <v>2.322661720791813e-07</v>
       </c>
       <c r="BT8" t="n">
-        <v>2.320637228128269e-07</v>
+        <v>2.320637238634314e-07</v>
       </c>
       <c r="BU8" t="n">
-        <v>2.31874586331929e-07</v>
+        <v>2.318745873099832e-07</v>
       </c>
       <c r="BV8" t="n">
-        <v>2.316978861124222e-07</v>
+        <v>2.31697887059878e-07</v>
       </c>
       <c r="BW8" t="n">
-        <v>2.315328042146368e-07</v>
+        <v>2.315328051187291e-07</v>
       </c>
       <c r="BX8" t="n">
-        <v>2.313785765949781e-07</v>
+        <v>2.313785774851967e-07</v>
       </c>
       <c r="BY8" t="n">
-        <v>2.312344893973651e-07</v>
+        <v>2.312344902999115e-07</v>
       </c>
       <c r="BZ8" t="n">
-        <v>2.310998758708857e-07</v>
+        <v>2.310998767485769e-07</v>
       </c>
       <c r="CA8" t="n">
-        <v>2.309741128460209e-07</v>
+        <v>2.30974113699606e-07</v>
       </c>
       <c r="CB8" t="n">
-        <v>2.308566183696345e-07</v>
+        <v>2.308566191653506e-07</v>
       </c>
       <c r="CC8" t="n">
-        <v>2.307468486458039e-07</v>
+        <v>2.307468494053412e-07</v>
       </c>
       <c r="CD8" t="n">
-        <v>2.306442956883293e-07</v>
+        <v>2.306442964116236e-07</v>
       </c>
       <c r="CE8" t="n">
-        <v>2.305484849215223e-07</v>
+        <v>2.305484855518179e-07</v>
       </c>
       <c r="CF8" t="n">
-        <v>2.304589729566566e-07</v>
+        <v>2.304589735681422e-07</v>
       </c>
       <c r="CG8" t="n">
-        <v>2.303753455849692e-07</v>
+        <v>2.303753461638337e-07</v>
       </c>
       <c r="CH8" t="n">
-        <v>2.302972158010323e-07</v>
+        <v>2.302972163809076e-07</v>
       </c>
       <c r="CI8" t="n">
-        <v>2.302242221821087e-07</v>
+        <v>2.302242227209155e-07</v>
       </c>
       <c r="CJ8" t="n">
-        <v>2.301560269222169e-07</v>
+        <v>2.301560274554207e-07</v>
       </c>
       <c r="CK8" t="n">
-        <v>2.300923145326661e-07</v>
+        <v>2.30092315014703e-07</v>
       </c>
       <c r="CL8" t="n">
-        <v>2.300327901849864e-07</v>
+        <v>2.300327906392435e-07</v>
       </c>
       <c r="CM8" t="n">
-        <v>2.299771784881739e-07</v>
+        <v>2.299771789332574e-07</v>
       </c>
       <c r="CN8" t="n">
-        <v>2.299252222059155e-07</v>
+        <v>2.299252226477682e-07</v>
       </c>
       <c r="CO8" t="n">
-        <v>2.298766809710058e-07</v>
+        <v>2.298766813664975e-07</v>
       </c>
       <c r="CP8" t="n">
-        <v>2.298313302280061e-07</v>
+        <v>2.298313305872267e-07</v>
       </c>
       <c r="CQ8" t="n">
-        <v>2.297889601682626e-07</v>
+        <v>2.297889605253158e-07</v>
       </c>
       <c r="CR8" t="n">
-        <v>2.297493748326225e-07</v>
+        <v>2.297493751496996e-07</v>
       </c>
       <c r="CS8" t="n">
-        <v>2.297123911123494e-07</v>
+        <v>2.297123914046889e-07</v>
       </c>
       <c r="CT8" t="n">
-        <v>2.296778379471988e-07</v>
+        <v>2.296778382323662e-07</v>
       </c>
       <c r="CU8" t="n">
-        <v>2.296455555501272e-07</v>
+        <v>2.29645555807476e-07</v>
       </c>
       <c r="CV8" t="n">
-        <v>2.296153946095866e-07</v>
+        <v>2.296153948394598e-07</v>
       </c>
       <c r="CW8" t="n">
-        <v>2.295872156271679e-07</v>
+        <v>2.295872158588359e-07</v>
       </c>
     </row>
     <row r="9">
@@ -15850,202 +15875,202 @@
         <v>3.927703644055135e-06</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3.80805970272196e-06</v>
+        <v>3.808059704880888e-06</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.696283882805466e-06</v>
+        <v>3.696283580392102e-06</v>
       </c>
       <c r="AL10" t="n">
-        <v>3.59185867203369e-06</v>
+        <v>3.591858645563755e-06</v>
       </c>
       <c r="AM10" t="n">
-        <v>3.494300910751443e-06</v>
+        <v>3.49430070975289e-06</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.403158111534778e-06</v>
+        <v>3.403157992348149e-06</v>
       </c>
       <c r="AO10" t="n">
-        <v>3.318008769595448e-06</v>
+        <v>3.318008438063404e-06</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.23845815265148e-06</v>
+        <v>3.238458063685142e-06</v>
       </c>
       <c r="AQ10" t="n">
-        <v>3.164137904020191e-06</v>
+        <v>3.164137993562443e-06</v>
       </c>
       <c r="AR10" t="n">
-        <v>3.094704081566696e-06</v>
+        <v>3.094704367074844e-06</v>
       </c>
       <c r="AS10" t="n">
-        <v>3.029835087967347e-06</v>
+        <v>3.02983539530211e-06</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.969230302447725e-06</v>
+        <v>2.969230742940025e-06</v>
       </c>
       <c r="AU10" t="n">
-        <v>2.912609596135549e-06</v>
+        <v>2.91260993272083e-06</v>
       </c>
       <c r="AV10" t="n">
-        <v>2.85971039425715e-06</v>
+        <v>2.859710795541347e-06</v>
       </c>
       <c r="AW10" t="n">
-        <v>2.810288052098069e-06</v>
+        <v>2.810288327963964e-06</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.76411368014213e-06</v>
+        <v>2.764113917307127e-06</v>
       </c>
       <c r="AY10" t="n">
-        <v>2.720973485074445e-06</v>
+        <v>2.720973785245139e-06</v>
       </c>
       <c r="AZ10" t="n">
-        <v>2.680667857966432e-06</v>
+        <v>2.68066817816024e-06</v>
       </c>
       <c r="BA10" t="n">
-        <v>2.643010244607995e-06</v>
+        <v>2.643010575808497e-06</v>
       </c>
       <c r="BB10" t="n">
-        <v>2.607826412506501e-06</v>
+        <v>2.60782665425136e-06</v>
       </c>
       <c r="BC10" t="n">
-        <v>2.574953499541252e-06</v>
+        <v>2.574953648450753e-06</v>
       </c>
       <c r="BD10" t="n">
-        <v>2.544239268777718e-06</v>
+        <v>2.544239480416236e-06</v>
       </c>
       <c r="BE10" t="n">
-        <v>2.515541958916228e-06</v>
+        <v>2.515542100549944e-06</v>
       </c>
       <c r="BF10" t="n">
-        <v>2.488728558068438e-06</v>
+        <v>2.488728654348027e-06</v>
       </c>
       <c r="BG10" t="n">
-        <v>2.46367517356791e-06</v>
+        <v>2.463675273188141e-06</v>
       </c>
       <c r="BH10" t="n">
-        <v>2.44026598480274e-06</v>
+        <v>2.440266095883252e-06</v>
       </c>
       <c r="BI10" t="n">
-        <v>2.418392767483903e-06</v>
+        <v>2.41839287212651e-06</v>
       </c>
       <c r="BJ10" t="n">
-        <v>2.397954444829563e-06</v>
+        <v>2.397954520884954e-06</v>
       </c>
       <c r="BK10" t="n">
-        <v>2.378856555780137e-06</v>
+        <v>2.378856627494058e-06</v>
       </c>
       <c r="BL10" t="n">
-        <v>2.361010874961903e-06</v>
+        <v>2.361010935214107e-06</v>
       </c>
       <c r="BM10" t="n">
-        <v>2.344334941637376e-06</v>
+        <v>2.34433498968812e-06</v>
       </c>
       <c r="BN10" t="n">
-        <v>2.328751778198445e-06</v>
+        <v>2.328751800837066e-06</v>
       </c>
       <c r="BO10" t="n">
-        <v>2.314189494964397e-06</v>
+        <v>2.314189486490199e-06</v>
       </c>
       <c r="BP10" t="n">
-        <v>2.300580847515406e-06</v>
+        <v>2.300580843734096e-06</v>
       </c>
       <c r="BQ10" t="n">
-        <v>2.287863106915311e-06</v>
+        <v>2.287863063662939e-06</v>
       </c>
       <c r="BR10" t="n">
-        <v>2.275977587920004e-06</v>
+        <v>2.275977554562751e-06</v>
       </c>
       <c r="BS10" t="n">
-        <v>2.264869540647908e-06</v>
+        <v>2.264869459980132e-06</v>
       </c>
       <c r="BT10" t="n">
-        <v>2.254487743327009e-06</v>
+        <v>2.254487667877245e-06</v>
       </c>
       <c r="BU10" t="n">
-        <v>2.244784445823822e-06</v>
+        <v>2.244784359411486e-06</v>
       </c>
       <c r="BV10" t="n">
-        <v>2.235714961315648e-06</v>
+        <v>2.235714885403094e-06</v>
       </c>
       <c r="BW10" t="n">
-        <v>2.227237577036204e-06</v>
+        <v>2.227237512810638e-06</v>
       </c>
       <c r="BX10" t="n">
-        <v>2.219313313253362e-06</v>
+        <v>2.219313248908763e-06</v>
       </c>
       <c r="BY10" t="n">
-        <v>2.211905771950575e-06</v>
+        <v>2.211905690857197e-06</v>
       </c>
       <c r="BZ10" t="n">
-        <v>2.204980903278081e-06</v>
+        <v>2.204980840127755e-06</v>
       </c>
       <c r="CA10" t="n">
-        <v>2.198506964989333e-06</v>
+        <v>2.198506928424457e-06</v>
       </c>
       <c r="CB10" t="n">
-        <v>2.192454286816003e-06</v>
+        <v>2.192454245801492e-06</v>
       </c>
       <c r="CC10" t="n">
-        <v>2.186795120548292e-06</v>
+        <v>2.186795088541899e-06</v>
       </c>
       <c r="CD10" t="n">
-        <v>2.181503568255356e-06</v>
+        <v>2.181503527182314e-06</v>
       </c>
       <c r="CE10" t="n">
-        <v>2.176555423496372e-06</v>
+        <v>2.176555379307596e-06</v>
       </c>
       <c r="CF10" t="n">
-        <v>2.171928084350322e-06</v>
+        <v>2.171928041182117e-06</v>
       </c>
       <c r="CG10" t="n">
-        <v>2.16760043279854e-06</v>
+        <v>2.167600389398514e-06</v>
       </c>
       <c r="CH10" t="n">
-        <v>2.163552748774823e-06</v>
+        <v>2.163552700621661e-06</v>
       </c>
       <c r="CI10" t="n">
-        <v>2.15976659143548e-06</v>
+        <v>2.159766540306469e-06</v>
       </c>
       <c r="CJ10" t="n">
-        <v>2.156224743197342e-06</v>
+        <v>2.156224696484449e-06</v>
       </c>
       <c r="CK10" t="n">
-        <v>2.15291113507656e-06</v>
+        <v>2.152911094205737e-06</v>
       </c>
       <c r="CL10" t="n">
-        <v>2.149810729042521e-06</v>
+        <v>2.14981069482556e-06</v>
       </c>
       <c r="CM10" t="n">
-        <v>2.146909501843587e-06</v>
+        <v>2.146909463422393e-06</v>
       </c>
       <c r="CN10" t="n">
-        <v>2.144194342388038e-06</v>
+        <v>2.14419430352639e-06</v>
       </c>
       <c r="CO10" t="n">
-        <v>2.141652996548225e-06</v>
+        <v>2.141652957247047e-06</v>
       </c>
       <c r="CP10" t="n">
-        <v>2.139274022839044e-06</v>
+        <v>2.139273988623623e-06</v>
       </c>
       <c r="CQ10" t="n">
-        <v>2.137046742445768e-06</v>
+        <v>2.137046706089001e-06</v>
       </c>
       <c r="CR10" t="n">
-        <v>2.134961160766029e-06</v>
+        <v>2.134961131063001e-06</v>
       </c>
       <c r="CS10" t="n">
-        <v>2.133007952551508e-06</v>
+        <v>2.133007919434435e-06</v>
       </c>
       <c r="CT10" t="n">
-        <v>2.131178408741995e-06</v>
+        <v>2.13117837549265e-06</v>
       </c>
       <c r="CU10" t="n">
-        <v>2.12946438491954e-06</v>
+        <v>2.12946434969368e-06</v>
       </c>
       <c r="CV10" t="n">
-        <v>2.127858274375508e-06</v>
+        <v>2.127858242979388e-06</v>
       </c>
       <c r="CW10" t="n">
-        <v>2.126352979071706e-06</v>
+        <v>2.126352953631773e-06</v>
       </c>
     </row>
     <row r="11">
@@ -16708,259 +16733,259 @@
         <v>3.553507366899393e-07</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.46225678339898e-07</v>
+        <v>3.462256783398995e-07</v>
       </c>
       <c r="R13" t="n">
-        <v>3.377015523742122e-07</v>
+        <v>3.377015539269254e-07</v>
       </c>
       <c r="S13" t="n">
-        <v>3.297383517553447e-07</v>
+        <v>3.297383575480235e-07</v>
       </c>
       <c r="T13" t="n">
-        <v>3.222990159679232e-07</v>
+        <v>3.222990092111835e-07</v>
       </c>
       <c r="U13" t="n">
-        <v>3.153490019795734e-07</v>
+        <v>3.153489991794324e-07</v>
       </c>
       <c r="V13" t="n">
-        <v>3.088561164041243e-07</v>
+        <v>3.088561132225618e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>3.027902851541719e-07</v>
+        <v>3.027902753455259e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>2.971234144586567e-07</v>
+        <v>2.971233999522229e-07</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.918292465365289e-07</v>
+        <v>2.918292365557803e-07</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.868832795498509e-07</v>
+        <v>2.868832703123487e-07</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.822626087142318e-07</v>
+        <v>2.822626035454253e-07</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.779458390910697e-07</v>
+        <v>2.7794583430355e-07</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.739129749883084e-07</v>
+        <v>2.739129692044929e-07</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.701453471087223e-07</v>
+        <v>2.701453428674697e-07</v>
       </c>
       <c r="AE13" t="n">
-        <v>2.666255119145041e-07</v>
+        <v>2.666255045240032e-07</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.633371693137126e-07</v>
+        <v>2.633371627324916e-07</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.602650905564872e-07</v>
+        <v>2.602650873234319e-07</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.573950567590803e-07</v>
+        <v>2.57395054377451e-07</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.54713778586893e-07</v>
+        <v>2.547137758420876e-07</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2.522088393678126e-07</v>
+        <v>2.522088371705577e-07</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.498686401993694e-07</v>
+        <v>2.498686362769483e-07</v>
       </c>
       <c r="AL13" t="n">
-        <v>2.476823479827337e-07</v>
+        <v>2.47682343693674e-07</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.456398369022794e-07</v>
+        <v>2.456398328820821e-07</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.437316515768691e-07</v>
+        <v>2.437316485153971e-07</v>
       </c>
       <c r="AO13" t="n">
-        <v>2.419489579967237e-07</v>
+        <v>2.419489570079321e-07</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.402835040045843e-07</v>
+        <v>2.402835036403051e-07</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.387275764542934e-07</v>
+        <v>2.387275754513542e-07</v>
       </c>
       <c r="AR13" t="n">
-        <v>2.372739726658845e-07</v>
+        <v>2.372739719832395e-07</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.359159634426182e-07</v>
+        <v>2.359159624284524e-07</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.346472611265135e-07</v>
+        <v>2.346472591925139e-07</v>
       </c>
       <c r="AU13" t="n">
-        <v>2.334619918148133e-07</v>
+        <v>2.334619899171298e-07</v>
       </c>
       <c r="AV13" t="n">
-        <v>2.323546684001972e-07</v>
+        <v>2.323546657927209e-07</v>
       </c>
       <c r="AW13" t="n">
-        <v>2.313201636323653e-07</v>
+        <v>2.313201617902901e-07</v>
       </c>
       <c r="AX13" t="n">
-        <v>2.30353689040305e-07</v>
+        <v>2.303536881894039e-07</v>
       </c>
       <c r="AY13" t="n">
-        <v>2.294507710324916e-07</v>
+        <v>2.294507702907655e-07</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2.286072286818499e-07</v>
+        <v>2.286072278773077e-07</v>
       </c>
       <c r="BA13" t="n">
-        <v>2.278191570090524e-07</v>
+        <v>2.278191562018567e-07</v>
       </c>
       <c r="BB13" t="n">
-        <v>2.270829087987241e-07</v>
+        <v>2.270829083977549e-07</v>
       </c>
       <c r="BC13" t="n">
-        <v>2.263950753800051e-07</v>
+        <v>2.263950747061289e-07</v>
       </c>
       <c r="BD13" t="n">
-        <v>2.25752472349665e-07</v>
+        <v>2.257524714877274e-07</v>
       </c>
       <c r="BE13" t="n">
-        <v>2.251521254828648e-07</v>
+        <v>2.251521246281879e-07</v>
       </c>
       <c r="BF13" t="n">
-        <v>2.245912557651773e-07</v>
+        <v>2.245912545324588e-07</v>
       </c>
       <c r="BG13" t="n">
-        <v>2.240672663934685e-07</v>
+        <v>2.240672656396789e-07</v>
       </c>
       <c r="BH13" t="n">
-        <v>2.235777324678313e-07</v>
+        <v>2.235777316773155e-07</v>
       </c>
       <c r="BI13" t="n">
-        <v>2.231203882988404e-07</v>
+        <v>2.231203874167028e-07</v>
       </c>
       <c r="BJ13" t="n">
-        <v>2.226931164072663e-07</v>
+        <v>2.226931155134684e-07</v>
       </c>
       <c r="BK13" t="n">
-        <v>2.222939392971032e-07</v>
+        <v>2.222939383634047e-07</v>
       </c>
       <c r="BL13" t="n">
-        <v>2.219210093668107e-07</v>
+        <v>2.219210080889471e-07</v>
       </c>
       <c r="BM13" t="n">
-        <v>2.215726002955252e-07</v>
+        <v>2.215725991570253e-07</v>
       </c>
       <c r="BN13" t="n">
-        <v>2.212470995969225e-07</v>
+        <v>2.212470984541976e-07</v>
       </c>
       <c r="BO13" t="n">
-        <v>2.209430010598054e-07</v>
+        <v>2.209429998536443e-07</v>
       </c>
       <c r="BP13" t="n">
-        <v>2.206588967243734e-07</v>
+        <v>2.20658895886435e-07</v>
       </c>
       <c r="BQ13" t="n">
-        <v>2.203934723091627e-07</v>
+        <v>2.203934712642793e-07</v>
       </c>
       <c r="BR13" t="n">
-        <v>2.20145498836992e-07</v>
+        <v>2.201454978812825e-07</v>
       </c>
       <c r="BS13" t="n">
-        <v>2.199138289535187e-07</v>
+        <v>2.199138280882646e-07</v>
       </c>
       <c r="BT13" t="n">
-        <v>2.196973906429777e-07</v>
+        <v>2.196973896960268e-07</v>
       </c>
       <c r="BU13" t="n">
-        <v>2.194951819419508e-07</v>
+        <v>2.194951810531318e-07</v>
       </c>
       <c r="BV13" t="n">
-        <v>2.193062674333488e-07</v>
+        <v>2.193062666071847e-07</v>
       </c>
       <c r="BW13" t="n">
-        <v>2.191297726716952e-07</v>
+        <v>2.191297720187573e-07</v>
       </c>
       <c r="BX13" t="n">
-        <v>2.189648812774636e-07</v>
+        <v>2.189648805307545e-07</v>
       </c>
       <c r="BY13" t="n">
-        <v>2.188108299814507e-07</v>
+        <v>2.188108292926954e-07</v>
       </c>
       <c r="BZ13" t="n">
-        <v>2.186669059961198e-07</v>
+        <v>2.186669052832392e-07</v>
       </c>
       <c r="CA13" t="n">
-        <v>2.185324434555837e-07</v>
+        <v>2.185324425763144e-07</v>
       </c>
       <c r="CB13" t="n">
-        <v>2.184068199707384e-07</v>
+        <v>2.184068191543133e-07</v>
       </c>
       <c r="CC13" t="n">
-        <v>2.182894544685858e-07</v>
+        <v>2.182894537196505e-07</v>
       </c>
       <c r="CD13" t="n">
-        <v>2.181798040213412e-07</v>
+        <v>2.181798032641177e-07</v>
       </c>
       <c r="CE13" t="n">
-        <v>2.180773611175624e-07</v>
+        <v>2.180773604151561e-07</v>
       </c>
       <c r="CF13" t="n">
-        <v>2.179816520336272e-07</v>
+        <v>2.17981651353573e-07</v>
       </c>
       <c r="CG13" t="n">
-        <v>2.178922338760161e-07</v>
+        <v>2.178922332154989e-07</v>
       </c>
       <c r="CH13" t="n">
-        <v>2.178086930136929e-07</v>
+        <v>2.178086924386908e-07</v>
       </c>
       <c r="CI13" t="n">
-        <v>2.177306430597803e-07</v>
+        <v>2.177306424845037e-07</v>
       </c>
       <c r="CJ13" t="n">
-        <v>2.176577229194289e-07</v>
+        <v>2.176577223999157e-07</v>
       </c>
       <c r="CK13" t="n">
-        <v>2.175895952980352e-07</v>
+        <v>2.175895948393021e-07</v>
       </c>
       <c r="CL13" t="n">
-        <v>2.175259451725301e-07</v>
+        <v>2.175259447204932e-07</v>
       </c>
       <c r="CM13" t="n">
-        <v>2.17466478002117e-07</v>
+        <v>2.174664776067824e-07</v>
       </c>
       <c r="CN13" t="n">
-        <v>2.174109188527557e-07</v>
+        <v>2.174109185381266e-07</v>
       </c>
       <c r="CO13" t="n">
-        <v>2.173590108295e-07</v>
+        <v>2.173590104885578e-07</v>
       </c>
       <c r="CP13" t="n">
-        <v>2.173105137492043e-07</v>
+        <v>2.173105134119854e-07</v>
       </c>
       <c r="CQ13" t="n">
-        <v>2.17265203425211e-07</v>
+        <v>2.172652031145206e-07</v>
       </c>
       <c r="CR13" t="n">
-        <v>2.172228703121342e-07</v>
+        <v>2.172228700544418e-07</v>
       </c>
       <c r="CS13" t="n">
-        <v>2.171833186987855e-07</v>
+        <v>2.171833184961298e-07</v>
       </c>
       <c r="CT13" t="n">
-        <v>2.17146365753126e-07</v>
+        <v>2.171463655483644e-07</v>
       </c>
       <c r="CU13" t="n">
-        <v>2.171118405794795e-07</v>
+        <v>2.171118404265682e-07</v>
       </c>
       <c r="CV13" t="n">
-        <v>2.170795835836241e-07</v>
+        <v>2.17079583460078e-07</v>
       </c>
       <c r="CW13" t="n">
-        <v>2.170494456811003e-07</v>
+        <v>2.170494455538803e-07</v>
       </c>
     </row>
     <row r="14">
@@ -17226,46 +17251,46 @@
         <v>4.479620596495973e-07</v>
       </c>
       <c r="CJ14" t="n">
-        <v>4.478300767894994e-07</v>
+        <v>4.478300768344849e-07</v>
       </c>
       <c r="CK14" t="n">
-        <v>4.477067696686987e-07</v>
+        <v>4.477067697536985e-07</v>
       </c>
       <c r="CL14" t="n">
-        <v>4.475915681317717e-07</v>
+        <v>4.475915683036258e-07</v>
       </c>
       <c r="CM14" t="n">
-        <v>4.474839391002419e-07</v>
+        <v>4.474839393317195e-07</v>
       </c>
       <c r="CN14" t="n">
-        <v>4.473833847786439e-07</v>
+        <v>4.47383384993237e-07</v>
       </c>
       <c r="CO14" t="n">
-        <v>4.472894399966907e-07</v>
+        <v>4.472894401404838e-07</v>
       </c>
       <c r="CP14" t="n">
-        <v>4.472016701608468e-07</v>
+        <v>4.472016702903646e-07</v>
       </c>
       <c r="CQ14" t="n">
-        <v>4.471196693035193e-07</v>
+        <v>4.471196694197391e-07</v>
       </c>
       <c r="CR14" t="n">
-        <v>4.470430580421483e-07</v>
+        <v>4.470430581590349e-07</v>
       </c>
       <c r="CS14" t="n">
-        <v>4.469714822165601e-07</v>
+        <v>4.46971482197776e-07</v>
       </c>
       <c r="CT14" t="n">
-        <v>4.469046104767595e-07</v>
+        <v>4.469046105207348e-07</v>
       </c>
       <c r="CU14" t="n">
-        <v>4.468421338579153e-07</v>
+        <v>4.468421337986002e-07</v>
       </c>
       <c r="CV14" t="n">
-        <v>4.467837632634817e-07</v>
+        <v>4.467837631477954e-07</v>
       </c>
       <c r="CW14" t="n">
-        <v>4.467292287514277e-07</v>
+        <v>4.467292286325633e-07</v>
       </c>
     </row>
     <row r="15">
@@ -17671,211 +17696,211 @@
         <v>5.782068801510772e-07</v>
       </c>
       <c r="AG16" t="n">
-        <v>5.70586368713055e-07</v>
+        <v>5.705863687106812e-07</v>
       </c>
       <c r="AH16" t="n">
-        <v>5.634670384823497e-07</v>
+        <v>5.634670318977443e-07</v>
       </c>
       <c r="AI16" t="n">
-        <v>5.568159231012377e-07</v>
+        <v>5.56815911848765e-07</v>
       </c>
       <c r="AJ16" t="n">
-        <v>5.506022241178486e-07</v>
+        <v>5.506022200997594e-07</v>
       </c>
       <c r="AK16" t="n">
-        <v>5.447971794744119e-07</v>
+        <v>5.447971764356998e-07</v>
       </c>
       <c r="AL16" t="n">
-        <v>5.393739052214843e-07</v>
+        <v>5.393739127386509e-07</v>
       </c>
       <c r="AM16" t="n">
-        <v>5.343073017685755e-07</v>
+        <v>5.343073067579575e-07</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.295739032962147e-07</v>
+        <v>5.295739047281038e-07</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.251518014590936e-07</v>
+        <v>5.251517976927387e-07</v>
       </c>
       <c r="AP16" t="n">
-        <v>5.210205107531296e-07</v>
+        <v>5.21020509600433e-07</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5.171609143669684e-07</v>
+        <v>5.171609155404314e-07</v>
       </c>
       <c r="AR16" t="n">
-        <v>5.135551412042253e-07</v>
+        <v>5.135551465587319e-07</v>
       </c>
       <c r="AS16" t="n">
-        <v>5.101864992694257e-07</v>
+        <v>5.101865024416502e-07</v>
       </c>
       <c r="AT16" t="n">
-        <v>5.070393901215097e-07</v>
+        <v>5.070393928203804e-07</v>
       </c>
       <c r="AU16" t="n">
-        <v>5.040992448399817e-07</v>
+        <v>5.04099253790512e-07</v>
       </c>
       <c r="AV16" t="n">
-        <v>5.013524517959156e-07</v>
+        <v>5.013524587107971e-07</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.987862951645921e-07</v>
+        <v>4.987863026360839e-07</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.963888924219401e-07</v>
+        <v>4.963889032727097e-07</v>
       </c>
       <c r="AY16" t="n">
-        <v>4.941491474785867e-07</v>
+        <v>4.941491601449812e-07</v>
       </c>
       <c r="AZ16" t="n">
-        <v>4.920566967873754e-07</v>
+        <v>4.920567046264348e-07</v>
       </c>
       <c r="BA16" t="n">
-        <v>4.901018439886873e-07</v>
+        <v>4.901018531416946e-07</v>
       </c>
       <c r="BB16" t="n">
-        <v>4.882755459224914e-07</v>
+        <v>4.882755543658763e-07</v>
       </c>
       <c r="BC16" t="n">
-        <v>4.865693468844141e-07</v>
+        <v>4.865693546058693e-07</v>
       </c>
       <c r="BD16" t="n">
-        <v>4.849753458824745e-07</v>
+        <v>4.849753555323658e-07</v>
       </c>
       <c r="BE16" t="n">
-        <v>4.834861675325551e-07</v>
+        <v>4.834861746173498e-07</v>
       </c>
       <c r="BF16" t="n">
-        <v>4.820949170307367e-07</v>
+        <v>4.820949214091477e-07</v>
       </c>
       <c r="BG16" t="n">
-        <v>4.807951511474221e-07</v>
+        <v>4.807951573295131e-07</v>
       </c>
       <c r="BH16" t="n">
-        <v>4.79580857300943e-07</v>
+        <v>4.795808631092809e-07</v>
       </c>
       <c r="BI16" t="n">
-        <v>4.784464134106321e-07</v>
+        <v>4.784464180515814e-07</v>
       </c>
       <c r="BJ16" t="n">
-        <v>4.773865666220693e-07</v>
+        <v>4.773865706197907e-07</v>
       </c>
       <c r="BK16" t="n">
-        <v>4.763964116016449e-07</v>
+        <v>4.763964154290841e-07</v>
       </c>
       <c r="BL16" t="n">
-        <v>4.75471366060166e-07</v>
+        <v>4.754713686454518e-07</v>
       </c>
       <c r="BM16" t="n">
-        <v>4.746071484524887e-07</v>
+        <v>4.746071488603917e-07</v>
       </c>
       <c r="BN16" t="n">
-        <v>4.737997560535676e-07</v>
+        <v>4.737997558702733e-07</v>
       </c>
       <c r="BO16" t="n">
-        <v>4.730454538084672e-07</v>
+        <v>4.730454542117785e-07</v>
       </c>
       <c r="BP16" t="n">
-        <v>4.723407495500525e-07</v>
+        <v>4.723407503101114e-07</v>
       </c>
       <c r="BQ16" t="n">
-        <v>4.716823822664852e-07</v>
+        <v>4.716823835419859e-07</v>
       </c>
       <c r="BR16" t="n">
-        <v>4.710673043758509e-07</v>
+        <v>4.710673057467392e-07</v>
       </c>
       <c r="BS16" t="n">
-        <v>4.704926698670472e-07</v>
+        <v>4.704926707303624e-07</v>
       </c>
       <c r="BT16" t="n">
-        <v>4.699558178216026e-07</v>
+        <v>4.699558184032047e-07</v>
       </c>
       <c r="BU16" t="n">
-        <v>4.694542638603937e-07</v>
+        <v>4.694542645189168e-07</v>
       </c>
       <c r="BV16" t="n">
-        <v>4.689856870570819e-07</v>
+        <v>4.689856870768828e-07</v>
       </c>
       <c r="BW16" t="n">
-        <v>4.685479185612838e-07</v>
+        <v>4.685479188129133e-07</v>
       </c>
       <c r="BX16" t="n">
-        <v>4.681389322623259e-07</v>
+        <v>4.681389323943922e-07</v>
       </c>
       <c r="BY16" t="n">
-        <v>4.67756835651657e-07</v>
+        <v>4.677568352630772e-07</v>
       </c>
       <c r="BZ16" t="n">
-        <v>4.67399859929549e-07</v>
+        <v>4.673998592808039e-07</v>
       </c>
       <c r="CA16" t="n">
-        <v>4.670663539909723e-07</v>
+        <v>4.670663531668819e-07</v>
       </c>
       <c r="CB16" t="n">
-        <v>4.667547738247515e-07</v>
+        <v>4.667547732353107e-07</v>
       </c>
       <c r="CC16" t="n">
-        <v>4.664636779894347e-07</v>
+        <v>4.664636772488645e-07</v>
       </c>
       <c r="CD16" t="n">
-        <v>4.661917190241947e-07</v>
+        <v>4.661917183099935e-07</v>
       </c>
       <c r="CE16" t="n">
-        <v>4.659376387406256e-07</v>
+        <v>4.659376381574904e-07</v>
       </c>
       <c r="CF16" t="n">
-        <v>4.65700261282383e-07</v>
+        <v>4.65700260933594e-07</v>
       </c>
       <c r="CG16" t="n">
-        <v>4.654784884573652e-07</v>
+        <v>4.654784882339759e-07</v>
       </c>
       <c r="CH16" t="n">
-        <v>4.652712943534813e-07</v>
+        <v>4.652712937758605e-07</v>
       </c>
       <c r="CI16" t="n">
-        <v>4.65077719998188e-07</v>
+        <v>4.650777194987779e-07</v>
       </c>
       <c r="CJ16" t="n">
-        <v>4.648968697773134e-07</v>
+        <v>4.648968693274743e-07</v>
       </c>
       <c r="CK16" t="n">
-        <v>4.647279071727528e-07</v>
+        <v>4.647279069980745e-07</v>
       </c>
       <c r="CL16" t="n">
-        <v>4.645700503169239e-07</v>
+        <v>4.645700503327855e-07</v>
       </c>
       <c r="CM16" t="n">
-        <v>4.644225692779439e-07</v>
+        <v>4.644225692506808e-07</v>
       </c>
       <c r="CN16" t="n">
-        <v>4.642847813458926e-07</v>
+        <v>4.642847813949175e-07</v>
       </c>
       <c r="CO16" t="n">
-        <v>4.641560493435005e-07</v>
+        <v>4.64156049493322e-07</v>
       </c>
       <c r="CP16" t="n">
-        <v>4.640357779430601e-07</v>
+        <v>4.640357781083665e-07</v>
       </c>
       <c r="CQ16" t="n">
-        <v>4.639234107553229e-07</v>
+        <v>4.639234109252413e-07</v>
       </c>
       <c r="CR16" t="n">
-        <v>4.638184280589925e-07</v>
+        <v>4.63818428070938e-07</v>
       </c>
       <c r="CS16" t="n">
-        <v>4.637203440944096e-07</v>
+        <v>4.637203442850447e-07</v>
       </c>
       <c r="CT16" t="n">
-        <v>4.636287055487687e-07</v>
+        <v>4.63628705622489e-07</v>
       </c>
       <c r="CU16" t="n">
-        <v>4.635430883951203e-07</v>
+        <v>4.635430886437666e-07</v>
       </c>
       <c r="CV16" t="n">
-        <v>4.634630968671744e-07</v>
+        <v>4.634630971568034e-07</v>
       </c>
       <c r="CW16" t="n">
-        <v>4.63388361109365e-07</v>
+        <v>4.633883613404012e-07</v>
       </c>
     </row>
     <row r="17">
@@ -17886,301 +17911,301 @@
         <v>4.223784816962806e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>2.058666682405672e-06</v>
+        <v>2.058666877036516e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>1.352949240340745e-06</v>
+        <v>1.352948690152229e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>1.082603367069516e-06</v>
+        <v>1.082603036130229e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>9.722077707648352e-07</v>
+        <v>9.722074830971639e-07</v>
       </c>
       <c r="G17" t="n">
-        <v>9.210945671280693e-07</v>
+        <v>9.21094259334588e-07</v>
       </c>
       <c r="H17" t="n">
-        <v>8.923783497754059e-07</v>
+        <v>8.923780447355597e-07</v>
       </c>
       <c r="I17" t="n">
-        <v>8.725160071575901e-07</v>
+        <v>8.725157221470902e-07</v>
       </c>
       <c r="J17" t="n">
-        <v>8.565086296383793e-07</v>
+        <v>8.565083127480151e-07</v>
       </c>
       <c r="K17" t="n">
-        <v>8.424865549957541e-07</v>
+        <v>8.42486254311957e-07</v>
       </c>
       <c r="L17" t="n">
-        <v>8.297279260589363e-07</v>
+        <v>8.297276423746586e-07</v>
       </c>
       <c r="M17" t="n">
-        <v>8.179332770628648e-07</v>
+        <v>8.179330050035324e-07</v>
       </c>
       <c r="N17" t="n">
-        <v>8.069600554165415e-07</v>
+        <v>8.069597958115623e-07</v>
       </c>
       <c r="O17" t="n">
-        <v>7.967252839115865e-07</v>
+        <v>7.96725020652835e-07</v>
       </c>
       <c r="P17" t="n">
-        <v>7.871697752180691e-07</v>
+        <v>7.871695203318549e-07</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.782449820079053e-07</v>
+        <v>7.782447519511069e-07</v>
       </c>
       <c r="R17" t="n">
-        <v>7.699080170486861e-07</v>
+        <v>7.699078005456029e-07</v>
       </c>
       <c r="S17" t="n">
-        <v>7.621196846939042e-07</v>
+        <v>7.621194911269632e-07</v>
       </c>
       <c r="T17" t="n">
-        <v>7.548437142367679e-07</v>
+        <v>7.548435382546521e-07</v>
       </c>
       <c r="U17" t="n">
-        <v>7.480463316820015e-07</v>
+        <v>7.480461809493572e-07</v>
       </c>
       <c r="V17" t="n">
-        <v>7.416960363011486e-07</v>
+        <v>7.416959000487253e-07</v>
       </c>
       <c r="W17" t="n">
-        <v>7.357634159803538e-07</v>
+        <v>7.357632849477412e-07</v>
       </c>
       <c r="X17" t="n">
-        <v>7.302209867417651e-07</v>
+        <v>7.302208712894682e-07</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.250430855705834e-07</v>
+        <v>7.250429813212243e-07</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.2020573796143e-07</v>
+        <v>7.202056381519912e-07</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.156865415232901e-07</v>
+        <v>7.15686447825306e-07</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.114645776008918e-07</v>
+        <v>7.114644808728831e-07</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.075202818563625e-07</v>
+        <v>7.075201908226267e-07</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.038353966999729e-07</v>
+        <v>7.038353067753539e-07</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.003928546815012e-07</v>
+        <v>7.003927749537423e-07</v>
       </c>
       <c r="AF17" t="n">
-        <v>6.971767215232925e-07</v>
+        <v>6.971766471014849e-07</v>
       </c>
       <c r="AG17" t="n">
-        <v>6.941721074252423e-07</v>
+        <v>6.941720360044504e-07</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.913650990092894e-07</v>
+        <v>6.913650320123645e-07</v>
       </c>
       <c r="AI17" t="n">
-        <v>6.887426935481722e-07</v>
+        <v>6.887426365889951e-07</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6.862927589377879e-07</v>
+        <v>6.862927044132433e-07</v>
       </c>
       <c r="AK17" t="n">
-        <v>6.840039442443741e-07</v>
+        <v>6.840038969779961e-07</v>
       </c>
       <c r="AL17" t="n">
-        <v>6.818656568085229e-07</v>
+        <v>6.818656135355462e-07</v>
       </c>
       <c r="AM17" t="n">
-        <v>6.798679935394033e-07</v>
+        <v>6.798679533182088e-07</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.780017061611359e-07</v>
+        <v>6.780016687706702e-07</v>
       </c>
       <c r="AO17" t="n">
-        <v>6.762581562335219e-07</v>
+        <v>6.76258119524925e-07</v>
       </c>
       <c r="AP17" t="n">
-        <v>6.746292681182271e-07</v>
+        <v>6.746292328122358e-07</v>
       </c>
       <c r="AQ17" t="n">
-        <v>6.73107499418629e-07</v>
+        <v>6.731074650765606e-07</v>
       </c>
       <c r="AR17" t="n">
-        <v>6.71685807441618e-07</v>
+        <v>6.716857756807537e-07</v>
       </c>
       <c r="AS17" t="n">
-        <v>6.703576119365955e-07</v>
+        <v>6.703575801650581e-07</v>
       </c>
       <c r="AT17" t="n">
-        <v>6.691167583334256e-07</v>
+        <v>6.691167306041377e-07</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.679575061966831e-07</v>
+        <v>6.679574828812747e-07</v>
       </c>
       <c r="AV17" t="n">
-        <v>6.668744877003091e-07</v>
+        <v>6.668744666848598e-07</v>
       </c>
       <c r="AW17" t="n">
-        <v>6.658626896755474e-07</v>
+        <v>6.658626691279859e-07</v>
       </c>
       <c r="AX17" t="n">
-        <v>6.649174278002981e-07</v>
+        <v>6.649174077401412e-07</v>
       </c>
       <c r="AY17" t="n">
-        <v>6.640343259333075e-07</v>
+        <v>6.640343063337587e-07</v>
       </c>
       <c r="AZ17" t="n">
-        <v>6.632092957843397e-07</v>
+        <v>6.632092775246422e-07</v>
       </c>
       <c r="BA17" t="n">
-        <v>6.624385179734759e-07</v>
+        <v>6.624385011248397e-07</v>
       </c>
       <c r="BB17" t="n">
-        <v>6.617184256338924e-07</v>
+        <v>6.617184100211517e-07</v>
       </c>
       <c r="BC17" t="n">
-        <v>6.610456851884203e-07</v>
+        <v>6.610456696155213e-07</v>
       </c>
       <c r="BD17" t="n">
-        <v>6.604171808666085e-07</v>
+        <v>6.604171672492756e-07</v>
       </c>
       <c r="BE17" t="n">
-        <v>6.59830004624023e-07</v>
+        <v>6.598299917141888e-07</v>
       </c>
       <c r="BF17" t="n">
-        <v>6.592814377569834e-07</v>
+        <v>6.592814258304304e-07</v>
       </c>
       <c r="BG17" t="n">
-        <v>6.587689425235316e-07</v>
+        <v>6.587689310813315e-07</v>
       </c>
       <c r="BH17" t="n">
-        <v>6.582901459665681e-07</v>
+        <v>6.582901346132111e-07</v>
       </c>
       <c r="BI17" t="n">
-        <v>6.578428321640987e-07</v>
+        <v>6.578428203436203e-07</v>
       </c>
       <c r="BJ17" t="n">
-        <v>6.574249296117443e-07</v>
+        <v>6.574249189786993e-07</v>
       </c>
       <c r="BK17" t="n">
-        <v>6.570345047109976e-07</v>
+        <v>6.570344949764289e-07</v>
       </c>
       <c r="BL17" t="n">
-        <v>6.566697506499444e-07</v>
+        <v>6.566697419118733e-07</v>
       </c>
       <c r="BM17" t="n">
-        <v>6.563289793383938e-07</v>
+        <v>6.563289706963238e-07</v>
       </c>
       <c r="BN17" t="n">
-        <v>6.560106132733972e-07</v>
+        <v>6.56010605096124e-07</v>
       </c>
       <c r="BO17" t="n">
-        <v>6.557131788310297e-07</v>
+        <v>6.557131713410091e-07</v>
       </c>
       <c r="BP17" t="n">
-        <v>6.554353001095243e-07</v>
+        <v>6.554352927031374e-07</v>
       </c>
       <c r="BQ17" t="n">
-        <v>6.551756906286042e-07</v>
+        <v>6.551756837910627e-07</v>
       </c>
       <c r="BR17" t="n">
-        <v>6.549331492772062e-07</v>
+        <v>6.549331425610503e-07</v>
       </c>
       <c r="BS17" t="n">
-        <v>6.54706553261265e-07</v>
+        <v>6.547065472617429e-07</v>
       </c>
       <c r="BT17" t="n">
-        <v>6.544948543690474e-07</v>
+        <v>6.544948489138537e-07</v>
       </c>
       <c r="BU17" t="n">
-        <v>6.542970726926608e-07</v>
+        <v>6.542970677126614e-07</v>
       </c>
       <c r="BV17" t="n">
-        <v>6.541122933559905e-07</v>
+        <v>6.541122887404027e-07</v>
       </c>
       <c r="BW17" t="n">
-        <v>6.539396611506077e-07</v>
+        <v>6.539396569077151e-07</v>
       </c>
       <c r="BX17" t="n">
-        <v>6.537783771008016e-07</v>
+        <v>6.537783733056657e-07</v>
       </c>
       <c r="BY17" t="n">
-        <v>6.536276954118729e-07</v>
+        <v>6.536276919243739e-07</v>
       </c>
       <c r="BZ17" t="n">
-        <v>6.53486918724423e-07</v>
+        <v>6.534869155331891e-07</v>
       </c>
       <c r="CA17" t="n">
-        <v>6.533553957015868e-07</v>
+        <v>6.533553925845858e-07</v>
       </c>
       <c r="CB17" t="n">
-        <v>6.532325178664247e-07</v>
+        <v>6.532325149260452e-07</v>
       </c>
       <c r="CC17" t="n">
-        <v>6.531177167822534e-07</v>
+        <v>6.531177138707266e-07</v>
       </c>
       <c r="CD17" t="n">
-        <v>6.530104611315153e-07</v>
+        <v>6.530104584003325e-07</v>
       </c>
       <c r="CE17" t="n">
-        <v>6.529102548829028e-07</v>
+        <v>6.529102523016078e-07</v>
       </c>
       <c r="CF17" t="n">
-        <v>6.528166345558063e-07</v>
+        <v>6.528166321693171e-07</v>
       </c>
       <c r="CG17" t="n">
-        <v>6.527291671270308e-07</v>
+        <v>6.527291649417524e-07</v>
       </c>
       <c r="CH17" t="n">
-        <v>6.526474479822394e-07</v>
+        <v>6.526474460207698e-07</v>
       </c>
       <c r="CI17" t="n">
-        <v>6.525710991872326e-07</v>
+        <v>6.525710973705024e-07</v>
       </c>
       <c r="CJ17" t="n">
-        <v>6.524997676637035e-07</v>
+        <v>6.524997658169356e-07</v>
       </c>
       <c r="CK17" t="n">
-        <v>6.524331235081541e-07</v>
+        <v>6.524331218022963e-07</v>
       </c>
       <c r="CL17" t="n">
-        <v>6.523708584741199e-07</v>
+        <v>6.523708569485875e-07</v>
       </c>
       <c r="CM17" t="n">
-        <v>6.523126847569591e-07</v>
+        <v>6.523126831647937e-07</v>
       </c>
       <c r="CN17" t="n">
-        <v>6.522583332366767e-07</v>
+        <v>6.522583317181454e-07</v>
       </c>
       <c r="CO17" t="n">
-        <v>6.522075526886591e-07</v>
+        <v>6.522075511888122e-07</v>
       </c>
       <c r="CP17" t="n">
-        <v>6.521601082854767e-07</v>
+        <v>6.521601068115237e-07</v>
       </c>
       <c r="CQ17" t="n">
-        <v>6.521157806708139e-07</v>
+        <v>6.521157792458305e-07</v>
       </c>
       <c r="CR17" t="n">
-        <v>6.520743649103495e-07</v>
+        <v>6.520743636135116e-07</v>
       </c>
       <c r="CS17" t="n">
-        <v>6.520356696374112e-07</v>
+        <v>6.520356683504938e-07</v>
       </c>
       <c r="CT17" t="n">
-        <v>6.51999515978837e-07</v>
+        <v>6.519995147433281e-07</v>
       </c>
       <c r="CU17" t="n">
-        <v>6.519657368272717e-07</v>
+        <v>6.519657356478937e-07</v>
       </c>
       <c r="CV17" t="n">
-        <v>6.519341760905068e-07</v>
+        <v>6.51934174950592e-07</v>
       </c>
       <c r="CW17" t="n">
-        <v>6.519046879908419e-07</v>
+        <v>6.519046868367759e-07</v>
       </c>
     </row>
     <row r="18">
@@ -18344,148 +18369,148 @@
         <v>9.163804501381314e-07</v>
       </c>
       <c r="BB18" t="n">
-        <v>9.142343927960337e-07</v>
+        <v>9.142343927924034e-07</v>
       </c>
       <c r="BC18" t="n">
-        <v>9.122294569705303e-07</v>
+        <v>9.122294611827866e-07</v>
       </c>
       <c r="BD18" t="n">
-        <v>9.1035636558099e-07</v>
+        <v>9.103563681268146e-07</v>
       </c>
       <c r="BE18" t="n">
-        <v>9.08606442031644e-07</v>
+        <v>9.086064483256154e-07</v>
       </c>
       <c r="BF18" t="n">
-        <v>9.069715902785074e-07</v>
+        <v>9.069715958316238e-07</v>
       </c>
       <c r="BG18" t="n">
-        <v>9.054442398012272e-07</v>
+        <v>9.054442449983953e-07</v>
       </c>
       <c r="BH18" t="n">
-        <v>9.040173217312353e-07</v>
+        <v>9.040173279190428e-07</v>
       </c>
       <c r="BI18" t="n">
-        <v>9.026842339723087e-07</v>
+        <v>9.026842405378014e-07</v>
       </c>
       <c r="BJ18" t="n">
-        <v>9.014388029530792e-07</v>
+        <v>9.014388067496713e-07</v>
       </c>
       <c r="BK18" t="n">
-        <v>9.002752637081967e-07</v>
+        <v>9.002752658138024e-07</v>
       </c>
       <c r="BL18" t="n">
-        <v>8.991882311919687e-07</v>
+        <v>8.991882331597724e-07</v>
       </c>
       <c r="BM18" t="n">
-        <v>8.981726718354399e-07</v>
+        <v>8.981726740290838e-07</v>
       </c>
       <c r="BN18" t="n">
-        <v>8.972238894689353e-07</v>
+        <v>8.972238910209972e-07</v>
       </c>
       <c r="BO18" t="n">
-        <v>8.963374910678819e-07</v>
+        <v>8.963374900463788e-07</v>
       </c>
       <c r="BP18" t="n">
-        <v>8.955093717760395e-07</v>
+        <v>8.955093708261645e-07</v>
       </c>
       <c r="BQ18" t="n">
-        <v>8.947357018728383e-07</v>
+        <v>8.947357005372737e-07</v>
       </c>
       <c r="BR18" t="n">
-        <v>8.94012899583181e-07</v>
+        <v>8.940128982972785e-07</v>
       </c>
       <c r="BS18" t="n">
-        <v>8.93337620462417e-07</v>
+        <v>8.933376189442611e-07</v>
       </c>
       <c r="BT18" t="n">
-        <v>8.927067359735107e-07</v>
+        <v>8.927067368625391e-07</v>
       </c>
       <c r="BU18" t="n">
-        <v>8.921173315964888e-07</v>
+        <v>8.921173316041663e-07</v>
       </c>
       <c r="BV18" t="n">
-        <v>8.915666765603613e-07</v>
+        <v>8.915666768883836e-07</v>
       </c>
       <c r="BW18" t="n">
-        <v>8.910522234116064e-07</v>
+        <v>8.910522239533411e-07</v>
       </c>
       <c r="BX18" t="n">
-        <v>8.905715912679233e-07</v>
+        <v>8.905715918168591e-07</v>
       </c>
       <c r="BY18" t="n">
-        <v>8.901225555484324e-07</v>
+        <v>8.901225567954241e-07</v>
       </c>
       <c r="BZ18" t="n">
-        <v>8.897030398699744e-07</v>
+        <v>8.897030410566405e-07</v>
       </c>
       <c r="CA18" t="n">
-        <v>8.893111017713071e-07</v>
+        <v>8.893111029191423e-07</v>
       </c>
       <c r="CB18" t="n">
-        <v>8.889449288586381e-07</v>
+        <v>8.889449290657851e-07</v>
       </c>
       <c r="CC18" t="n">
-        <v>8.886028252719269e-07</v>
+        <v>8.886028253777061e-07</v>
       </c>
       <c r="CD18" t="n">
-        <v>8.882832086394396e-07</v>
+        <v>8.882832084682209e-07</v>
       </c>
       <c r="CE18" t="n">
-        <v>8.87984600899466e-07</v>
+        <v>8.879846007194711e-07</v>
       </c>
       <c r="CF18" t="n">
-        <v>8.877056207780394e-07</v>
+        <v>8.877056195741236e-07</v>
       </c>
       <c r="CG18" t="n">
-        <v>8.874449765329465e-07</v>
+        <v>8.874449752807903e-07</v>
       </c>
       <c r="CH18" t="n">
-        <v>8.872014629196804e-07</v>
+        <v>8.872014619162252e-07</v>
       </c>
       <c r="CI18" t="n">
-        <v>8.869739531336891e-07</v>
+        <v>8.869739525806728e-07</v>
       </c>
       <c r="CJ18" t="n">
-        <v>8.867613952706734e-07</v>
+        <v>8.867613950436525e-07</v>
       </c>
       <c r="CK18" t="n">
-        <v>8.865628061035385e-07</v>
+        <v>8.865628063303095e-07</v>
       </c>
       <c r="CL18" t="n">
-        <v>8.863772672796828e-07</v>
+        <v>8.863772678604922e-07</v>
       </c>
       <c r="CM18" t="n">
-        <v>8.862039205956538e-07</v>
+        <v>8.862039210783198e-07</v>
       </c>
       <c r="CN18" t="n">
-        <v>8.86041963931843e-07</v>
+        <v>8.86041964546335e-07</v>
       </c>
       <c r="CO18" t="n">
-        <v>8.858906486279276e-07</v>
+        <v>8.858906491488789e-07</v>
       </c>
       <c r="CP18" t="n">
-        <v>8.857492752789516e-07</v>
+        <v>8.857492756049576e-07</v>
       </c>
       <c r="CQ18" t="n">
-        <v>8.856171895679899e-07</v>
+        <v>8.856171898725722e-07</v>
       </c>
       <c r="CR18" t="n">
-        <v>8.854937809749209e-07</v>
+        <v>8.854937812274419e-07</v>
       </c>
       <c r="CS18" t="n">
-        <v>8.853784791155367e-07</v>
+        <v>8.853784792742039e-07</v>
       </c>
       <c r="CT18" t="n">
-        <v>8.852707509086921e-07</v>
+        <v>8.852707509826987e-07</v>
       </c>
       <c r="CU18" t="n">
-        <v>8.851700981616897e-07</v>
+        <v>8.851700984300386e-07</v>
       </c>
       <c r="CV18" t="n">
-        <v>8.850760558963116e-07</v>
+        <v>8.850760562450337e-07</v>
       </c>
       <c r="CW18" t="n">
-        <v>8.849881894683346e-07</v>
+        <v>8.849881898141449e-07</v>
       </c>
     </row>
     <row r="19">
@@ -19821,196 +19846,196 @@
         <v>1.093873107946989e-07</v>
       </c>
       <c r="AL23" t="n">
-        <v>1.058239362734829e-07</v>
+        <v>1.058239361572459e-07</v>
       </c>
       <c r="AM23" t="n">
-        <v>1.024949478526364e-07</v>
+        <v>1.024949503239679e-07</v>
       </c>
       <c r="AN23" t="n">
-        <v>9.938492704754357e-08</v>
+        <v>9.938493023434757e-08</v>
       </c>
       <c r="AO23" t="n">
-        <v>9.647947339737574e-08</v>
+        <v>9.647947695363703e-08</v>
       </c>
       <c r="AP23" t="n">
-        <v>9.376513244863053e-08</v>
+        <v>9.376513498165984e-08</v>
       </c>
       <c r="AQ23" t="n">
-        <v>9.122932991716099e-08</v>
+        <v>9.122933283661521e-08</v>
       </c>
       <c r="AR23" t="n">
-        <v>8.886032257903992e-08</v>
+        <v>8.886032583127179e-08</v>
       </c>
       <c r="AS23" t="n">
-        <v>8.66471406006324e-08</v>
+        <v>8.664714288068174e-08</v>
       </c>
       <c r="AT23" t="n">
-        <v>8.457953162338401e-08</v>
+        <v>8.457953332862511e-08</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.264792144576038e-08</v>
+        <v>8.264792303100605e-08</v>
       </c>
       <c r="AV23" t="n">
-        <v>8.084336496017646e-08</v>
+        <v>8.084336617271745e-08</v>
       </c>
       <c r="AW23" t="n">
-        <v>7.915750370492861e-08</v>
+        <v>7.915750495981388e-08</v>
       </c>
       <c r="AX23" t="n">
-        <v>7.758253077983657e-08</v>
+        <v>7.758253154694095e-08</v>
       </c>
       <c r="AY23" t="n">
-        <v>7.611115235086562e-08</v>
+        <v>7.611115261660077e-08</v>
       </c>
       <c r="AZ23" t="n">
-        <v>7.473655356837786e-08</v>
+        <v>7.473655441084438e-08</v>
       </c>
       <c r="BA23" t="n">
-        <v>7.345236880422963e-08</v>
+        <v>7.345236924607579e-08</v>
       </c>
       <c r="BB23" t="n">
-        <v>7.225265092280669e-08</v>
+        <v>7.22526511589491e-08</v>
       </c>
       <c r="BC23" t="n">
-        <v>7.113184314885153e-08</v>
+        <v>7.113184381371548e-08</v>
       </c>
       <c r="BD23" t="n">
-        <v>7.008475540842886e-08</v>
+        <v>7.008475651174878e-08</v>
       </c>
       <c r="BE23" t="n">
-        <v>6.910653876015543e-08</v>
+        <v>6.91065400671687e-08</v>
       </c>
       <c r="BF23" t="n">
-        <v>6.819266256678512e-08</v>
+        <v>6.819266389025656e-08</v>
       </c>
       <c r="BG23" t="n">
-        <v>6.733889525008588e-08</v>
+        <v>6.7338896403062e-08</v>
       </c>
       <c r="BH23" t="n">
-        <v>6.65412823199793e-08</v>
+        <v>6.654128354674539e-08</v>
       </c>
       <c r="BI23" t="n">
-        <v>6.579613046108962e-08</v>
+        <v>6.579613181547468e-08</v>
       </c>
       <c r="BJ23" t="n">
-        <v>6.50999888340012e-08</v>
+        <v>6.50999899716382e-08</v>
       </c>
       <c r="BK23" t="n">
-        <v>6.444963365595837e-08</v>
+        <v>6.444963482328402e-08</v>
       </c>
       <c r="BL23" t="n">
-        <v>6.384205307825885e-08</v>
+        <v>6.384205452165684e-08</v>
       </c>
       <c r="BM23" t="n">
-        <v>6.327443360860905e-08</v>
+        <v>6.327443496145291e-08</v>
       </c>
       <c r="BN23" t="n">
-        <v>6.274414702230958e-08</v>
+        <v>6.274414799673163e-08</v>
       </c>
       <c r="BO23" t="n">
-        <v>6.224873719267193e-08</v>
+        <v>6.224873821619022e-08</v>
       </c>
       <c r="BP23" t="n">
-        <v>6.178591031633705e-08</v>
+        <v>6.178591128560429e-08</v>
       </c>
       <c r="BQ23" t="n">
-        <v>6.135352304472551e-08</v>
+        <v>6.135352404251349e-08</v>
       </c>
       <c r="BR23" t="n">
-        <v>6.094957336499053e-08</v>
+        <v>6.094957415325717e-08</v>
       </c>
       <c r="BS23" t="n">
-        <v>6.057219040129842e-08</v>
+        <v>6.057219126678213e-08</v>
       </c>
       <c r="BT23" t="n">
-        <v>6.021962707252863e-08</v>
+        <v>6.021962779016999e-08</v>
       </c>
       <c r="BU23" t="n">
-        <v>5.989025055526477e-08</v>
+        <v>5.989025120262522e-08</v>
       </c>
       <c r="BV23" t="n">
-        <v>5.958253596691098e-08</v>
+        <v>5.958253647020555e-08</v>
       </c>
       <c r="BW23" t="n">
-        <v>5.929505833144204e-08</v>
+        <v>5.929505887896379e-08</v>
       </c>
       <c r="BX23" t="n">
-        <v>5.902648667517547e-08</v>
+        <v>5.902648718048933e-08</v>
       </c>
       <c r="BY23" t="n">
-        <v>5.877557738959376e-08</v>
+        <v>5.877557790179276e-08</v>
       </c>
       <c r="BZ23" t="n">
-        <v>5.85411686978929e-08</v>
+        <v>5.854116916765825e-08</v>
       </c>
       <c r="CA23" t="n">
-        <v>5.832217532178923e-08</v>
+        <v>5.832217576054115e-08</v>
       </c>
       <c r="CB23" t="n">
-        <v>5.811758331376769e-08</v>
+        <v>5.811758371784382e-08</v>
       </c>
       <c r="CC23" t="n">
-        <v>5.792644550881743e-08</v>
+        <v>5.792644592801812e-08</v>
       </c>
       <c r="CD23" t="n">
-        <v>5.774787695309912e-08</v>
+        <v>5.774787728319672e-08</v>
       </c>
       <c r="CE23" t="n">
-        <v>5.758105100454035e-08</v>
+        <v>5.758105116651218e-08</v>
       </c>
       <c r="CF23" t="n">
-        <v>5.742519507779981e-08</v>
+        <v>5.742519533253258e-08</v>
       </c>
       <c r="CG23" t="n">
-        <v>5.727958785477519e-08</v>
+        <v>5.727958815323109e-08</v>
       </c>
       <c r="CH23" t="n">
-        <v>5.714355527964166e-08</v>
+        <v>5.71435555605063e-08</v>
       </c>
       <c r="CI23" t="n">
-        <v>5.701646753202787e-08</v>
+        <v>5.701646787052776e-08</v>
       </c>
       <c r="CJ23" t="n">
-        <v>5.689773635745225e-08</v>
+        <v>5.689773669691021e-08</v>
       </c>
       <c r="CK23" t="n">
-        <v>5.678681210098084e-08</v>
+        <v>5.678681239712435e-08</v>
       </c>
       <c r="CL23" t="n">
-        <v>5.668318132911636e-08</v>
+        <v>5.668318161548856e-08</v>
       </c>
       <c r="CM23" t="n">
-        <v>5.658636432093307e-08</v>
+        <v>5.658636462141322e-08</v>
       </c>
       <c r="CN23" t="n">
-        <v>5.649591301507592e-08</v>
+        <v>5.649591323629167e-08</v>
       </c>
       <c r="CO23" t="n">
-        <v>5.641140867158294e-08</v>
+        <v>5.641140888670813e-08</v>
       </c>
       <c r="CP23" t="n">
-        <v>5.633246023609612e-08</v>
+        <v>5.633246042584054e-08</v>
       </c>
       <c r="CQ23" t="n">
-        <v>5.625870226300892e-08</v>
+        <v>5.625870245303468e-08</v>
       </c>
       <c r="CR23" t="n">
-        <v>5.618979339474004e-08</v>
+        <v>5.618979358451675e-08</v>
       </c>
       <c r="CS23" t="n">
-        <v>5.612541476242066e-08</v>
+        <v>5.612541493345242e-08</v>
       </c>
       <c r="CT23" t="n">
-        <v>5.606526840638787e-08</v>
+        <v>5.606526855183286e-08</v>
       </c>
       <c r="CU23" t="n">
-        <v>5.600907599654628e-08</v>
+        <v>5.6009076120815e-08</v>
       </c>
       <c r="CV23" t="n">
-        <v>5.595657751355097e-08</v>
+        <v>5.595657763063664e-08</v>
       </c>
       <c r="CW23" t="n">
-        <v>5.590753003751852e-08</v>
+        <v>5.590753015639758e-08</v>
       </c>
     </row>
     <row r="24">
@@ -20066,256 +20091,256 @@
         <v>6.320527157768723e-07</v>
       </c>
       <c r="R24" t="n">
-        <v>6.063604813859201e-07</v>
+        <v>6.063604813859213e-07</v>
       </c>
       <c r="S24" t="n">
-        <v>5.823582219299758e-07</v>
+        <v>5.823582251465097e-07</v>
       </c>
       <c r="T24" t="n">
-        <v>5.599346770761489e-07</v>
+        <v>5.599347006559669e-07</v>
       </c>
       <c r="U24" t="n">
-        <v>5.389859857558879e-07</v>
+        <v>5.389860247098563e-07</v>
       </c>
       <c r="V24" t="n">
-        <v>5.194151208289715e-07</v>
+        <v>5.194152003285894e-07</v>
       </c>
       <c r="W24" t="n">
-        <v>5.011314650689131e-07</v>
+        <v>5.011315349986043e-07</v>
       </c>
       <c r="X24" t="n">
-        <v>4.840503596416966e-07</v>
+        <v>4.840504069479813e-07</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.680926848178712e-07</v>
+        <v>4.680927152851154e-07</v>
       </c>
       <c r="Z24" t="n">
-        <v>4.531845561281673e-07</v>
+        <v>4.531845885466948e-07</v>
       </c>
       <c r="AA24" t="n">
-        <v>4.392569425072935e-07</v>
+        <v>4.392569758382915e-07</v>
       </c>
       <c r="AB24" t="n">
-        <v>4.262453531387564e-07</v>
+        <v>4.262453858832472e-07</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.140895234508585e-07</v>
+        <v>4.140895606221212e-07</v>
       </c>
       <c r="AD24" t="n">
-        <v>4.027331876037546e-07</v>
+        <v>4.027332332473617e-07</v>
       </c>
       <c r="AE24" t="n">
-        <v>3.921237583590069e-07</v>
+        <v>3.921238083265889e-07</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.822121100636893e-07</v>
+        <v>3.822121575302298e-07</v>
       </c>
       <c r="AG24" t="n">
-        <v>3.729523449172626e-07</v>
+        <v>3.729523819710478e-07</v>
       </c>
       <c r="AH24" t="n">
-        <v>3.643015948585356e-07</v>
+        <v>3.643016218793403e-07</v>
       </c>
       <c r="AI24" t="n">
-        <v>3.562197968751116e-07</v>
+        <v>3.562198218116613e-07</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3.486695203100062e-07</v>
+        <v>3.486695432821958e-07</v>
       </c>
       <c r="AK24" t="n">
-        <v>3.416158219177826e-07</v>
+        <v>3.416158425872087e-07</v>
       </c>
       <c r="AL24" t="n">
-        <v>3.350260369800178e-07</v>
+        <v>3.350260545172578e-07</v>
       </c>
       <c r="AM24" t="n">
-        <v>3.288696442193518e-07</v>
+        <v>3.288696685979247e-07</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.23118150556842e-07</v>
+        <v>3.23118170418773e-07</v>
       </c>
       <c r="AO24" t="n">
-        <v>3.177449288321696e-07</v>
+        <v>3.177449407124916e-07</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.127250855191718e-07</v>
+        <v>3.127250985826814e-07</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.080353878398308e-07</v>
+        <v>3.080353998583991e-07</v>
       </c>
       <c r="AR24" t="n">
-        <v>3.036541183526968e-07</v>
+        <v>3.036541297076252e-07</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.995609950107105e-07</v>
+        <v>2.995610037431072e-07</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.95737064365837e-07</v>
+        <v>2.957370724907515e-07</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.921646238633289e-07</v>
+        <v>2.921646305435339e-07</v>
       </c>
       <c r="AV24" t="n">
-        <v>2.888271255438192e-07</v>
+        <v>2.888271332845206e-07</v>
       </c>
       <c r="AW24" t="n">
-        <v>2.857091256778947e-07</v>
+        <v>2.857091305169029e-07</v>
       </c>
       <c r="AX24" t="n">
-        <v>2.827961867851731e-07</v>
+        <v>2.827961902887973e-07</v>
       </c>
       <c r="AY24" t="n">
-        <v>2.800748178647186e-07</v>
+        <v>2.800748213272943e-07</v>
       </c>
       <c r="AZ24" t="n">
-        <v>2.775324205107023e-07</v>
+        <v>2.775324238610738e-07</v>
       </c>
       <c r="BA24" t="n">
-        <v>2.751572241335388e-07</v>
+        <v>2.751572289527915e-07</v>
       </c>
       <c r="BB24" t="n">
-        <v>2.729382344426102e-07</v>
+        <v>2.729382401471199e-07</v>
       </c>
       <c r="BC24" t="n">
-        <v>2.70865177002549e-07</v>
+        <v>2.708651813862647e-07</v>
       </c>
       <c r="BD24" t="n">
-        <v>2.689284523572596e-07</v>
+        <v>2.689284570703477e-07</v>
       </c>
       <c r="BE24" t="n">
-        <v>2.671190938889608e-07</v>
+        <v>2.671190999602694e-07</v>
       </c>
       <c r="BF24" t="n">
-        <v>2.654287265056571e-07</v>
+        <v>2.654287328629035e-07</v>
       </c>
       <c r="BG24" t="n">
-        <v>2.638495246999836e-07</v>
+        <v>2.638495294759377e-07</v>
       </c>
       <c r="BH24" t="n">
-        <v>2.623741749578335e-07</v>
+        <v>2.623741792081081e-07</v>
       </c>
       <c r="BI24" t="n">
-        <v>2.609958485904231e-07</v>
+        <v>2.609958519319378e-07</v>
       </c>
       <c r="BJ24" t="n">
-        <v>2.597081639626557e-07</v>
+        <v>2.597081662615891e-07</v>
       </c>
       <c r="BK24" t="n">
-        <v>2.58505159110138e-07</v>
+        <v>2.585051618061236e-07</v>
       </c>
       <c r="BL24" t="n">
-        <v>2.573812649834793e-07</v>
+        <v>2.5738126688273e-07</v>
       </c>
       <c r="BM24" t="n">
-        <v>2.563312790759395e-07</v>
+        <v>2.563312804218777e-07</v>
       </c>
       <c r="BN24" t="n">
-        <v>2.55350341820308e-07</v>
+        <v>2.55350342166875e-07</v>
       </c>
       <c r="BO24" t="n">
-        <v>2.544339104464532e-07</v>
+        <v>2.544339100548144e-07</v>
       </c>
       <c r="BP24" t="n">
-        <v>2.535777431428128e-07</v>
+        <v>2.535777418862578e-07</v>
       </c>
       <c r="BQ24" t="n">
-        <v>2.527778755458571e-07</v>
+        <v>2.527778748721907e-07</v>
       </c>
       <c r="BR24" t="n">
-        <v>2.520306059104632e-07</v>
+        <v>2.520306051124785e-07</v>
       </c>
       <c r="BS24" t="n">
-        <v>2.513324743604902e-07</v>
+        <v>2.513324739068495e-07</v>
       </c>
       <c r="BT24" t="n">
-        <v>2.506802504694262e-07</v>
+        <v>2.506802498834386e-07</v>
       </c>
       <c r="BU24" t="n">
-        <v>2.500709142310079e-07</v>
+        <v>2.500709132292008e-07</v>
       </c>
       <c r="BV24" t="n">
-        <v>2.495016447733663e-07</v>
+        <v>2.495016434794608e-07</v>
       </c>
       <c r="BW24" t="n">
-        <v>2.489698073801483e-07</v>
+        <v>2.489698061780382e-07</v>
       </c>
       <c r="BX24" t="n">
-        <v>2.484729398861424e-07</v>
+        <v>2.484729386901585e-07</v>
       </c>
       <c r="BY24" t="n">
-        <v>2.480087428352376e-07</v>
+        <v>2.480087424592189e-07</v>
       </c>
       <c r="BZ24" t="n">
-        <v>2.475750678774174e-07</v>
+        <v>2.475750673879598e-07</v>
       </c>
       <c r="CA24" t="n">
-        <v>2.471699073918291e-07</v>
+        <v>2.471699070016171e-07</v>
       </c>
       <c r="CB24" t="n">
-        <v>2.46791386423684e-07</v>
+        <v>2.467913857511665e-07</v>
       </c>
       <c r="CC24" t="n">
-        <v>2.464377527489252e-07</v>
+        <v>2.464377520711287e-07</v>
       </c>
       <c r="CD24" t="n">
-        <v>2.461073691475769e-07</v>
+        <v>2.461073686407919e-07</v>
       </c>
       <c r="CE24" t="n">
-        <v>2.457987076440263e-07</v>
+        <v>2.457987067948779e-07</v>
       </c>
       <c r="CF24" t="n">
-        <v>2.45510339006065e-07</v>
+        <v>2.455103383163959e-07</v>
       </c>
       <c r="CG24" t="n">
-        <v>2.45240928922134e-07</v>
+        <v>2.452409283734267e-07</v>
       </c>
       <c r="CH24" t="n">
-        <v>2.449892305240234e-07</v>
+        <v>2.449892299322962e-07</v>
       </c>
       <c r="CI24" t="n">
-        <v>2.447540790670421e-07</v>
+        <v>2.447540787954455e-07</v>
       </c>
       <c r="CJ24" t="n">
-        <v>2.44534386399448e-07</v>
+        <v>2.445343861331571e-07</v>
       </c>
       <c r="CK24" t="n">
-        <v>2.443291359282443e-07</v>
+        <v>2.443291356067899e-07</v>
       </c>
       <c r="CL24" t="n">
-        <v>2.441373779961751e-07</v>
+        <v>2.441373777236335e-07</v>
       </c>
       <c r="CM24" t="n">
-        <v>2.43958225227595e-07</v>
+        <v>2.439582249840852e-07</v>
       </c>
       <c r="CN24" t="n">
-        <v>2.437908487002714e-07</v>
+        <v>2.437908483422063e-07</v>
       </c>
       <c r="CO24" t="n">
-        <v>2.436344739353764e-07</v>
+        <v>2.436344734912382e-07</v>
       </c>
       <c r="CP24" t="n">
-        <v>2.434883774205962e-07</v>
+        <v>2.434883769499641e-07</v>
       </c>
       <c r="CQ24" t="n">
-        <v>2.433518834024239e-07</v>
+        <v>2.433518828650407e-07</v>
       </c>
       <c r="CR24" t="n">
-        <v>2.432243603219515e-07</v>
+        <v>2.432243596308415e-07</v>
       </c>
       <c r="CS24" t="n">
-        <v>2.431052182520637e-07</v>
+        <v>2.431052175555559e-07</v>
       </c>
       <c r="CT24" t="n">
-        <v>2.429939059509588e-07</v>
+        <v>2.429939052988584e-07</v>
       </c>
       <c r="CU24" t="n">
-        <v>2.42889908812485e-07</v>
+        <v>2.428899081156138e-07</v>
       </c>
       <c r="CV24" t="n">
-        <v>2.427927456390626e-07</v>
+        <v>2.42792745082299e-07</v>
       </c>
       <c r="CW24" t="n">
-        <v>2.427019670725768e-07</v>
+        <v>2.427019665750947e-07</v>
       </c>
     </row>
     <row r="25">
@@ -20332,295 +20357,295 @@
         <v>3.456086553251907e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>2.575765541349744e-06</v>
+        <v>2.575765541388948e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>2.172806972927069e-06</v>
+        <v>2.172807210138823e-06</v>
       </c>
       <c r="G25" t="n">
-        <v>1.949842519671509e-06</v>
+        <v>1.94984282592066e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>1.797708124507114e-06</v>
+        <v>1.797708746559537e-06</v>
       </c>
       <c r="I25" t="n">
-        <v>1.676132519519789e-06</v>
+        <v>1.676133176261312e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>1.570073582413507e-06</v>
+        <v>1.570074318616383e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>1.473742174821212e-06</v>
+        <v>1.473742934848237e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>1.384753779207375e-06</v>
+        <v>1.384754347387677e-06</v>
       </c>
       <c r="M25" t="n">
-        <v>1.301986694900436e-06</v>
+        <v>1.301987266243027e-06</v>
       </c>
       <c r="N25" t="n">
-        <v>1.22479804130199e-06</v>
+        <v>1.224798657901452e-06</v>
       </c>
       <c r="O25" t="n">
-        <v>1.152735507448255e-06</v>
+        <v>1.152736090764015e-06</v>
       </c>
       <c r="P25" t="n">
-        <v>1.085430695779955e-06</v>
+        <v>1.085431221423633e-06</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.022558997140118e-06</v>
+        <v>1.022559431667864e-06</v>
       </c>
       <c r="R25" t="n">
-        <v>9.638247248987645e-07</v>
+        <v>9.638251440155644e-07</v>
       </c>
       <c r="S25" t="n">
-        <v>9.089541949579875e-07</v>
+        <v>9.089545633744266e-07</v>
       </c>
       <c r="T25" t="n">
-        <v>8.576926826376846e-07</v>
+        <v>8.576930799719865e-07</v>
       </c>
       <c r="U25" t="n">
-        <v>8.098026119091971e-07</v>
+        <v>8.098029953810037e-07</v>
       </c>
       <c r="V25" t="n">
-        <v>7.650621963612716e-07</v>
+        <v>7.650625968108972e-07</v>
       </c>
       <c r="W25" t="n">
-        <v>7.232641613969268e-07</v>
+        <v>7.232645878802362e-07</v>
       </c>
       <c r="X25" t="n">
-        <v>6.842150241970544e-07</v>
+        <v>6.842154070620681e-07</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.477339278735211e-07</v>
+        <v>6.47734326457646e-07</v>
       </c>
       <c r="Z25" t="n">
-        <v>6.136520541351225e-07</v>
+        <v>6.136524118255528e-07</v>
       </c>
       <c r="AA25" t="n">
-        <v>5.818115429551262e-07</v>
+        <v>5.818118831769668e-07</v>
       </c>
       <c r="AB25" t="n">
-        <v>5.520649655790162e-07</v>
+        <v>5.520652973967734e-07</v>
       </c>
       <c r="AC25" t="n">
-        <v>5.242746789837469e-07</v>
+        <v>5.242749408399489e-07</v>
       </c>
       <c r="AD25" t="n">
-        <v>4.983119369590369e-07</v>
+        <v>4.983121624806341e-07</v>
       </c>
       <c r="AE25" t="n">
-        <v>4.740565936081101e-07</v>
+        <v>4.74056804025787e-07</v>
       </c>
       <c r="AF25" t="n">
-        <v>4.513963355607554e-07</v>
+        <v>4.513965422023641e-07</v>
       </c>
       <c r="AG25" t="n">
-        <v>4.302262746422307e-07</v>
+        <v>4.30226485725148e-07</v>
       </c>
       <c r="AH25" t="n">
-        <v>4.104483993397581e-07</v>
+        <v>4.104486220614105e-07</v>
       </c>
       <c r="AI25" t="n">
-        <v>3.919711399637323e-07</v>
+        <v>3.919713694071349e-07</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3.747090180630664e-07</v>
+        <v>3.747092321845203e-07</v>
       </c>
       <c r="AK25" t="n">
-        <v>3.585820569553743e-07</v>
+        <v>3.585822510114682e-07</v>
       </c>
       <c r="AL25" t="n">
-        <v>3.435156147362668e-07</v>
+        <v>3.435158055924627e-07</v>
       </c>
       <c r="AM25" t="n">
-        <v>3.294399516514803e-07</v>
+        <v>3.294401420894055e-07</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.162899222599265e-07</v>
+        <v>3.162901083444636e-07</v>
       </c>
       <c r="AO25" t="n">
-        <v>3.040046479611958e-07</v>
+        <v>3.040048202747281e-07</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.925272609270291e-07</v>
+        <v>2.925274135236725e-07</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.81804616162867e-07</v>
+        <v>2.818047564899741e-07</v>
       </c>
       <c r="AR25" t="n">
-        <v>2.717870959304096e-07</v>
+        <v>2.71787219596276e-07</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.624283116577138e-07</v>
+        <v>2.624284367049529e-07</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.536849702324105e-07</v>
+        <v>2.536850839777755e-07</v>
       </c>
       <c r="AU25" t="n">
-        <v>2.45516579826258e-07</v>
+        <v>2.455166842918053e-07</v>
       </c>
       <c r="AV25" t="n">
-        <v>2.3788533098925e-07</v>
+        <v>2.378854293217604e-07</v>
       </c>
       <c r="AW25" t="n">
-        <v>2.307559032742334e-07</v>
+        <v>2.307559980893373e-07</v>
       </c>
       <c r="AX25" t="n">
-        <v>2.240952988696763e-07</v>
+        <v>2.240953896450673e-07</v>
       </c>
       <c r="AY25" t="n">
-        <v>2.178726853548434e-07</v>
+        <v>2.178727679656374e-07</v>
       </c>
       <c r="AZ25" t="n">
-        <v>2.120592589667004e-07</v>
+        <v>2.120593327384875e-07</v>
       </c>
       <c r="BA25" t="n">
-        <v>2.066281088372994e-07</v>
+        <v>2.066281796278264e-07</v>
       </c>
       <c r="BB25" t="n">
-        <v>2.015540993745425e-07</v>
+        <v>2.015541652427802e-07</v>
       </c>
       <c r="BC25" t="n">
-        <v>1.968137432857318e-07</v>
+        <v>1.96813807188871e-07</v>
       </c>
       <c r="BD25" t="n">
-        <v>1.923851021964155e-07</v>
+        <v>1.923851629205351e-07</v>
       </c>
       <c r="BE25" t="n">
-        <v>1.882476711762092e-07</v>
+        <v>1.882477274841236e-07</v>
       </c>
       <c r="BF25" t="n">
-        <v>1.843823103239015e-07</v>
+        <v>1.843823615423414e-07</v>
       </c>
       <c r="BG25" t="n">
-        <v>1.807711201076173e-07</v>
+        <v>1.807711665223061e-07</v>
       </c>
       <c r="BH25" t="n">
-        <v>1.773973860419534e-07</v>
+        <v>1.773974303501333e-07</v>
       </c>
       <c r="BI25" t="n">
-        <v>1.742454968228361e-07</v>
+        <v>1.742455392097833e-07</v>
       </c>
       <c r="BJ25" t="n">
-        <v>1.71300860033048e-07</v>
+        <v>1.713009001359721e-07</v>
       </c>
       <c r="BK25" t="n">
-        <v>1.685498501842148e-07</v>
+        <v>1.685498882277434e-07</v>
       </c>
       <c r="BL25" t="n">
-        <v>1.659797338384359e-07</v>
+        <v>1.659797681821699e-07</v>
       </c>
       <c r="BM25" t="n">
-        <v>1.635786130317378e-07</v>
+        <v>1.635786438595986e-07</v>
       </c>
       <c r="BN25" t="n">
-        <v>1.613353772906525e-07</v>
+        <v>1.613354068098265e-07</v>
       </c>
       <c r="BO25" t="n">
-        <v>1.592396430384608e-07</v>
+        <v>1.592396706899999e-07</v>
       </c>
       <c r="BP25" t="n">
-        <v>1.572817113455635e-07</v>
+        <v>1.57281736699079e-07</v>
       </c>
       <c r="BQ25" t="n">
-        <v>1.554525196332792e-07</v>
+        <v>1.554525427837978e-07</v>
       </c>
       <c r="BR25" t="n">
-        <v>1.537436028012054e-07</v>
+        <v>1.537436249970469e-07</v>
       </c>
       <c r="BS25" t="n">
-        <v>1.521470523254132e-07</v>
+        <v>1.52147071033334e-07</v>
       </c>
       <c r="BT25" t="n">
-        <v>1.506554770153461e-07</v>
+        <v>1.506554947949214e-07</v>
       </c>
       <c r="BU25" t="n">
-        <v>1.492619748004242e-07</v>
+        <v>1.492619916627984e-07</v>
       </c>
       <c r="BV25" t="n">
-        <v>1.479600970541675e-07</v>
+        <v>1.479601127929569e-07</v>
       </c>
       <c r="BW25" t="n">
-        <v>1.467438192792967e-07</v>
+        <v>1.467438337295118e-07</v>
       </c>
       <c r="BX25" t="n">
-        <v>1.456075114811595e-07</v>
+        <v>1.456075246148501e-07</v>
       </c>
       <c r="BY25" t="n">
-        <v>1.445459149979759e-07</v>
+        <v>1.445459275443001e-07</v>
       </c>
       <c r="BZ25" t="n">
-        <v>1.435541173119766e-07</v>
+        <v>1.435541295515099e-07</v>
       </c>
       <c r="CA25" t="n">
-        <v>1.426275288251582e-07</v>
+        <v>1.426275401905045e-07</v>
       </c>
       <c r="CB25" t="n">
-        <v>1.417618613336556e-07</v>
+        <v>1.417618718734228e-07</v>
       </c>
       <c r="CC25" t="n">
-        <v>1.409531084627845e-07</v>
+        <v>1.40953118453037e-07</v>
       </c>
       <c r="CD25" t="n">
-        <v>1.401975289515899e-07</v>
+        <v>1.401975379561865e-07</v>
       </c>
       <c r="CE25" t="n">
-        <v>1.394916251636046e-07</v>
+        <v>1.394916331639216e-07</v>
       </c>
       <c r="CF25" t="n">
-        <v>1.388321298400235e-07</v>
+        <v>1.388321376629944e-07</v>
       </c>
       <c r="CG25" t="n">
-        <v>1.38215992765908e-07</v>
+        <v>1.382159997008374e-07</v>
       </c>
       <c r="CH25" t="n">
-        <v>1.376403621235643e-07</v>
+        <v>1.376403683600483e-07</v>
       </c>
       <c r="CI25" t="n">
-        <v>1.371025748429834e-07</v>
+        <v>1.371025803821274e-07</v>
       </c>
       <c r="CJ25" t="n">
-        <v>1.366001419255985e-07</v>
+        <v>1.366001470495666e-07</v>
       </c>
       <c r="CK25" t="n">
-        <v>1.361307387506873e-07</v>
+        <v>1.361307433490668e-07</v>
       </c>
       <c r="CL25" t="n">
-        <v>1.356921939535808e-07</v>
+        <v>1.35692197848031e-07</v>
       </c>
       <c r="CM25" t="n">
-        <v>1.352824777965991e-07</v>
+        <v>1.352824813789941e-07</v>
       </c>
       <c r="CN25" t="n">
-        <v>1.348996949069412e-07</v>
+        <v>1.348996984198382e-07</v>
       </c>
       <c r="CO25" t="n">
-        <v>1.345420743351864e-07</v>
+        <v>1.345420775648556e-07</v>
       </c>
       <c r="CP25" t="n">
-        <v>1.342079614886007e-07</v>
+        <v>1.342079644748112e-07</v>
       </c>
       <c r="CQ25" t="n">
-        <v>1.338958107478466e-07</v>
+        <v>1.338958133654449e-07</v>
       </c>
       <c r="CR25" t="n">
-        <v>1.33604177943045e-07</v>
+        <v>1.336041803295141e-07</v>
       </c>
       <c r="CS25" t="n">
-        <v>1.333317139118577e-07</v>
+        <v>1.333317159030008e-07</v>
       </c>
       <c r="CT25" t="n">
-        <v>1.330771581825599e-07</v>
+        <v>1.330771599718913e-07</v>
       </c>
       <c r="CU25" t="n">
-        <v>1.328393332857311e-07</v>
+        <v>1.328393349603797e-07</v>
       </c>
       <c r="CV25" t="n">
-        <v>1.326171392039188e-07</v>
+        <v>1.326171406682815e-07</v>
       </c>
       <c r="CW25" t="n">
-        <v>1.324095480527549e-07</v>
+        <v>1.324095493564569e-07</v>
       </c>
     </row>
   </sheetData>
